--- a/data/output/corona_lyrics_bb.xlsx
+++ b/data/output/corona_lyrics_bb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,17 +501,17 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>languages_sent</t>
+          <t>first_appearance</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>language_sent</t>
+          <t>genius_id</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>language_sent_weight</t>
+          <t>release_date</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -521,30 +521,35 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>desc_keywords</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>keyword_1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>keyword_2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>keyword_3</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>keyword_4</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>keyword_5</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>is_corona_song</t>
         </is>
@@ -552,90 +557,133 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>202</v>
+        <v>783</v>
       </c>
       <c r="B2" t="n">
-        <v>1051</v>
+        <v>6335</v>
       </c>
       <c r="C2" t="n">
-        <v>202</v>
+        <v>783</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Thomas Rhett</t>
+          <t>Lil Uzi Vert</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Thomas Rhett</t>
+          <t>Lil Uzi Vert</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Look What God Gave Her</t>
+          <t>You Better Move</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Don't even want the attention
-But yeah, that's all that she's getting
-Her song is on and she's spinning around, yeah
-She got me drunk like Corona
-Heart racing like it's Daytona
-Ooh, I'm in Heaven, I swear, right now
-And those eyes can hypnotize
-Was designed to blow my mind
-Look what God gave her, how perfect He made her
-She walks in the room, it's like He answered my prayers
-The way that she moves, how could anybody blame her?
-I know she's got haters, but it ain't her fault, nah
-Look what God gave her
-It's like I heard angels singing
-Like she came down from the ceiling
-When she walked in here this evening, I thought, yeah
-That girl one in seven billion
-Got everyone in here feeling
-Like there's a fire in this building, so hot
-Got a smile on her angel face
-I know I'll never lose my faith
-Look what God gave her, how perfect He made her
-She walks in the room, it's like He answered my prayers
-The way that she moves, how could anybody blame her?
-I know she's got haters, but it ain't her fault, nah
-Look what God gave her
-Got that look in her eyes
-Swear she fell right out the sky
-Yeah, I think I've seen the light
-Every kiss, I could die
-It's like the heavens opened wide
-Man, I swear I've seen the light
-Look what God gave her, how perfect He made her
-She walks in the room, it's like He answered my prayers
-The way that she moves, how could anybody blame her?
-I know she's got haters, but it ain't her fault, nah
-Look what God gave her
-Ooh, ooh
-Ooh, look what God gave her (Look what God gave her)
-Ooh, ooh
-Oh yeah, look what God gave her</t>
+          <t>What's happening?
+Remember I used to play that pinball game?
+Let's go
+Lil Uzi Vert
+Ooh, you better move (That was before I had Internet)
+Ooh, you better move
+Ooh, you better move
+Ooh, you better move
+Ooh, you better move
+Ooh, you better move
+Ooh, you better move
+You better move, you better move
+You better move, you better move
+Louis my shoes
+Pull out my whip on twenty-twos
+I saw your girl, I had to scoop
+Just like a bird, she gonna swoop
+Neck is achoo, might catch the flu
+Banana clip straight from the zoo
+I'm like Mother Goose, if I say shoot, they gonna shoot
+No, I'm not sweet, I just got flavor
+Don't need no to water to mix up this juice
+They say "Why your chain it look like a choker?"
+That's for the slaves that had to wear the noose
+Uh, no, you can't cuff me, baby, let me loose
+The way that I live, baby, that's a roof
+Matchin' closet, it came with a pool
+Bro moving 8 balls, not no pool
+If you ask me his name then I don't have a clue (Woah)
+Make 'em hit the folks every time that I shoot
+Too much money, I'm evil from the root
+Yeah, my shows they bust right through the roof
+Saw your crowd at your concert on snooze
+I'm a dog, bitch, I howl at the moon
+I remember when I didn't have cable
+That was back when I used to watch Zoom
+Ooh, you better move
+Ooh, you better move
+Ooh, you better move
+Ooh, you better move
+Ooh, you better move
+Ooh, you better move
+You better move, you better move
+You better move, you better move
+Louis my shoes
+Pull out my whip on twenty-twos
+I saw your girl, I had to scoop
+Just like a bird, she gonna swoop
+Neck is achoo, might catch the flu
+Banana clip straight from the zoo
+I live my life like a cartoon
+Reality is not my move
+I don't know why that girl so rude
+Oh, that's 'cause her jeans, they from Rhude
+You better have you a real good excuse
+He want the smoke, but I don't got a Juul
+I'm like Mother Goose, if I say shoot, they gonna shoot
+Yu-Gi-Oh, Yu-Gi-Oh, you wanna duel?
+Blue-Eyes White Dragon, no, I will not lose
+When I hit my dance, got unlimited moves
+Countin' twelve thousand and that was by noon
+Yeah, step on competition, changin' my shoes
+Green shirt, bitch, I'm Steve, where is Blue?
+Every chain on I pity a fool
+I'm an iPod, man, you more like a Zune
+Made her eat on my dick with a spoon, ew
+Versace drawers, bitch, you Fruit of the Loom
+Yeah, yeah, Fruit of the Loom
+Ooh, you better move
+Ooh, you better move
+Ooh, you better move
+Ooh, you better move
+Ooh, you better move
+Ooh, you better move
+You better move, you better move
+You better move, you better move
+Louis my shoes
+Pull out my whip on twenty-twos
+I saw your girl, I had to scoop
+Just like a bird, she gonna swoop
+Neck is achoo, might catch the flu
+Banana clip straight from the zoo
+Woah
+Yeah, yeah, yeah</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://genius.com/Thomas-rhett-look-what-god-gave-her-lyrics</t>
+          <t>https://genius.com/Lil-uzi-vert-you-better-move-lyrics</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1555</v>
+        <v>2731</v>
       </c>
       <c r="L2" t="n">
-        <v>309</v>
+        <v>544</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -643,87 +691,444 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.999996032471355</v>
+        <v>0.9999979532139288</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{'en': 10, 'id': 2}</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.8333333333333334</v>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>5324263</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>{'look': 10, 'god': 9, 'give': 9, 'get': 8, 'walk': 4, 'know': 4, 'swear': 3, 'perfect': 3, 'room': 3, 'answer': 3, 'prayer': 3, 'way': 3, 'move': 3, 'blame': 3, 'hater': 3, 'fault': 3, 'eye': 2, 'angel': 2, 'think': 2, 'see': 2, 'light': 2, 'want': 1, 'attention': 1, 'song': 1, 'spin': 1, 'drunk': 1, 'corona': 1, 'heart': 1, 'racing': 1, 'daytona': 1, 'heaven': 1, 'hypnotize': 1, 'design': 1, 'blow': 1, 'mind': 1, 'hear': 1, 'singe': 1, 'come': 1, 'ceiling': 1, 'evening': 1, 'girl': 1, 'feel': 1, 'fire': 1, 'building': 1, 'hot': 1, 'smile': 1, 'face': 1, 'lose': 1, 'faith': 1, 'fall': 1, 'sky': 1, 'kiss': 1, 'die': 1, 'heavens': 1, 'open': 1, 'wide': 1, 'man': 1}</t>
+          <t>{'shoot': 5, 'shoe': 4, 'girl': 4, 'louis': 3, 'pull': 3, 'whip': 3, 'twos': 3, 'scoop': 3, 'bird': 3, 'swoop': 3, 'neck': 3, 'achoo': 3, 'catch': 3, 'flu': 3, 'banana': 3, 'clip': 3, 'zoo': 3, 'bitch': 3, 'remember': 2, 'let': 2, 'mother': 2, 'goose': 2, 'chain': 2, 'live': 2, 'roof': 2, 'pool': 2, 'hit': 2, 'yu': 2, 'gi': 2, 'blue': 2, 'fruit': 2, 'loom': 2, 'happen': 1, 'play': 1, 'pinball': 1, 'game': 1, 'lil': 1, 'uzi': 1, 'vert': 1, 'move(thatwas': 1, 'ihad': 1, 'internet': 1, 'youbetter': 1, 'sweet': 1, 'flavor': 1, 'need': 1, 'water': 1, 'mix': 1, 'juice': 1, 'look': 1, 'choker': 1, 'slave': 1, 'wear': 1, 'noose': 1, 'cuff': 1, 'baby': 1, 'loose': 1, 'way': 1, 'matchin': 1, 'closet': 1, 'come': 1, 'bro': 1, 'ball': 1, 'ask': 1, 'clue': 1, 'folk': 1, 'time': 1, 'money': 1, 'evil': 1, 'root': 1, 'bust': 1, 'crowd': 1, 'concert': 1, 'snooze': 1, 'dog': 1, 'howl': 1, 'moon': 1, 'cable': 1, 'watch': 1, 'zoom': 1, 'life': 1, 'cartoon': 1, 'reality': 1, 'know': 1, 'rude': 1, 'jean': 1, 'rhude': 1, 'good': 1, 'excuse': 1, 'want': 1, 'smoke': 1, 'juul': 1, 'wanna': 1, 'duel': 1, 'eye': 1, 'white': 1, 'dragon': 1, 'lose': 1, 'dance': 1, 'unlimited': 1, 'countin': 1, 'noon': 1, 'step': 1, 'competition': 1, 'green': 1, 'shirt': 1, 'steve': 1, 'pity': 1, 'fool': 1, 'ipod': 1, 'man': 1, 'zune': 1, 'eat': 1, 'dick': 1, 'spoon': 1, 'ew': 1, 'versace': 1, 'drawer': 1, 'woah': 1}</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>look</t>
+          <t>{'song': 3, 'sample': 3, 'track': 2, 'feature': 2, 'uzis': 2, 'better': 1, 'fifth': 1, 'lil': 1, 'uzi': 1, 'verts': 1, 'second': 1, 'studio': 1, 'album': 1, 'eternal': 1, 'atake': 1, 'sound': 1, 'effect': 1, 'space': 1, 'cadet': 1, 'pinball': 1, 'lyric': 1, 'surround': 1, 'nostalgia': 1, 'childhood': 1, 'video': 1, 'game': 1, 'homage': 1, 'american': 1, 'rapper': 1, 'spaceghostpurrp': 1, 'videogame': 1, 'friday': 1, 'white': 1, 'shit': 1}</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>god</t>
+          <t>shoot</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>shoe</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>girl</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>walk</t>
-        </is>
-      </c>
-      <c r="X2" t="b">
+          <t>louis</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="Y2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="B3" t="n">
+        <v>6375</v>
+      </c>
+      <c r="C3" t="n">
+        <v>791</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Lil Uzi Vert Featuring Syd</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lil Uzi Vert</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Urgency</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>76</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Treat my darkskin like my redbone, yeah
+Tell my redbone call my red phone, go
+Yeah
+I treat my darkskin like my redbone, yeah
+Tell my redbone call my red phone, yeah
+Yeah, yeah
+Yeah
+Treat my darkskin like my redbone, yeah
+Tell my redbone call my red phone
+It's emergency
+I hit you up just with that urgency
+Know I need your love like you ain't never heard of me
+And I know I was dead wrong, yeah
+I wanna turn up, just another sad song, yeah
+I focus just to make it stack tall, yeah
+Got drip, got sauce, can dress her ass off, hey
+We get so geeked, we call that blastoff, ayy
+I'ma pull up on that girl, mask off, ayy
+No stallin', say that I'm playing, girl, I'ma do this regardless (Yeah)
+You fog my brain, them chemicals made me heartless
+I'm the one that's normal, don't understand, are you Martian?
+I can see her in the rough, she be shining like a diamond (Woo)
+All these boys, they can't find it (Yeah), and that lil' boy, he be lyin' (Yeah)
+Keep on tryna take my persona (Huh?)
+Bite me up like a piranha (Bite)
+Buy the real deal, I swear you is a kinda
+But over you, I'll still pull up the comma
+I put that shit right there right on my mama
+Woah, yeah, yeah
+Yeah, woah
+Treat my darkskin like my redbone, yeah
+Tell my redbone call my red phone
+For emergency
+I hit you up just with that urgency
+Know I need your love like you ain't never heard of me
+And I know I was dead wrong, yeah
+I wanna turn up, just another sad song, yeah
+My exes, I think they were bad luck, yeah
+I promise you gon' be the last one, yeah
+Vacation just so you can have fun, yeah
+Got 'em wishin' they were you, ain't that somethin', somethin'?
+I'm outside in the black truck, jump in
+So much better than my last one, that's when I met him
+Wondering how he got me wrapped up (Up, up)
+You make the rules, babe
+I drink on Tuesdays, I stay out too late
+But if you do, just let me know who you with
+Tell me the truth, tell the judge I ain't do shit
+Yeah, yeah
+Yeah
+Treat my darkskin like my redbone, yeah
+Tell my redbone call my red phone, yeah
+Emergency
+I hit you up just with that urgency
+Know I need your love like you ain't never heard of me
+And I know I was dead wrong, yeah
+I wanna turn up, just another sad song, yeah</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://genius.com/Lil-uzi-vert-urgency-lyrics</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>2197</v>
+      </c>
+      <c r="L3" t="n">
+        <v>444</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>0.9999957805250316</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>5324255</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>{'redbone': 9, 'tell': 7, 'know': 7, 'phone': 5, 'treat': 4, 'darkskin': 4, 'red': 4, 'emergency': 3, 'hit': 3, 'urgency': 3, 'need': 3, 'love': 3, 'hear': 3, 'dead': 3, 'wrong': 3, 'wanna': 3, 'turn': 3, 'sad': 3, 'song': 3, 'ayy': 2, 'pull': 2, 'girl': 2, 'boy': 2, 'bite': 2, 'shit': 2, "somethin'": 2, 'treatmydarkskin': 1, 'myredbone': 1, 'myred': 1, 'focus': 1, 'stack': 1, 'drip': 1, 'sauce': 1, 'dress': 1, 'ass': 1, 'geeked': 1, 'blastoff': 1, 'mask': 1, 'stallin': 1, 'play': 1, 'fog': 1, 'brain': 1, 'chemical': 1, 'heartless': 1, 'normal': 1, 'understand': 1, 'martian': 1, 'rough': 1, 'shine': 1, 'diamond': 1, 'woo': 1, 'find': 1, 'lil': 1, 'lyin': 1, 'tryna': 1, 'persona': 1, 'piranha': 1, 'buy': 1, 'real': 1, 'deal': 1, 'swear': 1, 'comma': 1, 'mama': 1, 'ex': 1, 'think': 1, 'bad': 1, 'luck': 1, 'promise': 1, 'vacation': 1, 'fun': 1, 'got': 1, 'wishin': 1, 'black': 1, 'truck': 1, 'jump': 1, 'meet': 1, 'wonder': 1, 'wrap': 1, 'rule': 1, 'babe': 1, 'drink': 1, 'tuesdays': 1, 'stay': 1, 'late': 1, 'let': 1, 'truth': 1, 'judge': 1}</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>{'uzi': 3, 'track': 3, 'syd': 2, 'release': 2, 'renji': 2, 'section': 2, 'album': 2, 'assistance': 1, 'internet': 1, 'co': 1, 'founder': 1, 'odd': 1, 'future': 1, 'member': 1, 'rap': 1, 'need': 1, 'love': 1, 'urgency': 1, '13th': 1, 'long': 1, 'await': 1, 'project': 1, 'eternal': 1, 'atake': 1, 'ea': 1, 'hint': 1, 'cover': 1, 'art': 1, 'reveal': 1, 'feature': 1, 'record': 1, 'end': 1, 'mark': 1, 'beginning': 1, 'confirm': 1, 'twitter': 1, 'day': 1}</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>redbone</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>tell</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>treat</t>
+        </is>
+      </c>
+      <c r="Y3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6471</v>
+      </c>
+      <c r="C4" t="n">
+        <v>804</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Lil Uzi Vert Featuring NAV</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lil Uzi Vert</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Leaders</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>72</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Tourin', I'm sellin' out shows
+Made a cult followin' like Jim Jones (Yeah)
+Drippin', I be puttin' shit on
+Lookin' at the crowd, I see a couple lil' clones (Woah)
+Blow a girl a kiss, hit the gas then I'm gone
+Expensive drugs keep me in my zone (Oh-oh)
+Treat a record deal like a loan
+Makin' these hits gon' keep me on (Come on)
+Found a lil' redbone, fuck her like a G
+Pull her weave out, makin' her moan (Like a G)
+Smoke a lot of weed, gotta get another pound
+I don't know where the other one gone (It's gone)
+Every time I'm drivin' down the strip
+Got people throwin' thumbs up at my whip (Skrrt)
+In the club sparklers comin'
+They hittin' off diamonds inside of the VIP (Bling)
+Since 2017 I been gettin' paid (Gettin' paid)
+Monograms on my waist, watches in the LV roller case (Let's go)
+I gotta play it safe, shooter mask on, can't trace no face
+Got a good lawyer, now I ain't got no case
+This shit I'm around, I don't think it's a waste (Yeah)
+They said that I was ugly, now everything in my life is beautiful (Beautiful)
+Back in the day, every time I went to Walmart, God knows that I stole (Yes, I did)
+Hit it with the cut then we breakin' it down, we ain't tryna sell it whole (No)
+Straight from the hood, fuck the politics, cut the check, I'll do the Super Bowl (No cap)
+Well-spoken, I'm talkin' to girls, I'm makin' 'em wanna fornicate (Let's go)
+I was broke three years ago but it still feel like it was yesterday (Yesterday)
+Runnin' out of space, I got a lot of drip I already gave away
+Twinklin' toes, my diamonds keep dancing like they doin' ballet
+Tourin', I'm sellin' out shows
+Made a cult followin' like Jim Jones (Yeah)
+Drippin', I be puttin' shit on
+Lookin' at the crowd, I see a couple lil' clones (Woah)
+Blow a girl a kiss, hit the gas then I'm gone
+Expensive drugs keep me in my zone (Oh-oh)
+Treat a record deal like a loan
+Makin' these hits gon' keep me on (Come on)
+Found a lil' redbone, fuck her like a G
+Pull her weave out, makin' her moan (Like a G)
+Smoke a lot of weed, gotta get another pound
+I don't know where the other one gone (It's gone)
+Every time I'm drivin' down the strip
+Got people throwin' thumbs up at my whip (Skrrt)
+In the club sparklers comin'
+They hittin' off diamonds inside of the VIP (Bling)
+No I'm not, um, Marshall Applewhite, but I'm tryna phone home (Home, woah)
+I feel like it's someone watchin' me, I had to get a clone
+Drinkin' that Kool-Aid, just out a white cup
+This ain't nothin' but a four (Four)
+I'm not tryna take your life
+I'm tryna take you out of space, movin' slow (Slow, woah)
+She give me head like a comb
+I break her heart like Comme des Garçons (Damn)
+I know she bad to the bone
+She think when I'm mad the reason why it storms, yeah
+I just got a bad freak-freak
+Never saw her feet, make her walk on her knees (Yeah)
+Hit it from the back, yeah, that girl got a peach
+She think I'm God, made the girl say, "Capiche," yeah
+Her ass like a Jeep, yeah
+Make her back it up, beep-beep, yeah (Beep, beep, beep)
+Won't touch, I won't reach, yeah
+Because, that girl, she is not cheap, yeah (No)
+Necklace full of stone
+Smokin' on Runtz, bitch, I'm too stoned
+Y'all thought I was gon' fold
+No, y'all put me right in my zone
+Tourin', I'm sellin' out shows
+Made a cult followin' like Jim Jones (Yeah)
+Drippin', I be puttin' shit on
+Lookin' at the crowd, I see a couple lil' clones (Woah)
+Blow a girl a kiss, hit the gas then I'm gone
+Expensive drugs keep me in my zone (Oh-oh)
+Treat a record deal like a loan
+Makin' these hits gon' keep me on (Come on)
+Found a lil' redbone, fuck her like a G
+Pull her weave out, makin' her moan (Like a G)
+Smoke a lot of weed, gotta get another pound
+I don't know where the other one gone (It's gone)
+Every time I'm drivin' down the strip
+Got people throwin' thumbs up at my whip (Skrrt)
+In the club sparklers comin'
+They hittin' off diamonds inside of the VIP (Bling)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://genius.com/Lil-uzi-vert-leaders-lyrics</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>3855</v>
+      </c>
+      <c r="L4" t="n">
+        <v>755</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>0.9999959195076796</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>5346315</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>{'hit': 8, 'girl': 7, 'g': 6, 'lil': 5, 'know': 5, 'beep': 5, 'makin': 4, 'fuck': 4, 'lot': 4, 'time': 4, 'diamond': 4, 'think': 4, 'tourin': 3, 'sellin': 3, 'cult': 3, 'followin': 3, 'jim': 3, 'jones': 3, 'drippin': 3, 'lookin': 3, 'couple': 3, 'blow': 3, 'kiss': 3, 'gas': 3, 'treat': 3, 'record': 3, 'deal': 3, 'loan': 3, 'come': 3, 'find': 3, 'redbone': 3, 'pull': 3, 'weave': 3, 'moan': 3, 'smoke': 3, 'weed': 3, 'pound': 3, 'drivin': 3, 'strip': 3, 'people': 3, 'throwin': 3, 'thumb': 3, 'whip': 3, 'skrrt': 3, 'club': 3, 'sparkler': 3, 'comin': 3, 'hittin': 3, 'vip': 3, 'bling': 3, 'shit': 3, 'clone': 3, 'zone': 3, 'gettin': 2, 'pay': 2, 'case': 2, 'let': 2, 'life': 2, 'beautiful': 2, 'god': 2, 'cut': 2, 'tryna': 2, 'break': 2, 'feel': 2, 'yesterday': 2, 'space': 2, 'puttin': 2, 'crowd': 2, 'expensive': 2, 'drug': 2, 'slow': 2, 'bad': 2, 'freak': 2, "puttin'shiton": 1, 'thecrowd': 1, "lil'clone": 1, "theni'mgone": 1, 'expensivedrug': 1, 'mein': 1, 'zone(oh': 1, 'monograms': 1, 'waist': 1, 'watch': 1, 'lv': 1, 'roller': 1, 'play': 1, 'safe': 1, 'shooter': 1, 'mask': 1, 'trace': 1, 'face': 1, 'good': 1, 'lawyer': 1, 'waste': 1, 'ugly': 1, 'day': 1, 'walmart': 1, 'stole': 1, 'breakin': 1, 'sell': 1, 'hood': 1, 'politic': 1, 'check': 1, 'super': 1, 'bowl': 1, 'cap': 1, 'speak': 1, 'wanna': 1, 'fornicate': 1, 'year': 1, 'runnin': 1, 'drip': 1, 'twinklin': 1, 'toe': 1, 'dance': 1, "doin'": 1, 'ballet': 1, 'marshall': 1, 'applewhite': 1, 'phone': 1, 'home': 1, 'watchin': 1, 'drinkin': 1, 'kool': 1, 'aid': 1, 'white': 1, 'cup': 1, "nothin'": 1, 'movin': 1, 'head': 1, 'comb': 1, 'heart': 1, 'comme': 1, 'garçons': 1, 'damn': 1, 'bone': 1, 'mad': 1, 'reason': 1, 'storm': 1, 'foot': 1, 'walk': 1, 'knee': 1, 'peach': 1, 'capiche': 1, 'ass': 1, 'jeep': 1, 'touch': 1, 'reach': 1, 'cheap': 1, 'necklace': 1, 'stone': 1, 'smokin': 1, 'runtz': 1, 'bitch': 1, 'stoned': 1, "y'all": 1, 'fold': 1}</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>{'uzi': 3, 'nav': 3, 'album': 3, 'producer': 2, 'release': 2, 'production': 2, 'handle': 2, 'leaders': 1, 'lil': 1, 'vert': 1, 'reunite': 1, 'canadian': 1, 'rapper': 1, 'hour': 1, 'fan': 1, 'ask': 1, 'twitter': 1, 'appearance': 1, 'respond': 1, 'track': 1, 'xo': 1, 'manager': 1, 'cash': 1, 'frequent': 1, 'pro': 1, 'logic': 1, 'money': 1, 'musik': 1, 'majority': 1, 'navs': 1, 'sophomore': 1, 'studio': 1, 'bad': 1, 'habits': 1, 'march': 1, 'debut': 1, 'billboard': 1}</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>girl</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>lil</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="Y4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B5" t="n">
         <v>6822</v>
       </c>
-      <c r="C3" t="n">
-        <v>815</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C5" t="n">
+        <v>850</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>twenty one pilots</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>twenty one pilots</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Level Of Concern</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G5" t="n">
         <v>11</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H5" t="n">
         <v>23</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Need you, tell me
 Need you, tell me
@@ -779,104 +1184,1144 @@
 Need you, tell me</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://genius.com/Twenty-one-pilots-level-of-concern-lyrics</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="K5" t="n">
         <v>2141</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L5" t="n">
         <v>429</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="N5" t="n">
         <v>0.9999967255087974</v>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>{'en': 6}</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2020-04-25</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>5428841</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>{'tell': 38, 'need': 19, 'okay': 18, 'alright': 15, 'level': 11, 'concern': 11, 'bring': 6, 'walk': 4, 'hear': 4, 'way': 3, 'quarantine': 3, 'panic': 2, 'brain': 2, 'world': 2, 'insane': 2, 'ask': 2, 'wonderin': 2, 'little': 2, 'end': 2, 'thing': 1, 'arestartingto': 1, 'heavy': 1, 'mm': 1, 'help': 1, 'think': 1, 'feel': 1, 'steady': 1, 'michael': 1, 'julie': 1, 'start': 1, 'nervous': 1, 'care': 1, 'stay': 1, 'bunker': 1, 'surface': 1, 'lie': 1}</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>{'song': 5, 'tylers': 3, 'music': 3, 'industry': 3, 'tyler': 3, 'concern': 2, 'thought': 2, 'write': 2, 'pandemic': 2, 'help': 2, 'live': 2, 'single': 2, 'video': 2, 'josh': 2, 'level': 1, 'simple': 1, 'hopeful': 1, 'effect': 1, 'coronavirus': 1, 'society': 1, 'presume': 1, 'share': 1, 'wife': 1, 'jenna': 1, 'ask': 1, 'comfort': 1, 'lie': 1, 'inspire': 1, 'worker': 1, 'decide': 1, 'attempt': 1, 'electric': 1, 'guitar': 1, 'portion': 1, 'proceed': 1, 'donate': 1, 'crew': 1, 'nation': 1, 'organization': 1, 'individual': 1, 'work': 1, 'performance': 1, 'lay': 1, 'covid-19': 1, 'quarantine': 1, 'home': 1, 'family': 1, 'newborn': 1, 'daughter': 1, 'rosie': 1, 'appear': 1, 'band': 1, 'medium': 1, 'time': 1, 'collaborate': 1, 'mail': 1, 'usb': 1, 'drive': 1, 'art': 1}</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>tell</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>okay</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>alright</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="Y5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6853</v>
+      </c>
+      <c r="C6" t="n">
+        <v>851</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tory Lanez</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tory Lanez</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Stupid Again</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>54</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>I just wanna say from the bottom of me heart
+I'd like to take this chance to apologize to absolutely nobody
+The double champ does what the **** he wants
+Uh, woo, ayy
+'Bout to go stupid again
+She out the roof of the Benz
+I'm 'bout to do her to get her
+I'ma fuck two of her friends
+Just made a flip off the wop
+Fuck the Franck Mueller, I jump out the jeweler again
+I fucked my money up on the re-up
+But I got it right back and I blew it again
+Uh, ayy
+Bag full of bricks
+Back sellin' Knicks like Ewing again
+Trap ain't bump like this since '06, Soulja Boy shit, start you-in' again
+Clear it out
+Grrrr, stick 'em
+Air it out
+Brrrr, flip 'em
+Whereabouts
+I ain't never 'bout to give 'em
+Fair amounts
+I ain't never finna hit 'em with
+Triple in it, double-up the stash, caught a brick
+Another half, finna got another twenty on the vision
+Spatula, flippin' it, a Caddy from the kitchen
+I'ma hustle 'til the car came with another brick in it
+Crib came with another bitch in it
+If you ain't gettin' litty with the shitty, I'ma put another bitch in it
+Bitch better hit me with deep throat (Oh)
+And no, I ain't talkin' 'bout Michigan, ayy
+Oh, uh, damn, shit
+I'm goin' stupid and shit (Woo)
+She play the flute with my dick
+Wrist, sick, I got the flu on a bitch
+I play it cool on a bitch
+Hit, stick, that's how I do on your bitch (Uh)
+What I'ma do in this bitch
+Pussy was great, flew out and flew in this bitch
+.40, shinin' and shinin'
+Way in the hills, I'm high in the climate
+Niggas is trickin' and niggas is simpin'
+Payin' for heels, and winin' and dinin'
+Jewish lawyers on the phone call
+I said I'ma sign that lil' shit when I sign it
+I got these Benjamin Frank on my body
+Ain't finna fuck if this shit ain't exotic, woo
+Ten trap phones 'cause the bitch keep on callin'
+Sleepin' on the floor, I be scammin', gettin' it all in
+Do the money dance when the money fall
+Nigga, fuck my ex, I'm uninvolved
+You can suck my dick and lick a nut too (Woo)
+Yeah, you don't like me, nigga, fuck you, fuck you, fuck you
+(Fuck you, nigga)
+Damn, he runnin' through all his paper
+That's what I do to a hater
+Don't touch two things, my hair or my paper (Woo)
+Passin' that bitch and she hot
+Pass her like hot potato
+I grind, I skate her (Uh)
+And she look good, I might date her
+Pussy was good and I ate it
+Lil' bitch, I'm Bajan, woo
+Wait, hold the fuck up, hold the fuck up, hold up
+So we both at the function, you know what I'm sayin'
+You pull up with your bitch in the 458
+I pull up with my bitch in the 488
+You pull up beside my shit, like, "Yo, what's the difference between  my 458 and your 488?"
+'Bout like eighty to hundred thousand, cock sucker, beat it
+Woo, ayy
+'Bout to go stupid again
+She out the roof of the Benz
+I'm 'bout to do it her to get her
+I'ma fuck two of her friends
+Just made a flip off the wop
+Fuck the Franck Mueller, I jump out the jeweler again
+I fucked my money up on the re-up
+But I got it right back and I blew it again
+Hahaha
+We don't wanna hear no sucker shit after this shit either, nigga
+Know what I'm sayin'?
+Oh, you worried 'bout your bitch?
+Yeah, yeah, yeah-yeah, she's here
+Know what I'm sayin'?
+Oui, oui, parlez-vous français and all that good shit
+Ha, straight off the runway in Paris, nigga
+Give ten fucks about a bitch</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://genius.com/Tory-lanez-stupid-again-lyrics</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>3232</v>
+      </c>
+      <c r="L6" t="n">
+        <v>651</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="Q3" t="n">
+      <c r="N6" t="n">
+        <v>0.99999693263227</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2020-04-25</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>5439315</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>{'bitch': 15, 'fuck': 14, 'shit': 9, 'woo': 6, 'nigga': 5, 'ayy': 4, 'money': 4, 'bout': 3, 'stupid': 3, "'bout": 3, 'flip': 3, 'brick': 3, 'hit': 3, 'good': 3, 'hold': 3, 'know': 3, 'sayin': 3, 'pull': 3, 'wanna': 2, 'like': 2, 'double': 2, 'roof': 2, 'benz': 2, 'friend': 2, 'wop': 2, 'franck': 2, 'mueller': 2, 'jump': 2, 'jeweler': 2, 'blow': 2, 'trap': 2, 'stick': 2, 'finna': 2, 'come': 2, 'gettin': 2, 'play': 2, 'dick': 2, 'pussy': 2, 'fly': 2, 'shinin': 2, 'niggas': 2, 'phone': 2, 'sign': 2, 'lil': 2, 'paper': 2, 'hot': 2, 'sucker': 2, 'oui': 2, 'heart': 1, 'chancetoapologize': 1, 'absolutelynobody': 1, 'champ': 1, 'want': 1, 'bag': 1, 'sellin': 1, 'knicks': 1, 'ewing': 1, 'bump': 1, 'soulja': 1, 'boy': 1, 'start': 1, 'clear': 1, 'grrrr': 1, 'air': 1, 'brrrr': 1, 'whereabouts': 1, 'fair': 1, 'triple': 1, 'stash': 1, 'catch': 1, 'half': 1, 'vision': 1, 'spatula': 1, 'caddy': 1, 'kitchen': 1, 'hustle': 1, 'car': 1, 'crib': 1, 'litty': 1, 'shitty': 1, 'deep': 1, 'throat': 1, 'talkin': 1, 'michigan': 1, "goin'": 1, 'flute': 1, 'wrist': 1, 'sick': 1, 'flu': 1, 'cool': 1, 'great': 1, '.40': 1, 'way': 1, 'hill': 1, 'high': 1, 'climate': 1, 'trickin': 1, 'simpin': 1, 'payin': 1, 'heel': 1, 'winin': 1, 'dinin': 1, 'jewish': 1, 'lawyer': 1, 'benjamin': 1, 'frank': 1, 'body': 1, 'exotic': 1, 'callin': 1, 'sleepin': 1, 'floor': 1, 'scammin': 1, 'dance': 1, 'fall': 1, 'ex': 1, 'uninvolved': 1, 'suck': 1, 'lick': 1, 'nut': 1, 'runnin': 1, 'hater': 1, 'touch': 1, 'thing': 1, 'hair': 1, 'passin': 1, 'pass': 1, 'potato': 1, 'grind': 1, 'skate': 1, 'look': 1, 'date': 1, 'eat': 1, 'bajan': 1, 'wait': 1, 'function': 1, 'yo': 1, 'difference': 1, 'cock': 1, 'beat': 1, 'hahaha': 1, 'hear': 1, 'worry': 1, 'parlez': 1, 'vous': 1, 'français': 1, 'runway': 1, 'paris': 1}</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>bitch</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>fuck</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>shit</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>woo</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>nigga</t>
+        </is>
+      </c>
+      <c r="Y6" t="b">
         <v>1</v>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>{'tell': 38, 'need': 19, 'okay': 17, 'alright': 14, 'level': 11, 'concern': 11, 'bring': 6, 'walk': 4, 'hear': 4, 'way': 3, 'quarantine': 3, 'panic': 2, 'brain': 2, 'world': 2, 'go': 2, 'insane': 2, 'ask': 2, 'wonderin': 2, 'little': 2, 'end': 2, 'thing': 1, 'heavy': 1, 'mm': 1, 'help': 1, 'think': 1, 'feel': 1, 'steady': 1, 'michael': 1, 'julie': 1, 'start': 1, 'nervous': 1, 'care': 1, 'stay': 1, 'bunker': 1, 'surface': 1, 'lie': 1}</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>tell</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>need</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>okay</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>alright</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>level</t>
-        </is>
-      </c>
-      <c r="X3" t="b">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6908</v>
+      </c>
+      <c r="C7" t="n">
+        <v>861</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DaBaby Featuring Roddy Ricch</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DaBaby</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Rockstar</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>35</v>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Woo, woo
+I pull up like
+How you pull up, Baby? How you pull up? (Oh, oh, oh)
+How you pull up? I pull up (woo, Seth in the kitchen)
+Let's go
+Brand new Lamborghini, fuck a cop car
+With the pistol on my hip like I'm a cop (yeah, yeah, yeah)
+Have you ever met a real nigga rockstar?
+This ain't no guitar, bitch, this a Glock (woo)
+My Glock told me to promise you gon' squeeze me (woo)
+You better let me go the day you need me (woo)
+Soon as you up me on that nigga, get to bustin' (woo)
+And if I ain't enough, go get the chop
+It's safe to say I earned it
+Ain't a nigga gave me nothin' (yeah, yeah, yeah)
+I'm ready to hop out on a nigga, get to bustin'
+Know you heard mе say, "You play, you lay"
+Don't make me push the button
+Full of pain, droppеd enough tears to fill up a fuckin' bucket
+Goin' for buckets, I bought a chopper
+I got a big drum, it hold a 100, ain't goin' for nothin'
+I'm ready to air it out on all these niggas, I can see 'em runnin'
+Just talked to my mama
+She hit me on FaceTime just to check up on me and my brother
+I'm really the baby, she know that her youngest son
+Was always guaranteed to get the money (okay, let's go)
+She know that her baby boy was always guaranteed to get the loot
+She know what I do, she know 'fore I run from a nigga
+I'ma pull it out and shoot (boom)
+PTSD, I'm always waking up in cold sweats like I got the flu
+My daughter a G
+She saw me kill a nigga in front of her before the age of two
+And I'll kill another nigga too
+'Fore I let another nigga do somethin' to you
+Long as you know that, don't let nobody tell you different
+Daddy love you (yeah, yeah)
+Let's go
+Brand new Lamborghini, fuck a cop car
+With the pistol on my hip like I'm a cop (yeah, yeah, yeah)
+Have you ever met a real nigga rockstar?
+This ain't no guitar, bitch, this a Glock (woo)
+My Glock told me to promise you gon' squeeze me (woo)
+You better let me go the day you need me (woo)
+Soon as you up me on that nigga, get to bustin' (yeah)
+And if I ain't enough, go get the chop (yeah, yeah)
+Keep a Glocky when I ride in the Suburban
+'Cause the codeine had a young nigga swervin'
+I got the mop, watch me wash 'em like detergent
+And I'm ballin', that's why it's diamonds on my jersey
+Slide on opps' side and flip the block back, yeah, yeah
+My junior popped him and left him lopsided, yeah, yeah
+We spin his block, got the rebound, Dennis Rodman
+You fool me one time, you can't cross me again
+1200 horsepower, I get lost in the wind
+If he talkin' on the yard, the pen' dogs'll take his chin
+Maybach SUV for my refugees
+Buy blocks in the hood, put money in the streets
+I was solo when the opps caught me at the gas station
+Had it on me, 30 thousand, thought it was my last day
+But they ain't even want no smoke
+If I had to choose it, murder what she wrote
+Let's go
+Brand new Lamborghini, fuck a cop car
+With the pistol on my hip like I'm a cop (yeah, yeah, yeah)
+Have you ever met a real nigga rockstar?
+This ain't no guitar, bitch, this a Glock (woo)
+My Glock told me to promise you gon' squeeze me (woo)
+You better let me go the day you need me (woo)
+Soon as you up me on that nigga, get to bustin' (woo)
+And if I ain't enough, go get the chop</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://genius.com/Dababy-ft-roddyricch-rockstar-lyrics</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>3148</v>
+      </c>
+      <c r="L7" t="n">
+        <v>655</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>0.9999985028085712</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2020-05-02</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>6980680</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>{'nigga': 14, 'woo': 12, 'let': 9, 'pull': 6, 'cop': 6, 'glock': 6, 'know': 6, 'tell': 4, 'day': 4, 'bustin': 4, 'baby': 3, 'brand': 3, 'new': 3, 'lamborghini': 3, 'fuck': 3, 'car': 3, 'pistol': 3, 'hip': 3, 'meet': 3, 'real': 3, 'rockstar': 3, 'guitar': 3, 'bitch': 3, 'promise': 3, 'squeeze': 3, 'need': 3, 'chop': 3, 'block': 3, "nothin'": 2, 'ready': 2, 'bucket': 2, "goin'": 2, 'buy': 2, 'young': 2, 'guarantee': 2, 'money': 2, 'kill': 2, 'opps': 2, 'seth': 1, 'kitchen': 1, 'safe': 1, 'earn': 1, 'hop': 1, 'hear': 1, 'play': 1, 'lay': 1, 'push': 1, 'button': 1, 'pain': 1, 'droppd': 1, 'tear': 1, 'fill': 1, 'fuckin': 1, 'chopper': 1, 'big': 1, 'drum': 1, 'hold': 1, 'air': 1, 'runnin': 1, 'talk': 1, 'mama': 1, 'hit': 1, 'facetime': 1, 'check': 1, 'brother': 1, 'son': 1, 'boy': 1, 'loot': 1, 'run': 1, 'shoot': 1, 'boom': 1, 'ptsd': 1, 'wake': 1, 'cold': 1, 'sweat': 1, 'flu': 1, 'daughter': 1, 'g': 1, 'age': 1, 'fore': 1, "somethin'": 1, 'different': 1, 'daddy': 1, 'love': 1, 'glocky': 1, 'ride': 1, 'suburban': 1, 'codeine': 1, 'swervin': 1, 'mop': 1, 'watch': 1, 'wash': 1, 'detergent': 1, 'ballin': 1, 'diamond': 1, 'jersey': 1, 'slide': 1, 'flip': 1, 'junior': 1, 'pop': 1, 'leave': 1, 'lopsided': 1, 'spin': 1, 'rebound': 1, 'dennis': 1, 'rodman': 1, 'fool': 1, 'time': 1, 'cross': 1, 'horsepower': 1, 'lose': 1, 'wind': 1, 'talkin': 1, 'yard': 1, 'pen': 1, "dogs'll": 1, 'chin': 1, 'maybach': 1, 'suv': 1, 'refugee': 1, 'hood': 1, 'street': 1, 'solo': 1, 'catch': 1, 'gas': 1, 'station': 1, 'think': 1, 'want': 1, 'smoke': 1, 'choose': 1, 'murder': 1, 'write': 1}</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>{'nan': 1}</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>nigga</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>woo</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>let</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>cop</t>
+        </is>
+      </c>
+      <c r="Y7" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>877</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6952</v>
+      </c>
+      <c r="C8" t="n">
+        <v>867</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DaBaby Featuring Future &amp; jetsonmade</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DaBaby</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LIGHTSKIN SHIT</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>53</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Uh, uh, uh-huh
+Yeah (Oh Lord, Jetson made another one)
+My bitch like a model
+Where the genie? She shaped like a bottle
+Fuck a IG, she too fine to follow
+Powerball, bitch, I just hit the Lotto (Cha-ching)
+Tylenol, she too sick, call a doctor (Sick)
+Fuck a pill, where that pussy? I'll pop it (I'll pop)
+I'm a dog, I'ma shit on my last ho
+All the pretty bitches need a asshole, let's go
+Lightskin shit
+She fuck with me, she turn into a lightskin bitch (Uh, haa)
+Family in our business on some hype man shit
+She ain't respondin' to my text, she on some lightskin shit, I don't like that shit
+Pull up with a new ho (Let's go, skrrt)
+Wrecked my four-door, I went bought a two-door (Yeah)
+When you out, we on liquor and Nuvo (Huh)
+I'ma dog on the bitch, call me Cujo (Grrr, bitch, yeah)
+I went, ran the score up (Uh)
+Put my dick down her throat 'til she throw up (Throw up)
+Hard to hide out in public, they know us
+Picture's viral before the shit go up (Pic)
+Fuck is a pic to a rich nigga? (Nigga)
+I'm havin' my way with your bitch
+The same bitch that was havin' her way with a bitch nigga (Hahaha)
+Niggas goin' out sad 'bout these hoes, but me? Um
+My bitch like a model
+Where the genie? She shaped like a bottle
+Fuck a IG, she too fine to follow
+Powerball, bitch, I just hit the Lotto (Cha-ching)
+Tylenol, she too sick, call a doctor (Sick)
+Fuck a pill, where that pussy? I'll pop it (I'll pop)
+I'm a dog, I'ma shit on my last ho
+All the pretty bitches need a asshole, let's go
+My bitch in the trap with a mask on (Yeah)
+I just flipped two dimes in the restroom (Let's go)
+Had the magazine tucked like a super goon (Baby)
+Had to sweep the drug money with the broom (Woo)
+Might cop the Chanel in the back-back (We did it)
+I can buy the bales with the money in the backpack, yeah (We got it)
+And Rolex, yeah
+Almost went to Hell, that's a big fact (Pluto)
+I done cut up the wrist on my sleeve (I cut it)
+Like I'm suicidal on the jet (Let's go)
+I done turnt your favorite to a pet (Turn up)
+Check the hunnid milli' presidents, it's hard to fall off, I'm super relevant (I'm super)
+On the billi dollar, killed the middle man tryna treat me like I'm not the trigger man (Baby)
+Got a real one and she reppin' Taliban, gang (Yeah)
+My bitch like a model
+Where the genie? She shaped like a bottle
+Fuck a IG, she too fine to follow
+Powerball, bitch, I just hit the Lotto (Cha-ching)
+Tylenol, she too sick, call a doctor (Sick)
+Fuck a pill, where that pussy? I'll pop it (I'll pop)
+I'm a dog, I'ma shit on my last ho
+All the pretty bitches need a asshole, let's go</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://genius.com/Dababy-lightskin-shit-lyrics</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>2550</v>
+      </c>
+      <c r="L8" t="n">
+        <v>509</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0.9999976449410056</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2020-05-02</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>5465365</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>{'bitch': 16, 'fuck': 8, 'shit': 8, 'sick': 6, 'pop': 6, 'let': 6, 'dog': 4, 'ho': 4, 'model': 3, 'ig': 3, 'follow': 3, 'powerball': 3, 'hit': 3, 'lotto': 3, 'cha': 3, 'ching': 3, 'tylenol': 3, 'doctor': 3, 'pill': 3, 'pussy': 3, 'pretty': 3, 'need': 3, 'asshole': 3, 'lightskin': 3, 'man': 3, 'nigga': 3, 'super': 3, 'turn': 2, 'door': 2, 'buy': 2, 'throw': 2, 'pic': 2, "havin'": 2, 'way': 2, 'genie': 2, 'shape': 2, 'bottle': 2, 'fine': 2, 'baby': 2, 'money': 2, 'cut': 2, 'lord': 1, 'jetson': 1, 'genie?sheshape': 1, 'abottle': 1, 'fineto': 1, 'family': 1, 'business': 1, 'hype': 1, 'respondin': 1, 'text': 1, 'like': 1, 'pull': 1, 'new': 1, 'skrrt': 1, 'wreck': 1, 'liquor': 1, 'nuvo': 1, 'cujo': 1, 'grrr': 1, 'run': 1, 'score': 1, 'dick': 1, 'throat': 1, 'hide': 1, 'public': 1, 'know': 1, 'picture': 1, 'viral': 1, 'rich': 1, 'hahaha': 1, 'niggas': 1, "goin'": 1, 'sad': 1, 'hoe': 1, 'trap': 1, 'mask': 1, 'flip': 1, 'dime': 1, 'restroom': 1, 'magazine': 1, 'tuck': 1, 'goon': 1, 'sweep': 1, 'drug': 1, 'broom': 1, 'woo': 1, 'cop': 1, 'chanel': 1, 'bale': 1, 'backpack': 1, 'rolex': 1, 'hell': 1, 'big': 1, 'fact': 1, 'pluto': 1, 'wrist': 1, 'sleeve': 1, 'suicidal': 1, 'jet': 1, 'turnt': 1, 'favorite': 1, 'pet': 1, 'check': 1, 'hunnid': 1, 'milli': 1, 'president': 1, 'hard': 1, 'fall': 1, 'relevant': 1, 'billi': 1, 'dollar': 1, 'kill': 1, 'middle': 1, 'tryna': 1, 'treat': 1, 'trigger': 1, 'real': 1, 'reppin': 1, 'taliban': 1, 'gang': 1}</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>{'track': 2, 'future': 2, 'artist': 2, 'lightskin': 1, 'shit': 1, 'serve': 1, 'dababys': 1, 'studio': 1, 'album': 1, 'blame': 1, 'baby': 1, 'dababy': 1, 'trade': 1, 'verse': 1, 'bright': 1, 'upbeat': 1, 'trap': 1, 'beat': 1, 'produce': 1, 'babys': 1, 'producer': 1, 'longtime': 1, 'collaborator': 1, 'jetsonmade': 1, 'lyric': 1, 'focus': 1, 'light': 1, 'skin': 1, 'female': 1, 'counterpart': 1, 'physical': 1, 'characteristic': 1, 'mark': 1, 'second': 1, 'collaboration': 1, 'remix': 1, 'drakes': 1, 'hit': 1, 'single': 1, 'life': 1, 'good': 1}</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>bitch</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>fuck</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>shit</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>sick</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="Y8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>879</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7010</v>
+      </c>
+      <c r="C9" t="n">
+        <v>879</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Juice WRLD</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Juice WRLD</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Righteous</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>16</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>I will (I will)
+I will (I will)
+I will
+Oh-ooh (Oh-ooh)
+Uh (Uh)
+All white Gucci suit, I'm feeling righteous, yeah
+I know that the truth is hard to digest, yeah
+Five or six pills in my right hand, yeah
+Codeine runneth over on my nightstand
+Takin' medicine to fix all of the damage
+My anxiety the size of a planet (Yeah, ooh)
+Holes in my skull, over time
+My heart's over ice (Woah)
+Over ice, I'm freezing
+Beautiful eyes, deceiving
+We may die this evening
+Coughing and wheezing, bleeding
+Hi, I'm anxious so
+Blood moons are my eyes, stay low
+Red and black, they glow
+Under attack, in my soul
+When it's my time, I'll know
+Never seen a hell so cold
+Yeah, we'll make it out, I know
+We'll run right through the flames, let's go
+All white Gucci suit, I'm feeling righteous, yeah
+I know that the truth is hard to digest, yeah
+Five or six pills in my right hand, yeah
+Codeine runneth over on my nightstand
+Taking medicine to fix all of the damage
+My anxiety the size of a planet (Yeah, ooh)
+Holes in my skull, over time
+My heart's over ice (Woah, uh)
+I'm in too deep
+Can't swim like me
+We're drowning, so I will sing
+My demons turn face under me
+Inhale, exhale, but I can't breathe
+Too busy drinking codeine doin' high speeds
+Crash (Shh), pour a four, sip it slow, make the time pass
+Take a pill for the thrill, have a relapse
+Devil in my head tryna run gym laps
+I ain't tryna race, he don't even know me like that
+All white Gucci suit, I'm feeling righteous
+I know that the truth is hard to digest
+Five or six pills in my right hand
+Codeine runneth over on my nightstand
+Taking medicine to fix all of the damage
+My anxiety the size of a planet (Yeah, ooh)
+Holes in my skull, over time
+My heart's over ice (Woah)
+I will sing</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://genius.com/Juice-wrld-righteous-lyrics</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1716</v>
+      </c>
+      <c r="L9" t="n">
+        <v>335</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0.9999962761481772</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2020-05-09</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>4673513</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>{'know': 6, 'time': 5, 'pill': 4, 'codeine': 4, 'ice': 4, 'white': 3, 'gucci': 3, 'suit': 3, 'feel': 3, 'righteous': 3, 'truth': 3, 'hard': 3, 'digest': 3, 'right': 3, 'hand': 3, 'runneth': 3, 'nightstand': 3, 'medicine': 3, 'fix': 3, 'damage': 3, 'anxiety': 3, 'size': 3, 'planet': 3, 'hole': 3, 'skull': 3, 'heart': 3, 'eye': 2, 'run': 2, 'sing': 2, 'takin': 1, 'freeze': 1, 'beautiful': 1, 'deceive': 1, 'die': 1, 'evening': 1, 'cough': 1, 'wheeze': 1, 'bleed': 1, 'anxious': 1, 'blood': 1, 'moon': 1, 'stay': 1, 'low': 1, 'red': 1, 'black': 1, 'glow': 1, 'attack': 1, 'soul': 1, 'hell': 1, 'cold': 1, 'flame': 1, 'let': 1, 'deep': 1, 'swim': 1, 'drown': 1, 'demon': 1, 'turn': 1, 'face': 1, 'inhale': 1, 'exhale': 1, 'breathe': 1, 'busy': 1, 'drink': 1, "doin'": 1, 'high': 1, 'speed': 1, 'crash': 1, 'shh': 1, 'pour': 1, 'sip': 1, 'slow': 1, 'pass': 1, 'thrill': 1, 'relapse': 1, 'devil': 1, 'head': 1, 'gym': 1, 'lap': 1, 'tryna': 1, 'race': 1}</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>{'juice': 4, 'song': 4, 'juices': 3, 'leak': 2, 'release': 2, 'posthumous': 1, 'single': 1, 'estate': 1, 'righteous': 1, 'emotional': 1, 'ballad': 1, 'wrld': 1, 'fan': 1, 'feature': 1, 'usual': 1, 'topic': 1, 'drug': 1, 'glamour': 1, 'fashion': 1, 'sing': 1, 'anxiety': 1, 'corruption': 1, 'come': 1, 'addiction': 1, 'late': 1, 'label': 1, 'grade': 1, 'productions': 1, 'april': 1, 'month': 1, 'pass': 1, 'follow': 1, 'seizure': 1, 'chicagos': 1, 'midway': 1, 'airport': 1, 'team': 1, 'preview': 1, 'time': 1, 'instagram': 1, 'live': 1, 'tease': 1, 'title': 1, 'summer': 1, 'day': 1, 'fiancé': 1, 'post': 1, 'twitter': 1, 'explain': 1, 'mean': 1}</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>pill</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>codeine</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>ice</t>
+        </is>
+      </c>
+      <c r="Y9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7150</v>
+      </c>
+      <c r="C10" t="n">
+        <v>903</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Drake</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Drake</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>51</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Hey, Instagram
+This song I've been writing, oh, for a few months
+I don't know, I, I started writing it about family
+Just came up now, so
+Anybody feel any way about it, I don't give a fuck
+(Yeah, family)
+Yeah
+Yeah
+Lost you to the game, I gotta hug that
+I was here when you was asking where the love at
+Dip your finger in the bag to get your buzz back
+I was wishin' on a star when I was that
+I've been fortunate enough to have it my way
+I'm a fortune teller, listen to what I say
+'Member when we used to park up in my driveway
+I always told it how it was, I never shy away
+This life is really something you get lost in
+I know niggas that got famous and they bought friends
+I had friends that only had half of they heart in
+It's hard to accept now, and it was hard then
+But I treated you like gold, I was all in
+Spoiled rotten, they could smell you 'fore you walked in
+Burnin' incense in your new apartment
+But you got no sense when it come to
+Lost you to the game, I gotta hold that
+How you feelin' in your soul since you sold that?
+I'll be better off without you, and we know that
+You ain't lookin' at a nigga you could hold back
+Like I'm tryna show the waves, this is no cap
+You sold me up the river, but I rowed back
+You put me on the road without a roadmap
+I'm not tryna make no song, these are cold facts
+You got some liquor at the house?
+Yeah
+Go get a shot, let's do a shot together
+I don't see it
+Okay, hahaha
+Ayy
+Being here wasn't in the plans
+I do it for the Grahams, not the 'Gram
+I do it for the fam, but still fuckin' Uncle Sam
+I tried to change for you, but that wasn't who I am
+Even when being real is out of fashion
+Niggas keep stealin' my style, now we out here matchin'
+I did it by being myself with no dramatic acting
+I couldn't sit around and wait, I had to have it happen
+Lost you to the game, I gotta face that
+Really think I lost you like a ways back
+Always sayin' how a nigga never play fair
+I took you up under my wing and you just stayed there
+You was supposed to grow some wings, get your own pair
+We started this from the bottom, now you alone there
+Shit, you treat it like it's home there
+Dependent on me, you was supposed to get your own share
+I still love you to my last days
+I never knew that shit would be this fast-paced
+I never thought I'd see awards in a glass case
+I could've ended up in your crib with a masked face
+It could've went left on a couple bad days
+When I visit my last place is the only time I'm in last place
+See me these days, I never got on a sad face
+See me these days, I
+Lost you to the game, and I see why
+It was always you and I without the T-Y
+This is not one of them stories that got three sides
+This is not one of them stories you could rewind
+Like I'm tryna show the waves, this is no cap
+You drove a nigga crazy, but I drove back
+You wrote me off and then you never wrote back
+I'm not tryna make no song, these are cold facts
+Yes, sir
+(Baby)
+Hold on, hold on
+(Let me tell you something about me)
+(I really do know, I know who I wanna be)
+Woo
+Lord, I already passed on all that (Woo)
+You go 'head on, haha</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://genius.com/Drake-losses-lyrics</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>3064</v>
+      </c>
+      <c r="L10" t="n">
+        <v>648</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0.9999979336283656</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2020-05-16</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>5520818</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>{'know': 6, 'game': 4, 'nigga': 4, 'hold': 4, 'day': 4, 'song': 3, 'write': 3, 'way': 3, 'lost': 3, 'lose': 3, 'face': 3, 'come': 2, 'love': 2, 'tell': 2, 'friend': 2, 'hard': 2, 'treat': 2, 'sell': 2, 'tryna': 2, 'wave': 2, 'cap': 2, 'cold': 2, 'fact': 2, 'shot': 2, 'let': 2, 'think': 2, 'wing': 2, 'suppose': 2, 'shit': 2, 'place': 2, 'story': 2, 'drive': 2, 'woo': 2, 'instagram': 1, 'month': 1, 'istartedwriting': 1, 'feelany': 1, 'fuck': 1, 'family': 1, 'hug': 1, 'ask': 1, 'dip': 1, 'finger': 1, 'bag': 1, 'buzz': 1, 'wishin': 1, 'star': 1, 'fortunate': 1, 'fortune': 1, 'teller': 1, 'listen': 1, 'member': 1, 'park': 1, 'driveway': 1, 'shy': 1, 'life': 1, 'famous': 1, 'buy': 1, 'half': 1, 'heart': 1, 'accept': 1, 'gold': 1, 'spoil': 1, 'rotten': 1, 'smell': 1, 'walk': 1, 'burnin': 1, 'incense': 1, 'new': 1, 'apartment': 1, 'sense': 1, 'feelin': 1, 'soul': 1, 'lookin': 1, 'river': 1, 'row': 1, 'road': 1, 'roadmap': 1, 'liquor': 1, 'house': 1, 'ayy': 1, 'plan': 1, 'grahams': 1, 'gram': 1, 'fam': 1, 'fuckin': 1, 'uncle': 1, 'sam': 1, 'try': 1, 'change': 1, 'real': 1, 'fashion': 1, 'niggas': 1, 'stealin': 1, 'style': 1, 'matchin': 1, 'dramatic': 1, 'acting': 1, 'sit': 1, 'wait': 1, 'happen': 1, 'sayin': 1, 'play': 1, 'fair': 1, 'stay': 1, 'grow': 1, 'pair': 1, 'start': 1, 'home': 1, 'dependent': 1, 'share': 1, 'pace': 1, 'award': 1, 'glass': 1, 'case': 1, 'end': 1, 'crib': 1, 'mask': 1, 'leave': 1, 'couple': 1, 'bad': 1, 'visit': 1, 'time': 1, 'sad': 1, 't': 1, 'y': 1, 'rewind': 1, 'crazy': 1, 'sir': 1, 'baby': 1, 'wanna': 1, 'lord': 1, 'pass': 1, 'head': 1}</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>{'track': 3, 'loss': 1, 'drake': 1, 'use': 1, 'describe': 1, 'relationship': 1, 'imply': 1, 'state': 1, 'undisputable': 1, 'verse': 1, 'end': 1, 'line': 1, 'song': 1, 'cold': 1, 'fact': 1, 'intro': 1, 'interlude': 1, 'outro': 1, 'drakes': 1, 'instagram': 1, 'live': 1, 'session': 1, 'father': 1, 'dennis': 1, 'graham': 1, 'occur': 1, 'march': 1, 'outbreak': 1, 'covid-19': 1, 'international': 1, 'quarantine': 1, 'effort': 1, 'deter': 1, 'spread': 1}</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>nigga</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="Y10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7164</v>
+      </c>
+      <c r="C11" t="n">
+        <v>907</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Lil Baby</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lil Baby</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Social Distancing</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>65</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(Section 8 just straight cooked this motherfucker up)
+(What's happenin', Chi Chi?)
+I told her to fly and she scared of the virus, I sent her a private to get here
+I made four hundred dollars off of each of these pounds, I ain't trippin', it's gon' be a good year
+Solomon drivin' while I got my hands on the chopper, I'm keepin' my eyes in the rearview
+I'm from Atlanta where they pay to triple cross niggas, they'll dap you up, then they'll kill you
+These niggas fake and I'm real, I don't feel 'em
+My niggas takers, ain't worried 'bout 'em stealing
+I run with apes and some baby gorillas
+I know a few (Shh), I can buy me a nigga
+Said I wouldn't change but my change a lil' bigger
+Four-carat ring leave a scar if I hit you
+Look like a spaceship, got stars in my vehicle
+These niggas fake and I don't wanna deal with 'em all
+I'm social distancing
+Man, these niggas can't touch me, I can't get sick
+Good excuse for me to pour up medicine (Syrup)
+She say I ain't got no heart and I'm devil-sent
+I'm on some savage shit, ah
+I got the drop on the opps, switched the cars
+I got a hundred inside of a drum
+We pull up clapping, a round of applause
+We just gon' say that they won the award
+Slide in the daytime, then come back at night
+We gon' make sure that nobody play with us
+They make me mad, I'ma turn up
+Let's talk about money, I swear I been savin' up
+I'm really sick with this shit, got 'em throwin' up
+He hit a lick for a brick, now he goin' up
+My niggas rapping, you see us, we blowin' up
+Hit the bitch for a rack, then ignore her
+I'm so sick of these rats and these whores
+I might marry my girl and just go away
+Eat her out if she rich, got expensive taste
+We ain't got rush, told the pilot to fuckin' wait
+Ain't no way I can go on no fuckin' date
+I don't know her and she don't know me
+My lil' boy 'dem turnt up at a young age
+You can say that it run in my genes
+I'm social distancing
+Man, these niggas can't touch me, I can't get sick
+Good excuse for me to pour up medicine (Syrup)
+She say I ain't got no heart and I'm devil-sent
+I'm on some savage shit, ah
+I got the drop on the opps, switched the cars
+I got a hundred inside of a drum
+We pull up clapping, a round of applause
+We just gon' say that they won the award
+I'm social distancing
+Man, these niggas can't touch me, I can't get sick
+Good excuse for me to pour up medicine (Syrup)
+She say I ain't got no heart and I'm devil-sent
+I'm on some savage shit, ah
+I got the drop on the opps, switched the cars
+I got a hundred inside of a drum
+We pull up clapping, a round of applause
+We just gon' say that they won the award
+I'm social distancing
+Man, these niggas can't touch me, I can't get sick</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://genius.com/Lil-baby-social-distancing-lyrics</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>2655</v>
+      </c>
+      <c r="L11" t="n">
+        <v>543</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0.9999974825685904</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2020-05-16</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>5519310</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>{'nigga': 10, 'sick': 6, 'send': 4, 'good': 4, 'social': 4, 'distance': 4, 'man': 4, 'touch': 4, 'shit': 4, 'know': 3, 'hit': 3, 'excuse': 3, 'pour': 3, 'medicine': 3, 'syrup': 3, 'heart': 3, 'devil': 3, 'savage': 3, 'drop': 3, 'opps': 3, 'switch': 3, 'car': 3, 'inside': 3, 'drum': 3, 'pull': 3, 'clapping': 3, 'round': 3, 'applause': 3, 'win': 3, 'award': 3, 'chi': 2, 'tell': 2, 'fake': 2, 'run': 2, 'change': 2, 'lil': 2, 'fuckin': 2, 'section': 1, 'cook': 1, 'motherfucker': 1, 'happenin': 1, 'flyandshe': 1, 'scared': 1, 'ofthe': 1, 'virus': 1, 'aprivate': 1, 'dollar': 1, 'pound': 1, 'year': 1, 'solomon': 1, 'drivin': 1, 'hand': 1, 'chopper': 1, 'eye': 1, 'rearview': 1, 'atlanta': 1, 'pay': 1, 'triple': 1, 'cross': 1, 'dap': 1, 'kill': 1, 'real': 1, 'feel': 1, 'taker': 1, 'worry': 1, 'steal': 1, 'ape': 1, 'baby': 1, 'gorilla': 1, 'shh': 1, 'buy': 1, 'big': 1, 'carat': 1, 'ring': 1, 'leave': 1, 'scar': 1, 'look': 1, 'spaceship': 1, 'star': 1, 'vehicle': 1, 'wanna': 1, 'deal': 1, 'slide': 1, 'daytime': 1, 'come': 1, 'night': 1, 'sure': 1, 'play': 1, 'mad': 1, 'turn': 1, 'let': 1, 'talk': 1, 'money': 1, 'swear': 1, 'savin': 1, 'throwin': 1, 'lick': 1, 'brick': 1, "goin'": 1, 'rap': 1, 'blowin': 1, 'bitch': 1, 'rack': 1, 'ignore': 1, 'rat': 1, 'whore': 1, 'marry': 1, 'girl': 1, 'eat': 1, 'rich': 1, 'expensive': 1, 'taste': 1, 'rush': 1, 'pilot': 1, 'wait': 1, 'way': 1, 'date': 1, 'boy': 1, 'dem': 1, 'turnt': 1, 'young': 1, 'age': 1, 'gene': 1}</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>{'track': 4, 'baby': 3, 'social': 2, 'distancing': 2, 'standout': 1, 'deluxe': 1, 'turn': 1, 'lil': 1, 'use': 1, 'current': 1, 'recommendation': 1, 'covid-19': 1, 'pandemic': 1, 'metaphor': 1, 'emphasize': 1, 'competition': 1, 'drop': 1, 'reference': 1, 'expensive': 1, 'item': 1, 'rich': 1, 'girl': 1, 'boast': 1, 'lifestyle': 1, 'fame': 1, 'april': 1, 'tease': 1, 'tweet': 1, 'line': 1, 'https://twitter.com/lilbaby4pf/status/1250086899659702278?ref_src=twsrc%5etfw': 1}</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>nigga</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>sick</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>social</t>
+        </is>
+      </c>
+      <c r="Y11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B12" t="n">
         <v>7202</v>
       </c>
-      <c r="C4" t="n">
-        <v>877</v>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C12" t="n">
+        <v>913</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>6ix9ine</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>6ix9ine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Gooba</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G12" t="n">
         <v>10</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H12" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>I tell a nigga don't dick ride, don't blick ride
 Leave it to the double thick thighs, twin sisters
@@ -931,104 +2376,109 @@
 (Jah, ayy, you know that boy)</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>https://genius.com/6ix9ine-gooba-lyrics</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="K12" t="n">
         <v>2093</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L12" t="n">
         <v>392</v>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="N12" t="n">
         <v>0.999996251671642</v>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>{'en': 3}</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2020-05-23</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>5545285</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2020-05-08</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>{'big': 10, 'nigga': 9, 'cha': 7, 'hater': 6, 'bitch': 6, 'mad': 6, 'slide': 5, 'dumb': 5, 'tell': 4, 'dick': 4, 'ride': 4, 'wobble': 4, 'gobble': 4, 'truck': 4, 'clout': 4, 'ta': 4, 'talkin': 3, 'stupid': 3, 'sad': 3, 'blick': 2, 'leave': 2, 'double': 2, 'twin': 2, 'sister': 2, 'drop': 2, 'bestie': 2, 'sucker': 2, 'dub': 2, 'salam': 2, 'alam': 2, 'alaykum': 2, "nothin'": 2, 'chaser': 2, 'shit': 2, 'niggas': 2, 'face': 2, 'grrt': 2, 'money': 2, 'listen': 2, 'mami': 2, 'thickthighs': 1, 'itdown': 1, 'mamiboote': 1, 'mymoneyup': 1, 'thebentley': 1, 'thewraith': 1, 'catch': 1, 'chicken': 1, 'spot': 1, 'couple': 1, 'chop': 1, 'pop': 1, 'shot': 1, 'ra': 1, 'dayday': 1, 'diddy': 1, 'bop': 1, 'think': 1, 'knuckle': 1, 'box': 1, 'yadda': 1, 'ya': 1, 'fuck': 1, 'wanna': 1, 'chase': 1, 'play': 1, 'dummy': 1, 'fuckin': 1, 'ugly': 1, 'talk': 1, 'dance': 1, 'bachata': 1, 'dímelo': 1, 'fresca': 1, 'nasty': 1, 'flame': 1, 'light': 1, 'excited': 1, 'step': 1, 'spin': 1, 'fly': 1, 'pilot': 1, 'sick': 1, 'hot': 1, 'way': 1, 'coronavirus': 1, 'bite': 1, 'thick': 1, 'thigh': 1, 'boot': 1, 'bentley': 1, 'wraith': 1, 'care': 1, 'stay': 1, 'cry': 1, 'baby': 1, 'tweetin': 1, 'bout': 1, 'trendin': 1, 'rat': 1, 'come': 1, 'bag': 1, 'jah': 1, 'ayy': 1, 'know': 1, 'boy': 1}</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>{'track': 3, 'release': 3, 'gooba': 2, 'single': 2, 'case': 2, 'april': 2, 'early': 2, 'confirm': 2, 'video': 2, 'brooklyn': 1, 'rapper': 1, 'infamous': 1, 'september': 1, 'testimony': 1, 'united': 1, 'states': 1, 'trey': 1, 'bloods': 1, 'come': 1, 'week': 1, 'compassionate': 1, 'sars': 1, 'cov-2': 1, 'outbreak': 1, 'america': 1, 'address': 1, 'people': 1, 'comment': 1, 'deal': 1, 'charge': 1, 'aforementioned': 1, 'court': 1, 'rumor': 1, 'begin': 1, 'tekashi': 1, 'seek': 1, 'receive': 1, 'permission': 1, 'federal': 1, 'judge': 1, 'shoot': 1, 'music': 1, 'backyard': 1, 'residence': 1, 'billboard': 1, 'times': 1, 'square': 1, 'upcoming': 1, 'day': 1, 'end': 1, 'song': 1, 'break': 1, 'record': 1, 'view': 1, 'hip': 1, 'hop': 1, 'hour': 1, 'set': 1, 'eminem': 1}</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>big</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>nigga</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>cha</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>hater</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>bitch</t>
+        </is>
+      </c>
+      <c r="Y12" t="b">
         <v>1</v>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>{'big': 10, 'nigga': 9, 'cha': 7, 'hater': 6, 'bitch': 6, 'mad': 6, 'slide': 5, 'dumb': 5, 'tell': 4, 'dick': 4, 'ride': 4, 'wobble': 4, 'gobble': 4, 'truck': 4, 'clout': 4, 'ta': 4, 'talkin': 3, 'stupid': 3, 'sad': 3, 'blick': 2, 'leave': 2, 'double': 2, 'twin': 2, 'sister': 2, 'drop': 2, 'bestie': 2, 'sucker': 2, 'dub': 2, 'salam': 2, 'alam': 2, 'alaykum': 2, 'chaser': 2, 'shit': 2, 'niggas': 2, 'face': 2, 'get': 2, 'money': 2, 'listen': 2, 'mami': 2, 'catch': 1, 'chicken': 1, 'spot': 1, 'couple': 1, 'pop': 1, 'shot': 1, 'ra': 1, 'diddy': 1, 'bop': 1, 'think': 1, 'knuckle': 1, 'box': 1, 'yadda': 1, 'ya': 1, 'fuck': 1, 'wanna': 1, 'chase': 1, 'play': 1, 'dummy': 1, 'fuckin': 1, 'ugly': 1, 'talk': 1, 'dance': 1, 'bachata': 1, 'fresca': 1, 'nasty': 1, 'flame': 1, 'light': 1, 'excited': 1, 'step': 1, 'spin': 1, 'fly': 1, 'pilot': 1, 'sick': 1, 'hot': 1, 'way': 1, 'coronavirus': 1, 'bite': 1, 'thick': 1, 'thigh': 1, 'boot': 1, 'bentley': 1, 'wraith': 1, 'haha': 1, 'care': 1, 'stay': 1, 'cry': 1, 'baby': 1, 'tweetin': 1, 'bout': 1, 'rat': 1, 'come': 1, 'bag': 1, 'jah': 1, 'ayy': 1, 'know': 1, 'boy': 1}</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>big</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>nigga</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>cha</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>hater</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>bitch</t>
-        </is>
-      </c>
-      <c r="X4" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>887</v>
-      </c>
-      <c r="B5" t="n">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>923</v>
+      </c>
+      <c r="B13" t="n">
         <v>7331</v>
       </c>
-      <c r="C5" t="n">
-        <v>887</v>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C13" t="n">
+        <v>923</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Future Featuring Travis Scott</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Future</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Solitaires</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G13" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H13" t="n">
         <v>32</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>(Wheezy outta here)
 Solitary diamonds, solitary jewels
@@ -1095,104 +2545,284 @@
 I put it out, they come in (Ooh)</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>https://genius.com/Future-solitaires-lyrics</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="K13" t="n">
         <v>2898</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L13" t="n">
         <v>553</v>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="N13" t="n">
         <v>0.9999970343586962</v>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>{'en': 8}</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>5562531</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2020-05-15</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>{'solitary': 10, 'diamond': 8, 'wanna': 5, 'loose': 5, 'jewel': 4, 'bitch': 4, 'let': 4, 'gettin': 4, 'money': 4, 'come': 3, 'pussy': 3, 'know': 3, 'screw': 3, 'shinin': 2, 'lookin': 2, 'moon': 2, 'bustin': 2, 'room': 2, 'loop': 2, 'watch': 2, 'wheel': 2, 'pick': 2, 'time': 2, 'woo': 2, 'walk': 2, 'pop': 2, 'pool': 2, 'care': 2, 'friend': 2, 'bring': 2, 'playin': 2, 'live': 2, 'wheezy': 1, 'shewannaparty': 1, 'letit': 1, 'jumpin': 1, 'iputitout': 1, 'comein': 1, 'upoff': 1, 'brick': 1, 'buy': 1, 'richard': 1, 'mille': 1, 'new': 1, 'tick': 1, 'drippin': 1, 'louis': 1, 'v': 1, 'movie': 1, 'prada': 1, 'film': 1, 'don': 1, 'dada': 1, 'stand': 1, 'lamborghini': 1, "o'clock": 1, 'gun': 1, 'clock': 1, 'pill': 1, 'monday': 1, 'way': 1, 'sunday': 1, 'drill': 1, 'lettuce': 1, 'paper': 1, 'tree': 1, 'percent': 1, 'start': 1, 'squad': 1, 'chill': 1, 'play': 1, 'field': 1, 'coronavirus': 1, 'catch': 1, 'flu': 1, 'trap': 1, 'bandos': 1, 'jimmy': 1, 'choo': 1, 'solitaries': 1, 'rockstar': 1, 'proof': 1, 'group': 1, 'rack': 1, 'mind': 1, 'lose': 1, 'baguette': 1, 'pocket': 1, 'blue': 1, 'girls': 1, 'naked': 1, 'swimming': 1, 'light': 1, 'radical': 1, 'decision': 1, 'choose': 1, 'dog': 1, 'hungry': 1, 'sellin': 1, 'food': 1, 'tend': 1, 'hit': 1, 'news': 1, 'want': 1, 'stiff': 1, 'runnin': 1, 'gunnin': 1, 'juice': 1, 'youngin': 1, 'work': 1, 'school': 1, 'floodin': 1, 'break': 1, 'power': 1, 'rule': 1, 'sip': 1, 'codeine': 1, 'ridin': 1, 'lamborgini': 1, 'juicy': 1, 'grippin': 1, 'diamonds': 1, 'neck': 1, 'crazy': 1, 'think': 1, 'need': 1, 'psychiatrist': 1, 'street': 1, 'gutter': 1, 'raise': 1, 'sell': 1, 'narcotic': 1, 'lock': 1, 'shit': 1, 'wifey': 1, 'limp': 1, 'got': 1, 'drop': 1, 'spot': 1, 'twinsie': 1, 'hugh': 1, 'hefner': 1, 'zoo': 1, 'tooth': 1, 'twinkle': 1, 'leg': 1, 'jacuzzi': 1, 'tweakin': 1, 'day': 1, 'missin': 1, 'air': 1, 'max': 1, 'pump': 1, '270': 1, "havin'": 1, 'conversation': 1, 'dawg': 1, 'wait': 1, 'straight': 1, 'party': 1}</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>{'song': 7, 'produce': 4, 'future': 3, 'travis': 3, 'bar': 2, 'release': 2, 'solitaires': 1, 'reunite': 1, 'scott': 1, 'trade': 1, 'boastful': 1, 'luxurious': 1, 'lifestyle': 1, 'luxury': 1, 'fashion': 1, 'brand': 1, 'afford': 1, 'jewelry': 1, 'car': 1, 'drop': 1, 'covid-19': 1, 'pandemic': 1, 'ongoing': 1, 'disease': 1, 'time': 1, 'compare': 1, 'diamond': 1, 'instrumental': 1, 'wheezy': 1, 'co': 1, 'mike': 1, 'dean': 1, 'snippet': 1, 'surface': 1, 'public': 1, 'hour': 1, 'play': 1, 'studio': 1}</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>solitary</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>diamond</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>wanna</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>loose</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>jewel</t>
+        </is>
+      </c>
+      <c r="Y13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>933</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7368</v>
+      </c>
+      <c r="C14" t="n">
+        <v>933</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Future</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Future</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ridin Strikers</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>69</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Riding strikers
+Hotbox shit, gonna hotbox (Pluto)
+I'm gonna cut 'em (You got somethin' to bring)
+Riding strikers good, yeah
+Riding strikers through the hood
+Riding strikers through your hood (Ridin' strikers through), yeah
+Ridin' strikers through your hood, yeah
+Fuck a title, you got that rifle, you need to ride striker
+Go for the Ferrari, a Spider, man, I had to ride striker
+I taught my young niggas how to slide, go and get a striker
+I put my young bitch in a G-Wag' she ridin' striker
+I go to Jamaica then tag 'em with a hundred snipers
+I dip the ice and go (Woo), I step out icy, frozen (Woo)
+I hit professional (Woo), I have déjà vu, I know (Woo)
+I'm gettin' my decimals (Woo), I'm going digital
+Spazzin' in Jimmy Choo, bagged up plentiful
+Tell me how I'm supposed to be sober in my interview (sober)
+Last night I was growing up (I was in Fendi too)
+Took flight, I've been going up (That's a ritual)
+Passport and we going up like some animals
+Addied up and I'm gassed up, change the temperature
+Triple rows, tall hoes, they identical
+Minute Maid, Hi-Tech splash (Goin' crazy)
+Drug raids got me cold, got me cocky (Ahh)
+Can't stand it, won't enjoy life if it ain't toxic
+Cuban links, walking on ice, I don't play hockey
+I was trained standin' on Front Street and I'm saucy
+High profile superstar, codeine coughing
+Cop a Porsche, cop a Range Rover, it's King Jaffe
+Kick a door, smokin' sherm sticks, take Oxys
+Piss poor, we sticking together like (Gang)
+King Kong, I'm taking drugs out my body
+Insane, inside my brain and my posse
+Riding strikers good, yeah
+Riding strikers in the hood
+Riding strikers good, yeah
+Ridin' strikers in the hood, yeah
+Fuck a title, you got that rifle, you need to ride striker (Striker)
+Go for the Ferrari, a Spider, man, I had to ride striker (Striker)
+I taught my young niggas how to slide, go and get a striker
+I put my young bitch in a G-Wag' she ridin' striker (Strike)
+Riding strikers good
+Riding strikers through your hood, yeah
+Riding strikers through
+Riding strikers through the hood, nigga
+Yeah, riding strikers through your hood, yeah
+The police need your help in tracking down a suspect in a bank robbery this morning on the city's north side
+According to police, the suspect walked into the bank about nine this morning
+Went straight to one of the tellers, handed over a note that said
+"Put money in bag"
+Hold on, pouring up drank
+Hold on, now I'm robbin' me a bank
+Hold on, fucking on foreign
+Hold on, that bitch with you ain't
+Hold on, whippin' up foreign
+Hold on, drive it like a tank
+Hold on, pouring up drank
+Hold on, 'bout to rob me a bank
+Hold on, smokin' on pressure
+Hold on, straight out a pound
+Hold on, crazy-ass shooter (Crazy-ass shooter)
+Hold on, sprayin' in the crowd (Sprayin' in the crowd)
+Hold on, kill 'em on sight
+Hold on, still go to trial
+Hold on, nigga get life
+Hold on, been scarred as a child
+Hold on, rob me a bank
+Rob me a bank
+Hold on</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://genius.com/Future-ridin-strikers-lyrics</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>2915</v>
+      </c>
+      <c r="L14" t="n">
+        <v>541</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="Q5" t="n">
+      <c r="N14" t="n">
+        <v>0.9999966912457848</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>5562533</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2020-05-15</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>{'striker': 24, 'hold': 18, 'ride': 13, 'hood': 7, 'bank': 6, 'woo': 5, 'ridin': 4, 'young': 4, 'nigga': 4, 'need': 3, 'bitch': 3, 'crazy': 3, 'good': 3, 'rob': 3, 'hotbox': 2, 'rifle': 2, 'ferrari': 2, 'spider': 2, 'man': 2, 'teach': 2, 'slide': 2, 'g': 2, 'wag': 2, 'ice': 2, 'bag': 2, 'sober': 2, 'drug': 2, 'life': 2, 'walk': 2, 'cop': 2, 'king': 2, 'smokin': 2, 'stick': 2, 'riding': 2, 'police': 2, 'suspect': 2, 'morning': 2, 'pour': 2, 'drink': 2, 'foreign': 2, 'ass': 2, 'shooter': 2, 'sprayin': 2, 'crowd': 2, 'shit': 1, 'pluto': 1, 'cut': 1, "somethin'": 1, 'bring': 1, 'strikersgood': 1, 'hood(ridin': 1, 'atitle': 1, 'yougot': 1, 'toride': 1, 'jamaica': 1, 'tag': 1, 'sniper': 1, 'dip': 1, 'step': 1, 'icy': 1, 'frozen': 1, 'hit': 1, 'professional': 1, 'know': 1, 'gettin': 1, 'decimal': 1, 'digital': 1, 'spazzin': 1, 'jimmy': 1, 'choo': 1, 'plentiful': 1, 'tell': 1, 'suppose': 1, 'interview': 1, 'night': 1, 'grow': 1, 'fendi': 1, 'flight': 1, 'ritual': 1, 'passport': 1, 'animal': 1, 'addie': 1, 'gas': 1, 'change': 1, 'temperature': 1, 'triple': 1, 'row': 1, 'tall': 1, 'hoe': 1, 'identical': 1, 'minute': 1, 'maid': 1, 'tech': 1, 'splash': 1, "goin'": 1, 'raid': 1, 'cold': 1, 'cocky': 1, 'stand': 1, 'enjoy': 1, 'toxic': 1, 'cuban': 1, 'link': 1, 'play': 1, 'hockey': 1, 'train': 1, 'standin': 1, 'street': 1, 'saucy': 1, 'high': 1, 'profile': 1, 'superstar': 1, 'codeine': 1, 'cough': 1, 'porsche': 1, 'range': 1, 'rover': 1, 'jaffe': 1, 'kick': 1, 'door': 1, 'sherm': 1, 'oxys': 1, 'piss': 1, 'poor': 1, 'gang': 1, 'kong': 1, 'body': 1, 'insane': 1, 'brain': 1, 'posse': 1, 'title': 1, 'strike': 1, 'help': 1, 'track': 1, 'robbery': 1, 'city': 1, 'north': 1, 'accord': 1, 'teller': 1, 'hand': 1, 'note': 1, 'money': 1, 'robbin': 1, 'fucking': 1, 'whippin': 1, 'drive': 1, 'tank': 1, "'bout": 1, 'pressure': 1, 'pound': 1, 'kill': 1, 'sight': 1, 'trial': 1, 'scarred': 1, 'child': 1}</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>{'future': 3, 'bank': 2, 'ridin': 1, 'strikers': 1, 'rap': 1, 'send': 1, 'shooter': 1, 'deal': 1, 'opposition': 1, 'instrumental': 1, 'sound': 1, 'reminiscent': 1, 'ds2': 1, 'day': 1, 'fitting': 1, 'consider': 1, 'produce': 1, 'southside': 1, 'atl': 1, 'jacob': 1, 'track': 1, 'feature': 1, 'new': 1, 'report': 1, 'style': 1, 'interlude': 1, 'counterpart': 1, 'follow': 1, 'beat': 1, 'switch': 1, 'ominous': 1, 'slow': 1, 'piano': 1, 'prepare': 1, 'rob': 1, 'pour': 1, 'drink': 1}</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>striker</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>ride</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>bank</t>
+        </is>
+      </c>
+      <c r="Y14" t="b">
         <v>1</v>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>{'solitary': 10, 'get': 10, 'diamond': 9, 'wanna': 5, 'loose': 5, 'jewel': 4, 'bitch': 4, 'let': 4, 'gettin': 4, 'money': 4, 'come': 3, 'woo': 3, 'pussy': 3, 'know': 3, 'screw': 3, 'shinin': 2, 'lookin': 2, 'moon': 2, 'say': 2, 'bustin': 2, 'room': 2, 'loop': 2, 'watch': 2, 'wheel': 2, 'pick': 2, 'time': 2, 'walk': 2, 'pop': 2, 'pool': 2, 'care': 2, 'friend': 2, 'bring': 2, 'playin': 2, 'live': 2, 'wheezy': 1, 'outta': 1, 'jumpin': 1, 'brick': 1, 'buy': 1, 'richard': 1, 'mille': 1, 'new': 1, 'tick': 1, 'drippin': 1, 'louis': 1, 'v': 1, 'movie': 1, 'prada': 1, 'film': 1, 'don': 1, 'dada': 1, 'stand': 1, 'lamborghini': 1, "o'clock": 1, 'gun': 1, 'clock': 1, 'pill': 1, 'monday': 1, 'way': 1, 'sunday': 1, 'drill': 1, 'lettuce': 1, 'paper': 1, 'tree': 1, 'percent': 1, 'start': 1, 'squad': 1, 'chill': 1, 'play': 1, 'field': 1, 'coronavirus': 1, 'catch': 1, 'flu': 1, 'trap': 1, 'bandos': 1, 'jimmy': 1, 'choo': 1, 'rockstar': 1, 'proof': 1, 'group': 1, 'rack': 1, 'mind': 1, 'lose': 1, 'baguette': 1, 'pocket': 1, 'blue': 1, 'girls': 1, 'naked': 1, 'swimming': 1, 'light': 1, 'radical': 1, 'decision': 1, 'choose': 1, 'dog': 1, 'hungry': 1, 'sellin': 1, 'food': 1, 'tend': 1, 'hit': 1, 'news': 1, 'want': 1, 'stiff': 1, 'runnin': 1, 'gunnin': 1, 'juice': 1, 'youngin': 1, 'work': 1, 'school': 1, 'hundred': 1, 'break': 1, 'power': 1, 'rule': 1, 'sip': 1, 'codeine': 1, 'make': 1, 'ridin': 1, 'lamborgini': 1, 'juicy': 1, 'grippin': 1, 'neck': 1, 'go': 1, 'crazy': 1, 'think': 1, 'need': 1, 'psychiatrist': 1, 'street': 1, 'gutter': 1, 'raise': 1, 'sell': 1, 'narcotic': 1, 'lock': 1, 'shit': 1, 'wifey': 1, 'limp': 1, 'drop': 1, 'spot': 1, 'twinsie': 1, 'hugh': 1, 'hefner': 1, 'zoo': 1, 'tooth': 1, 'twinkle': 1, 'leg': 1, 'jacuzzi': 1, 'tweakin': 1, 'day': 1, 'missin': 1, 'air': 1, 'max': 1, 'pump': 1, '270': 1, 'conversation': 1, 'dawg': 1, 'wait': 1, 'party': 1}</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>solitary</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>diamond</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>wanna</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>loose</t>
-        </is>
-      </c>
-      <c r="X5" t="b">
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>978</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7700</v>
+      </c>
+      <c r="C15" t="n">
+        <v>978</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6ix9ine &amp; Nicki Minaj</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6ix9ine</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Trollz</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>939</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7700</v>
-      </c>
-      <c r="C6" t="n">
-        <v>939</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6ix9ine &amp; Nicki Minaj</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6ix9ine</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Trollz</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>(Sad Pony)
 Watch, mhm, Glock, mhm, cocked, mhm, got it, mhm
@@ -1266,104 +2896,531 @@
 That real ass ain't keep your nigga home</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>https://genius.com/6ix9ine-and-nicki-minaj-trollz-lyrics</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="K15" t="n">
         <v>3332</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L15" t="n">
         <v>637</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="N15" t="n">
         <v>0.9999958446454048</v>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>{'en': 3, 'pl': 1, 'sq': 1}</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>5498513</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>{'ass': 7, 'like': 6, 'throwin': 6, 'need': 5, 'cash': 5, 'vroom': 5, 'throw': 4, 'rack': 4, 'benz': 4, 'truck': 4, 'nigga': 4, 'bitch': 4, 'pocket': 3, 'know': 3, 'wanna': 3, 'nina': 3, 'fuck': 3, 'come': 3, 'crash': 3, 'dash': 3, 'watch': 2, 'glock': 2, 'cocked': 2, 'that?i': 2, 'fight': 2, 'want': 2, 'talk': 2, 'friend': 2, 'type': 2, 'hater': 2, 'dollar': 2, 'face': 2, 'nicki': 2, 'talkin': 2, 'snitch': 2, 'start': 2, 'plottin': 2, 'fast': 2, 'sad': 1, 'pony': 1, "the'cat": 1, 'band': 1, 'sticksonme': 1, 'cat': 1, 'problem': 1, 'party': 1, 'invite': 1, 'worry': 1, 'stop': 1, 'look': 1, 'clouty': 1, '6ix': 1, '9ine': 1, 'riding': 1, 'seater': 1, 'baby': 1, 'aquafina': 1, 'cocaina': 1, 'smoking': 1, 'og': 1, 'reefer': 1, 'tmz': 1, 'forgiatos': 1, 'tell': 1, 'chanel': 1, 'let': 1, 'star': 1, 'shine': 1, 'rolls': 1, 'royce': 1, 'red': 1, 'gut': 1, 'wait': 1, 'hold': 1, 'g5': 1, 'high': 1, 'reply': 1, 'bill': 1, 'man': 1, 'nickis': 1, 'page': 1, 'double': 1, 'tap': 1, 'baddie': 1, 'left': 1, 'right': 1, 'chase': 1, 'corny': 1, 'life': 1, 'cake': 1, 'taste': 1, 'sippin': 1, 'ace': 1, 'itty': 1, 'bitty': 1, 'waist': 1, 'pretty': 1, 'eat': 1, 'cookie': 1, 'monster': 1, 'slave': 1, 'pussy': 1, 'master': 1, 'wet': 1, 'slurp': 1, 'pasta': 1, 'nervous': 1, 'roster': 1, 'rrr': 1, 'usher': 1, 'clinic': 1, 'flow': 1, 'sick': 1, 'pandemic': 1, 'write': 1, 'lyric': 1, 'lot': 1, 'gimmick': 1, 'study': 1, 'style': 1, 'wan': 1, 'mimic': 1, 'camp': 1, 'stand': 1, 'itchin': 1, 'stamp': 1, 'money': 1, 'wrist': 1, 'light': 1, 'lamp': 1, 'send': 1, 'good': 1, 'fighter': 1, 'champ': 1, 'mary': 1, 'poppin': 1, 'hatin': 1, 'watchin': 1, 'check': 1, 'board': 1, 'bustdown': 1, 'plain': 1, 'jane': 1, 'option': 1, 'bunch': 1, 'mini': 1, 'mockin': 1, 'bag': 1, "goin'": 1, 'shoppin': 1, 'snake': 1, 'sweep': 1, 'moppin': 1, 'singin': 1, 'old': 1, 'song': 1, 'yellin': 1, 'speedin': 1, 'tryna': 1, 'beat': 1, 'number': 1, 'real': 1, 'home': 1}</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>{'trollz': 2, 'release': 2, 'second': 1, 'single': 1, 'rapper': 1, 'prison': 1, 'finish': 1, 'sentence': 1, 'home': 1, 'confinement': 1, 'track': 1, 'mention': 1, 'instagram': 1, 'claim': 1, 'day': 1, 'post': 1, 'like': 1, 'comment': 1, 'song': 1, 'title': 1, 'turn': 1, 'suggestion': 1, 'decide': 1, 'push': 1, 'june': 1, 'support': 1, 'black': 1, 'community': 1, 'protest': 1, 'break': 1, 'killing': 1, 'george': 1, 'floyd': 1, 'state': 1, 'respect': 1, 'shape': 1, 'catchy': 1, 'pace': 1, 'trap': 1, 'beat': 1, 'feature': 1, 'soft': 1, 'vocal': 1, 'chorus': 1, 'quintessential': 1, 'minaj': 1, 'formula': 1, 'verse': 1, 'pack': 1, 'wordplay': 1, 'sing': 1, 'section': 1}</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>ass</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>throwin</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="Y15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7702</v>
+      </c>
+      <c r="C16" t="n">
+        <v>979</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Lil Baby</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Lil Baby</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>The Bigger Picture</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>20</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Protests and growing national outcry continues over the death of George Floyd (Section 8 just straight cooked this motherfucker up)
+Last night, people protesting in Minneapolis escalated
+As demonstrators were lashed by tear gas and rubber bullets
+The main message here, the main message here, the main message here
+Is that they want to see those officers involved
+They want to see those officers arrested
+Officers arrested
+(I can't breathe, I can't breathe)
+Trade my 4x4 for a G63, ain't no more free Lil Steve
+I gave 'em chance and chance and chance again, I even done told them please
+I find it crazy the police'll shoot you and know that you dead, but still tell you to freeze
+Fucked up, I seen what I seen
+I guess that mean hold him down if he say he can't breathe
+It's too many mothers that's grieving
+They killing us for no reason
+Been going on for too long to get even
+Throw us in cages like dogs and hyenas
+I went to court and they sent me to prison
+My mama was crushed when they said I can't leave
+First I was drunk, then I sobered up quick
+When I heard all that time that they gave to Taleeb
+He got a life sentence plus
+We just some products of our environment
+How the fuck they gon' blame us?
+You can't fight fire with fire
+I know, but at least we can turn up the flames some
+Every colored person ain't dumb and all whites not racist
+I be judging by the mind and heart, I ain't really into faces
+Fucked up, the way that we livin' is not getting better, you gotta know how to survive
+Crazy, I had to tell all of my loved ones to carry a gun when they going outside
+Stare in the mirror whenever you drive
+Overprotective, go crazy for mine
+You gotta pay attention to the signs
+Seem like the blind following the blind
+Thinking 'bout everything that's going on
+I boost security up at my home
+I'm with my kind if they right or they wrong
+I call him now, he'll pick up the phone
+And it's five in the morning, he waking up on it
+Tell 'em wherever I'm at, then they comin'
+I see blue lights, I get scared and start runnin'
+That shit be crazy, they 'posed to protect us
+Throw us in handcuffs and arrest us
+While they go home at night, that shit messed up
+Knowing we needed help, they neglect us
+Wondering who gon' make them respect us
+I can see in your eye that you fed up
+Fuck around, got my shot, I won't let up
+They know that we a problem together
+They know that we can storm any weather
+It's bigger than black and white
+It's a problem with the whole way of life
+It can't change overnight
+But we gotta start somewhere
+Might as well gon' 'head start here
+We done had a hell of a year
+I'ma make it count while I'm here
+God is the only man I fear
+Fuck it, I'm goin' on the front line
+He gon' bust your ass if you come past that gun line
+You know when the storm go away, then the sun shine
+You gotta put your head in the game when it's crunch time
+I want all my sons to grow up to be monsters
+I want all my daughters to show out in public
+Seems like we losing our country
+But we gotta stand up for something, so this what it comes to
+Every video I see on my conscience
+I got power, now I gotta say somethin'
+Corrupted police been the problem where I'm from
+But I'd be lying if I said it was all of them
+I ain't do this for the trend, I don't follow them
+Altercations with the law, had a lot of them
+People speaking for the people, I'm proud of them
+Stick together, we can get it up out of them
+I can't lie like I don't rap about killing and dope, but I'm telling my youngins to vote
+I did what I did 'cause I didn't have no choice or no hope, I was forced to just jump in and go
+This bullshit is all that we know, but it's time for a change
+Got time to be serious, no time for no games
+We ain't takin' no more, let us go from them chains
+God bless they souls, every one of them names
+It's bigger than black and white
+It's a problem with the whole way of life
+It can't change overnight
+But we gotta start somewhere
+Might as well gon' 'head start here
+We done had a hell of a year
+I'ma make it count while I'm here
+God is the only man I fear
+They trainin' officers to kill us, then shootin' protestors with these rubber bullets
+They regular people, I know that they feel it
+These scars too deep to heal us
+What happened to COVID? Nobody remember
+It ain't makin' sense, I'm just here to vent
+It happen to one of your people, it's different
+We get it, the system is wicked, just learn how to pick it
+Knowledge is power, I swear I'm a witness, I know that I'm gifted
+I won't go too deep 'cause I'm scared they'll get me
+Ain't scared to admit it, some shit I can't mention
+It's people who can, well, here's the chance
+I won't take the stand, but I'll take a stand for what I believe
+Must not be breathing the air that I breathe
+You know that the way that I bleed, you can bleed
+I never been a fan of police
+But my neighborhood know I try to keep peace
+So it's only right that I get in the streets
+March for a reason, not just on GP
+Our people died for us to be free
+Fuck do you mean? This was a dream
+Now we got the power that we need to have
+They don't want us with it and that's why they mad, yeah
+It's bigger than black and white
+It's a problem with the whole way of life
+It can't change overnight
+But we gotta start somewhere
+Might as well gon' 'head start here
+We done had a hell of a year
+I'ma make it count while I'm here
+God is the only man I fear
+It's bigger than black and white
+It's a problem with the whole way of life
+It can't change overnight
+But we gotta start somewhere
+Might as well gon' 'head start here
+We done had a hell of a year
+I'ma make it count while I'm here
+God is the only man I fear</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://genius.com/Lil-baby-the-bigger-picture-lyrics</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>5608</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1132</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="Q6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>{'get': 10, 'ass': 7, 'like': 6, 'throwin': 6, 'need': 5, 'cash': 5, 'vroom': 5, 'throw': 4, 'rack': 4, 'benz': 4, 'truck': 4, 'nigga': 4, 'bitch': 4, 'pocket': 3, 'know': 3, 'wanna': 3, 'nina': 3, 'fuck': 3, 'come': 3, 'crash': 3, 'dash': 3, 'watch': 2, 'glock': 2, 'cocked': 2, 'fight': 2, 'want': 2, 'talk': 2, 'friend': 2, 'type': 2, 'hater': 2, 'dollar': 2, 'face': 2, 'nicki': 2, 'talkin': 2, 'snitch': 2, 'start': 2, 'plottin': 2, 'fast': 2, 'sad': 1, 'pony': 1, 'band': 1, 'cat': 1, 'problem': 1, 'party': 1, 'invite': 1, 'worry': 1, 'stop': 1, 'look': 1, '6ix': 1, 'ride': 1, 'seater': 1, 'baby': 1, 'aquafina': 1, 'cocaina': 1, 'smoking': 1, 'og': 1, 'reefer': 1, 'tmz': 1, 'tell': 1, 'chanel': 1, 'let': 1, 'star': 1, 'shine': 1, 'roll': 1, 'royce': 1, 'red': 1, 'gut': 1, 'wait': 1, 'hold': 1, 'g5': 1, 'high': 1, 'reply': 1, 'bill': 1, 'man': 1, 'page': 1, 'double': 1, 'tap': 1, 'baddie': 1, 'left': 1, 'right': 1, 'chase': 1, 'corny': 1, 'life': 1, 'cake': 1, 'taste': 1, 'sippin': 1, 'ace': 1, 'itty': 1, 'bitty': 1, 'waist': 1, 'pretty': 1, 'eat': 1, 'cookie': 1, 'monster': 1, 'slave': 1, 'pussy': 1, 'master': 1, 'wet': 1, 'say': 1, 'slurp': 1, 'pasta': 1, 'nervous': 1, 'roster': 1, 'usher': 1, 'clinic': 1, 'flow': 1, 'sick': 1, 'pandemic': 1, 'write': 1, 'lyric': 1, 'lot': 1, 'gimmick': 1, 'study': 1, 'style': 1, 'wan': 1, 'mimic': 1, 'camp': 1, 'stand': 1, 'itchin': 1, 'stamp': 1, 'money': 1, 'wrist': 1, 'light': 1, 'lamp': 1, 'send': 1, 'good': 1, 'fighter': 1, 'champ': 1, 'mary': 1, 'hatin': 1, 'watchin': 1, 'check': 1, 'board': 1, 'plain': 1, 'jane': 1, 'option': 1, 'bunch': 1, 'mini': 1, '-': 1, 'me': 1, 'mockin': 1, 'show': 1, 'bag': 1, 'shoppin': 1, 'snake': 1, 'sweep': 1, 'moppin': 1, 'singin': 1, 'old': 1, 'song': 1, 'yellin': 1, 'speedin': 1, 'tryna': 1, 'beat': 1, 'number': 1, 'real': 1, 'home': 1}</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>ass</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>like</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>throwin</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>need</t>
-        </is>
-      </c>
-      <c r="X6" t="b">
+      <c r="N16" t="n">
+        <v>0.999997402691351</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>5660719</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>{'know': 11, 'start': 9, 'people': 7, 'way': 6, 'problem': 6, 'want': 5, 'breathe': 5, 'tell': 5, 'fuck': 5, 'time': 5, 'life': 5, 'white': 5, 'change': 5, 'head': 5, 'god': 5, 'chance': 4, 'crazy': 4, 'big': 4, 'black': 4, 'hell': 4, 'year': 4, 'count': 4, 'man': 4, 'fear': 4, 'main': 3, 'message': 3, 'officer': 3, 'arrest': 3, 'scared': 3, 'shit': 3, 'stand': 3, 'power': 3, 'protest': 2, 'grow': 2, 'night': 2, 'rubber': 2, 'bullet': 2, 'free': 2, 'mean': 2, 'kill': 2, 'reason': 2, 'throw': 2, 'fire': 2, 'gun': 2, 'blind': 2, 'follow': 2, 'right': 2, 'pick': 2, 'need': 2, 'let': 2, 'storm': 2, 'line': 2, 'come': 2, 'game': 2, 'police': 2, 'lie': 2, 'deep': 2, 'happen': 2, 'bleed': 2, 'national': 1, 'outcry': 1, 'continue': 1, 'death': 1, 'george': 1, 'floyd': 1, 'section': 1, 'juststraightcooke': 1, 'motherfuckerup': 1, 'minneapolisescalated': 1, 'demonstrator': 1, 'lash': 1, 'tear': 1, 'gas': 1, 'involve': 1, 'officers': 1, 'trade': 1, '4x4': 1, 'g63': 1, 'lil': 1, 'steve': 1, 'find': 1, "police'll": 1, 'shoot': 1, 'dead': 1, 'freeze': 1, 'guess': 1, 'hold': 1, 'mother': 1, 'grieve': 1, 'long': 1, 'cage': 1, 'dog': 1, 'hyena': 1, 'court': 1, 'send': 1, 'prison': 1, 'mama': 1, 'crush': 1, 'leave': 1, 'drunk': 1, 'sober': 1, 'quick': 1, 'hear': 1, 'taleeb': 1, 'sentence': 1, 'product': 1, 'environment': 1, 'blame': 1, 'fight': 1, 'turn': 1, 'flame': 1, 'colored': 1, 'person': 1, 'dumb': 1, 'racist': 1, 'judge': 1, 'mind': 1, 'heart': 1, 'face': 1, 'livin': 1, 'survive': 1, 'love': 1, 'carry': 1, 'stare': 1, 'mirror': 1, 'drive': 1, 'overprotective': 1, 'got': 1, 'pay': 1, 'attention': 1, 'sign': 1, 'think': 1, 'boost': 1, 'security': 1, 'home': 1, 'kind': 1, 'wrong': 1, 'phone': 1, 'morning': 1, 'wake': 1, 'comin': 1, 'blue': 1, 'light': 1, 'runnin': 1, 'pose': 1, 'protect': 1, 'handcuff': 1, 'mess': 1, 'knowing': 1, 'help': 1, 'neglect': 1, 'wonder': 1, 'respect': 1, 'eye': 1, 'feed': 1, 'shot': 1, 'weather': 1, "goin'": 1, 'bust': 1, 'ass': 1, 'sun': 1, 'shine': 1, 'crunch': 1, 'son': 1, 'monster': 1, 'daughter': 1, 'public': 1, 'lose': 1, 'country': 1, 'video': 1, 'conscience': 1, "somethin'": 1, 'corrupted': 1, 'trend': 1, 'altercation': 1, 'law': 1, 'lot': 1, 'speak': 1, 'proud': 1, 'stick': 1, 'rap': 1, 'killing': 1, 'dope': 1, 'youngin': 1, 'vote': 1, 'choice': 1, 'hope': 1, 'force': 1, 'jump': 1, 'bullshit': 1, 'takin': 1, 'chain': 1, 'bless': 1, 'soul': 1, 'trainin': 1, 'shootin': 1, 'protestor': 1, 'regular': 1, 'feel': 1, 'scar': 1, 'heal': 1, 'covid': 1, 'remember': 1, 'makin': 1, 'sense': 1, 'vent': 1, 'different': 1, 'system': 1, 'wicked': 1, 'learn': 1, 'knowledge': 1, 'swear': 1, 'witness': 1, 'gifted': 1, 'admit': 1, 'mention': 1, 'believe': 1, 'air': 1, 'fan': 1, 'neighborhood': 1, 'try': 1, 'peace': 1, 'street': 1, 'march': 1, 'gp': 1, 'die': 1, 'dream': 1, 'mad': 1}</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>{'protest': 3, 'baby': 3, 'lead': 2, 'crowd': 2, 'big': 1, 'picture': 1, 'song': 1, 'lil': 1, 'feature': 1, 'rapper': 1, 'comment': 1, 'police': 1, 'brutality': 1, 'systemic': 1, 'racism': 1, 'america': 1, 'wake': 1, 'murder': 1, 'george': 1, 'floyd': 1, 'track': 1, 'come': 1, 'day': 1, 'street': 1, 'atlanta': 1, 'june': 1, 'force': 1, 'bicycle': 1, 'depict': 1, 'single': 1, 'cover': 1, 'art': 1, 'hand': 1, 'protestor': 1, 'supply': 1, 'money': 1, 'speak': 1, 'reach': 1, 'marchs': 1, 'destination': 1, 'georgias': 1, 'state': 1, 'capitol': 1, 'building': 1}</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>way</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="Y16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>951</v>
-      </c>
-      <c r="B7" t="n">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>984</v>
+      </c>
+      <c r="B17" t="n">
+        <v>7764</v>
+      </c>
+      <c r="C17" t="n">
+        <v>984</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tyla Yaweh &amp; Post Malone</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tyla Yaweh</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tommy Lee</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>65</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Ah, shit, I'm just workin' in the studio
+Ah, okay
+You miss me?
+Pop off
+You want me to pop off?
+I want you to pop off
+Aight, I'll call you right back (XL Eagle made it)
+You always talkin' about it (You always talkin' about it)
+You never makin' no profit, uh (You never makin' no profit)
+I treat my hoes like a option (Yeah)
+If she talkin' and get out of pocket, ooh (Okay)
+I'm livin' life like a rockstar (Oh)
+Pullin' up, stretch limousines (Pullin' up, stretch limousines)
+To look at me, that cost a fee (Yeah)
+The double Cs all on my feet
+You always talkin' about it, yeah (You always talkin' about it)
+You always talkin' about it (You always talkin' about it)
+You say that you rappin' in private, yeah (Woah)
+But I see that you cap about it (Yeah)
+Livin' life like a rockstar
+Pullin' up, stretch limousines (Stretch limousines)
+To look at me, that cost a fee (Woah)
+Them double Cs all on my feet (Woah)
+I changed my color to Nipsey blue (Nipsey blue)
+Your racks, it get small, that shit pitiful (Racks)
+If you tryna get so physical (Woah)
+That .45 will make you invisible (Woah)
+I'm livin' my life like a criminal (Woah)
+I call this shit First 48 (Ayy)
+I been quiet, there's no one to blame, yeah (Blame)
+My lawyer said we beat the case (We beat the case)
+I'm livin' my life, celebration (Woah)
+I'm thankin' the Lord, I got patience (Woah)
+I'm lovin' the way that she take it (Woah)
+I bend it, I fold it, I flip it
+She bringin' it back just to prove it (Prove it)
+I'm givin' her work just to move it, yeah
+I'm livin' the life that I'm choosin', yeah (Choosin')
+I'm gettin' these racks, gettin' stupid, yeah (Oh)
+You always talkin' about it (You always talkin' about it)
+You never makin' no profit, uh (You never makin' no profit)
+I treat my hoes like a option (Yeah)
+If she talkin' and get out of pocket, ooh (Okay)
+I'm livin' life like a rockstar (Oh)
+Pullin' up, stretch limousines (Pullin' up, stretch limousines)
+To look at me, that cost a fee (Yeah)
+The double Cs all on my feet
+You always talkin' about it, yeah (You always talkin' about it)
+You always talkin' about it (You always talkin' about it)
+You say that you rappin' in private, yeah (Woah)
+But I see that you cap about it (Yeah)
+Livin' life like a rockstar
+Pullin' up, stretch limousines (Stretch limousines)
+To look at me, that cost a fee (Woah)
+Them double Cs all on my feet (Woah)
+Pull up with the drum like I'm Tommy Lee
+Yaweh got a stick, came to rock with me
+Milli' on wrist, ain't no rocks on me (Rocks on me, rocks on me)
+I'm pretty as fuck, wanna copy me (Damn)
+I heard you was mad 'cause I'm poppin' as shit, wow (Wow)
+I'm poppin' the 'pagne and I'm poppin' that bitch, wow (Ooh, damn)
+I hop out a plane and went straight to the whip (Ooh)
+I know they can see, I think that's pretty cool if you askin' me
+Bugatti, no body roll, curtains in back of the candy Rolls (Skrrt)
+I love when my lawyer calls, I hate when I run out of smoke
+Pull up to the party, oh, and we like to party, oh
+I finish the bottle, dawg, get this bitch jumpin', no Mario
+Still shit's so hard
+Cigarettes, cough
+Bathroom stalls
+Please don't save my life, oh
+You always talkin' about it (You always talkin' about it)
+You never makin' no profit, uh (You never makin' no profit)
+I treat my hoes like a option (Yeah)
+If she talkin' and get out of pocket, ooh (Okay)
+I'm livin' life like a rockstar (Oh)
+Pullin' up, stretch limousines
+To look at me, that cost a fee (Yeah)
+The double Cs all on my feet
+You always talkin' about it, yeah (You always talkin' about it)
+You always talkin' about it (You always talkin' about it)
+You say that you rappin' in private, yeah (Woah)
+But I see that you cap about it (Yeah)
+Livin' life like a rockstar
+Pullin' up, stretch limousines (Stretch limousines)
+To look at me, that cost a fee (Woah)
+Them double Cs all on my feet (Woah)
+Livin' life like a rockstar</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://genius.com/Tyla-yaweh-tommy-lee-lyrics</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>3839</v>
+      </c>
+      <c r="L17" t="n">
+        <v>738</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>0.9999971092249248</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>5578191</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>{'talkin': 11, 'life': 11, 'stretch': 11, 'limousine': 11, 'livin': 10, 'pullin': 8, 'rockstar': 7, 'makin': 6, 'look': 6, 'cost': 6, 'fee': 6, 'double': 6, 'cs': 6, 'foot': 6, 'profit': 5, 'shit': 4, 'rock': 4, 'treat': 3, 'hoe': 3, 'option': 3, 'pocket': 3, 'rappin': 3, 'private': 3, 'cap': 3, 'rack': 3, 'poppin': 3, 'pop': 2, 'want': 2, 'nipsey': 2, 'blue': 2, 'blame': 2, 'lawyer': 2, 'beat': 2, 'case': 2, 'prove': 2, 'choosin': 2, 'gettin': 2, 'pull': 2, 'bitch': 2, 'party': 2, 'workin': 1, 'studio': 1, 'miss': 1, 'youto': 1, 'aight': 1, 'youright': 1, 'xl': 1, 'eagle': 1, 'younever': 1, 'noprofit': 1, 'change': 1, 'color': 1, 'small': 1, 'pitiful': 1, 'tryna': 1, 'physical': 1, 'invisible': 1, 'criminal': 1, 'ayy': 1, 'quiet': 1, 'celebration': 1, 'lord': 1, 'patience': 1, "lovin'": 1, 'way': 1, 'bend': 1, 'fold': 1, 'flip': 1, 'bringin': 1, 'givin': 1, 'work': 1, 'stupid': 1, 'drum': 1, 'tommy': 1, 'lee': 1, 'yaweh': 1, 'stick': 1, 'come': 1, 'milli': 1, 'wrist': 1, 'pretty': 1, 'fuck': 1, 'copy': 1, 'damn': 1, 'hear': 1, 'mad': 1, 'pagne': 1, 'hop': 1, 'plane': 1, 'whip': 1, 'know': 1, 'think': 1, 'cool': 1, 'askin': 1, 'bugatti': 1, 'body': 1, 'roll': 1, 'curtain': 1, 'candy': 1, 'rolls': 1, 'skrrt': 1, 'love': 1, 'hate': 1, 'run': 1, 'smoke': 1, 'like': 1, 'finish': 1, 'bottle': 1, 'dawg': 1, 'jumpin': 1, 'mario': 1, 'hard': 1, 'cigarettes': 1, 'cough': 1, 'bathroom': 1, 'stall': 1, 'save': 1}</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>{'tommy': 2, 'lee': 2, 'tyla': 2, 'life': 2, 'song': 2, 'tour': 2, 'yaweh': 1, 'recruit': 1, 'close': 1, 'friend': 1, 'post': 1, 'malone': 1, 'sing': 1, 'modern': 1, 'hip': 1, 'hop': 1, 'beat': 1, 'melodic': 1, 'flow': 1, 'talk': 1, 'live': 1, 'joy': 1, 'fear': 1, 'hope': 1, 'good': 1, 'title': 1, 'reference': 1, 'musician': 1, 'famous': 1, 'drummer': 1, 'american': 1, 'rock': 1, 'band': 1, 'mötley': 1, 'crüe': 1, 'methods': 1, 'mayhem': 1, 'mark': 1, 'collaboration': 1, 'open': 1, 'posts': 1, 'runaway': 1, 'september': 1, 'december': 1, 'suppose': 1, 'end': 1, 'july': 1, 'cut': 1, 'short': 1, 'covid-19': 1, 'pandemic': 1, 'time': 1, 'release': 1}</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>talkin</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>life</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>stretch</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>limousine</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>livin</t>
+        </is>
+      </c>
+      <c r="Y17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="B18" t="n">
         <v>7836</v>
       </c>
-      <c r="C7" t="n">
-        <v>951</v>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C18" t="n">
+        <v>990</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Beyonce</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Beyonce</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Black Parade</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G18" t="n">
         <v>2</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H18" t="n">
         <v>37</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Ah
 I'm goin' back to the South
@@ -1452,104 +3509,340 @@
 Follow my parade, oh, black parade</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>https://genius.com/Beyonce-black-parade-lyrics</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="K18" t="n">
         <v>3814</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L18" t="n">
         <v>700</v>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="N7" t="n">
+      <c r="N18" t="n">
         <v>0.99999732727452</v>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>{'en': 3}</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>5689642</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>{'motherland': 16, 'parade': 12, 'black': 10, 'drip': 9, 'come': 9, 'woo': 8, 'high': 7, 'throne': 6, 'sittin': 6, 'follow': 6, 'folk': 6, 'lipo': 6, 'let': 5, 'love': 5, "goin'": 4, 'ice': 4, 'know': 4, 'mama': 4, 'zz': 4, 'birth': 4, 'holy': 4, 'mad': 3, 'honey': 3, 'way': 3, 'hive': 3, 'talkin': 3, 'slick': 3, 'nip': 3, 'lip': 3, 'hear': 3, 'swarmin': 3, 'right': 3, 'bee': 3, 'bite': 3, 'need': 3, 'flood': 2, 'flooded': 2, 'melanin': 2, 'forget': 2, 'history': 2, 'story': 2, 'reason': 2, 'big': 2, 'child': 2, 'send': 2, 'yemaya': 2, 'picket': 2, 'ancestors': 2, 'wall': 2, 'ghost': 2, 'chit': 2, 'chat': 2, 'lay': 2, 'shrivel': 2, 'dread': 2, 'rhythm': 2, 'pride': 2, 'king': 2, 'tribe': 2, 'river': 2, 'tongue': 2, 'speak': 2, 'glory': 2, 'feel': 2, 'south': 1, 'root': 1, 'watereddown': 1, "growin',growin": 1, 'abaobab': 1, 'tree': 1, 'life': 1, 'fertile': 1, 'ground': 1, 'ancestor': 1, 'game': 1, 'ankh': 1, 'charm': 1, 'gold': 1, 'chain': 1, 'withmyoshun': 1, 'energy': 1, 'dripall': 1, 'ankara': 1, 'dashiki': 1, 'print': 1, 'hol': 1, 'smell': 1, 'nag': 1, 'champa': 1, 'incense': 1, 'pure': 1, 'buss': 1, 'wrist': 1, 'skin': 1, 'chrome': 1, 'tint': 1, 'matte': 1, 'roll': 1, 'window': 1, 'crack': 1, 'smile': 1, 'ding': 1, 'figure': 1, 'jigga': 1, 'leven': 1, 'like': 1, 'chick': 1, 'charge': 1, 'crystal': 1, 'moon': 1, 'missile': 1, 'goon': 1, 'baby': 1, 'sister': 1, 'trust': 1, 'army': 1, 'rubber': 1, 'bullet': 1, 'bouncin': 1, 'sign': 1, 'fence': 1, 'warning': 1, 'waist': 1, 'bead': 1, 'yoruba': 1, 'hunnid': 1, 'billi': 1, 'mansa': 1, 'musa': 1, 'stroll': 1, 'line': 1, 'barbeque': 1, 'look': 1, 'cute': 1, 'pandemic': 1, 'fly': 1, 'runway': 1, 'hazmat': 1, 'runnin': 1, 'house': 1, 'art': 1, 'hold': 1, 'hand': 1, 'pray': 1, 'face': 1, 'gravel': 1, 'wearin': 1, 'attire': 1, 'white': 1, 'funeral': 1, 'stay': 1, 'curtis': 1, 'mayfield': 1, 'speaker': 1, 'lil': 1, 'malcolm': 1, 'martin': 1, 'mix': 1, 'tina': 1, 'march': 1, 'lemme': 1, 'tamika': 1, 'peace': 1, 'reparation': 1, 'people': 1, 'edge': 1, 'fade': 1, 'wave': 1, 'fist': 1, 'air': 1}</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>{'black': 3, 'parade': 2, 'celebrate': 2, 'release': 2, 'business': 2, 'fund': 2, 'song': 1, 'blackness': 1, 'final': 1, 'hour': 1, 'juneteenth': 1, 'old': 1, 'commemoration': 1, 'end': 1, 'slavery': 1, 'united': 1, 'states': 1, 'track': 1, 'beyoncé': 1, 'sing': 1, 'heritage': 1, 'hometown': 1, 'womanhood': 1, 'complexion': 1, 'talk': 1, 'return': 1, 'african': 1, 'root': 1, 'accord': 1, 'official': 1, 'website': 1, 'proceed': 1, 'beygood': 1, 'impact': 1, 'administer': 1, 'national': 1, 'urban': 1, 'league': 1, 'support': 1, 'small': 1, 'need': 1, 'beyoncés': 1, 'second': 1, 'feature': 1, 'megan': 1, 'thee': 1, 'stallions': 1, 'savage': 1, 'remix': 1, 'april': 1}</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>motherland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>parade</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>drip</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>come</t>
+        </is>
+      </c>
+      <c r="Y18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8121</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1032</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Kid Cudi &amp; Eminem</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Kid Cudi</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>The Adventures Of Moon Man &amp; Slim Shady</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>22</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Yep (Aww)
+Yep (Mmm-aww)
+Uh-huh
+Yeah, nigga
+Yeah, it's been a minute, but I'm back in it (Uh)
+Y'all ain't dealing with the same boy (No)
+Got a little trippy, then I transitioned (Yeah)
+New attitude mixed with that pure raw (Aw)
+The night game, your girl called
+She like, "Do me, baby, down to get busy, busy?" (Yes)
+No dice, chill, whoadie (No)
+In life, feeling dizzy
+Oh, having visions of the city and I go to war
+See me in the day through the late night (Night)
+Tell 'em it's the charm, I'm in freeze mode
+To the gods, can't stop a hero when he in flight (Flight)
+I'm swimming in the light right
+Go and get you some, go and show 'em something, this a new thang
+Yeah, I let my nuts hang (Yeah)
+Knock your top off with LeBron or Dwyane Wade (Yeah)
+Aww, lift off
+Can't stunt a nigga growth, better get gone, move along (Uh)
+You don't wanna trip, wanna get it on (Uh)
+You don't wanna act, don't get me wrong (Nah)
+They don't listen to the words in the song (Uh-huh)
+We ain't gotta tell 'em, we just getting ready (Yeah)
+See 'em fronting, we ain't kidding
+If you want it, you can get it
+Members of the rage, come and get you some
+Next step's out the jet from the lean back
+Running 'round the world and we ain't packed
+Hit 'em, vroom, vroom, leave 'em stuck, oh, you seen that?
+I'm chillin' where the team at
+See a black Benz pull up with some jawns, yeah, I need that
+So crazy, can't believe it
+No cams, damn, no filming at all, real nigga facts (Come on)
+Years ago, rehab
+All good, helped me figure out another plan
+It got bad, so bad
+Nah, I ain't fucking love that, man
+Then I hopped out in a new zone with my Louis bag
+True story, take you through the dark and the light (Yeah)
+Godson, got through new
+Back up in the world, it's the day in the life (Cud)
+Hit the blunt and get it (Dude)
+Raised bars (Uh), same song, we did it (Yeah)
+Hot sauce, pour it on all jams, explicit
+Carry on, smoke strong, got your mama down with it (Come on)
+And the game fuckin' needed something dirty raw
+Tell them this the law and we weeded (Uh)
+So if it's God you believe in (Yeah)
+Bob your head and just nod in agreement (Yeah)
+They say time's undefeated
+I'ma be the first one who can beat it (Yeah)
+I had hoop dreams, now I shoot threes (What?)
+Got a lil' green (Yeah), but I don't do weed (Nope)
+Purp nor lean (Nah), that's Tunechi (Yeah)
+That's New Orleans (What?), fuck Drew Brees (Yeah)
+Snoop D-O-double (Uh), that's two G's (Yup)
+I probably spent on paper, ooh-wee
+Since Tuesday, probably killed a few trees (Yeah)
+But the only ones I smoke are the loose leaf
+Not high, but I'm your highness (What?)
+And secretly, you're on my dick (Hah)
+But you haters are butthurt (Ow), bunch of sore hind-ends (Ow)
+I was just a poor white kid (Yeah)
+Now if rap was B-ball, I'd be Jordan-like, bitch (What?)
+You wish you could score like this (Nah), yeah
+Not even at half court, I'd miss (Nah)
+I'm mouthwash, 'cause if I was on the floor, I'd swish (Fluoride, fluoride, swish)
+But I cannot lie (Nah)
+I got you in my top five
+Worst rappers of all time (Hah)
+I lost my spot, y'all got Alzheim' (Uh)
+King of rap? Nah, their words, not mine (Yeah)
+King of swear words and not lying (Yeah)
+You should never compare yours (Nope)
+A toll-free number (Yeah), only way you'll ever have a hot line
+Fuck's going on, man? (Yeah)
+Bunch of half-wits up in office (What?)
+Half of us walking around like a zombie apocalypse
+Other half are just pissed off and (Yeah)
+Don't wanna wear a mask and they're just scoffing
+And that's how you end up catching the shit off 'em
+I just used the same basket as you shopping
+Now I'm in a fuckin' casket from you coughin' (Damn)
+Always stay ahead of haters, let 'em hate
+But never let a traitor penetrate your circle
+Separate yourself from those who try to pull you down
+The real ones never stray, it's sort of like Medusa (Yeah)
+That's how you stay ahead of snakes (Woo)
+Emcees pull out gats, I don't give a fuck how strapped
+You're gonna out-rap me? I doubt that
+Please, bitch, I'm a house rat
+These raps are 'bout that cheese like mousetraps
+Earthlings, I adapt to 'em
+Certain things, I don't want to do, but have to in
+Order to just act human
+Like using a bathroom and vacuuming (Yeah)
+Rapping in the booth in a triple fat goose hazmat suit
+Bubble wrap and a mask too and
+I don't think that's what they meant by trap music (Nah)
+Running through ink like I'm tattooing (Yeah)
+This is music to be murdered by, you love
+Turn the volume up, I am fired up like a blunt
+Bread is long like an Italian sub, I am drugs
+That is probably why your opinion of me's high as fuck
+And it's nonstop fury (Yeah)
+'Cause I ain't holding 'em up like an armed robbery (Nah)
+And God's my jury, so when I die, I'm not worried (Nah)
+Prayers to George Floyd and Ahmaud Arbery (Yeah)
+How the fuck is it that so many cops are dirty? (Huh?)
+Stop, man, please, officer, I'm sorry
+But I can't breathe when I got you on top of me
+Your goddamn knee's on my carotid artery (Fuck)
+The adventures of Moon Man &amp; Slim (Ah)
+Yes, who want it with them?
+The trilogy continues
+Serving niggas, yes, see what's on the menu (Yeah)
+Watch 'em panic, hot damnit (Let's get it, baby)
+Hope you fuckers understand it
+The realer for you niggas
+Come and get these scriptures (Yeah)
+Rap God (Uh)
+Rager</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://genius.com/Kid-cudi-and-eminem-the-adventures-of-moon-man-and-slim-shady-lyrics</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>5242</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1012</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="Q7" t="n">
+      <c r="N19" t="n">
+        <v>0.9999958320891466</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2020-07-25</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>5748123</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>{'nah': 9, 'fuck': 7, 'rap': 6, 'new': 5, 'nigga': 4, 'god': 4, 'let': 4, 'wanna': 4, 'come': 4, 'half': 4, 'night': 3, 'tell': 3, 'word': 3, 'want': 3, 'pull': 3, 'bad': 3, 'man': 3, 'hot': 3, 'raw': 2, 'game': 2, 'baby': 2, 'busy': 2, 'life': 2, 'day': 2, 'stop': 2, 'flight': 2, 'light': 2, 'act': 2, 'song': 2, 'kid': 2, 'lean': 2, 'world': 2, 'hit': 2, 'vroom': 2, 'need': 2, 'believe': 2, 'real': 2, 'love': 2, 'blunt': 2, 'smoke': 2, 'fuckin': 2, 'dirty': 2, 'weed': 2, 'time': 2, 'high': 2, 'hater': 2, 'ow': 2, 'bunch': 2, 'end': 2, 'bitch': 2, 'swish': 2, 'fluoride': 2, 'lie': 2, 'king': 2, 'mask': 2, 'stay': 2, 'music': 2, 'mmm': 1, 'minute': 1, "y'all": 1, 'sameboy': 1, 'little': 1, 'trippy': 1, 'theni': 1, 'transition': 1, 'attitude': 1, 'mix': 1, 'pure': 1, 'girl': 1, 'dice': 1, 'chill': 1, 'whoadie': 1, 'feel': 1, 'dizzy': 1, 'vision': 1, 'city': 1, 'war': 1, 'late': 1, 'charm': 1, 'freeze': 1, 'mode': 1, 'hero': 1, 'swim': 1, 'right': 1, 'thang': 1, 'nut': 1, 'hang': 1, 'knock': 1, 'lebron': 1, 'dwyane': 1, 'wade': 1, 'lift': 1, 'stunt': 1, 'growth': 1, 'trip': 1, 'wrong': 1, 'listen': 1, 'ready': 1, 'member': 1, 'rage': 1, 'step': 1, 'jet': 1, 'running': 1, 'round': 1, 'pack': 1, 'leave': 1, 'stick': 1, 'chillin': 1, 'team': 1, 'black': 1, 'benz': 1, 'jawn': 1, 'crazy': 1, 'cam': 1, 'filming': 1, 'fact': 1, 'year': 1, 'rehab': 1, 'good': 1, 'help': 1, 'figure': 1, 'plan': 1, 'hop': 1, 'zone': 1, 'louis': 1, 'bag': 1, 'true': 1, 'story': 1, 'dark': 1, 'godson': 1, 'cud': 1, 'dude': 1, 'raise': 1, 'bar': 1, 'sauce': 1, 'pour': 1, 'jam': 1, 'explicit': 1, 'carry': 1, 'strong': 1, 'mama': 1, 'law': 1, 'bob': 1, 'head': 1, 'nod': 1, 'agreement': 1, 'undefeated': 1, 'beat': 1, 'hoop': 1, 'dream': 1, 'shoot': 1, 'lil': 1, 'green': 1, 'purp': 1, 'tunechi': 1, 'orleans': 1, 'drew': 1, 'brees': 1, 'snoop': 1, 'd': 1, 'o': 1, 'double': 1, 'g': 1, 'yup': 1, 'spend': 1, 'paper': 1, 'wee': 1, 'tuesday': 1, 'kill': 1, 'tree': 1, 'loose': 1, 'leaf': 1, 'highness': 1, 'dick': 1, 'butthurt': 1, 'sore': 1, 'hind': 1, 'poor': 1, 'white': 1, 'b': 1, 'ball': 1, 'jordan': 1, 'like': 1, 'wish': 1, 'score': 1, 'court': 1, 'miss': 1, 'mouthwash': 1, 'floor': 1, 'rapper': 1, 'lose': 1, 'spot': 1, 'alzheim': 1, 'swear': 1, 'compare': 1, 'toll': 1, 'free': 1, 'number': 1, 'way': 1, 'line': 1, 'wit': 1, 'office': 1, 'walk': 1, 'zombie': 1, 'apocalypse': 1, 'piss': 1, 'wear': 1, 'scoff': 1, 'catch': 1, 'shit': 1, 'basket': 1, 'shop': 1, 'casket': 1, 'coughin': 1, 'hate': 1, 'traitor': 1, 'penetrate': 1, 'circle': 1, 'separate': 1, 'try': 1, 'stray': 1, 'medusa': 1, 'snake': 1, 'woo': 1, 'emcee': 1, 'gat': 1, 'strapped': 1, 'doubt': 1, 'house': 1, 'rat': 1, 'cheese': 1, 'mousetrap': 1, 'earthling': 1, 'adapt': 1, 'certain': 1, 'thing': 1, 'order': 1, 'human': 1, 'bathroom': 1, 'vacuuming': 1, 'booth': 1, 'triple': 1, 'fat': 1, 'goose': 1, 'hazmat': 1, 'suit': 1, 'bubble': 1, 'wrap': 1, 'think': 1, 'mean': 1, 'trap': 1, 'run': 1, 'ink': 1, 'tattoo': 1, 'murder': 1, 'turn': 1, 'volume': 1, 'fire': 1, 'bread': 1, 'long': 1, 'italian': 1, 'sub': 1, 'drug': 1, 'opinion': 1, 'nonstop': 1, 'fury': 1, 'hold': 1, 'armed': 1, 'robbery': 1, 'jury': 1, 'die': 1, 'worried': 1, 'prayer': 1, 'george': 1, 'floyd': 1, 'ahmaud': 1, 'arbery': 1, 'cop': 1, 'officer': 1, 'sorry': 1, 'breathe': 1, 'goddamn': 1, 'knee': 1, 'carotid': 1, 'artery': 1, 'adventure': 1, 'moon': 1, 'slim': 1, 'trilogy': 1, 'continue': 1, 'serve': 1, 'menu': 1, 'watch': 1, 'panic': 1, 'damnit': 1, 'hope': 1, 'fucker': 1, 'understand': 1, 'realer': 1, 'scripture': 1, 'rager': 1}</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>{'cudi': 8, 'eminem': 4, 'moon': 3, 'man': 3, 'song': 3, 'release': 3, 'slim': 2, 'shady': 2, 'kid': 2, 'verse': 2, 'cudis': 2, 'em': 2, 'lil': 2, 'wayne': 2, 'collaboration': 2, 'twitter': 2, 'radio': 2, 'interview': 2, 'shit': 2, 'think': 2, 'post': 2, 'july': 2, 'shoutout': 2, 'adventures': 1, 'find': 1, 'trade': 1, 'ominous': 1, 'instrumentation': 1, 'courtesy': 1, 'dot': 1, 'da': 1, 'genius': 1, 'title': 1, 'allude': 1, 'eminems': 1, 'alter': 1, 'ego': 1, 'moniker': 1, 'stem': 1, 'september': 1, 'project': 1, 'stream': 1, 'consciousness': 1, 'narrative': 1, 'night': 1, 'namedrop': 1, 'drew': 1, 'brees': 1, 'address': 1, 'topic': 1, 'covid-19': 1, 'police': 1, 'injustice': 1, 'hint': 1, 'possible': 1, 'month': 1, 'turn': 1, 'learn': 1, 'tweet': 1, 'day': 1, 'episode': 1, 'young': 1, 'money': 1, 'appear': 1, 'follow': 1, 'single': 1, 'disclose': 1, 'manage': 1, 'link': 1, 'crazy': 1, 'cause': 1, 'set': 1, 'motion': 1, 'send': 1, 'respond': 1, 'fuck': 1, 'ask': 1, 'question': 1, 'thing': 1, 'write': 1, 'announce': 1, 'daughter': 1, 'vada': 1, 'instagram': 1, 'worth': 1, 'note': 1, 'time': 1, 'acknowledge': 1, 'otherem': 1, 'bad': 1, 'meets': 1, 'evil': 1, 'track': 1, 'southpaw': 1, 'soundtrack': 1, 'recognize': 1, 'december': 1, 'host': 1, 'zane': 1, 'lowe': 1, 'detail': 1, 'come': 1}</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>nah</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>fuck</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>rap</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>nigga</t>
+        </is>
+      </c>
+      <c r="Y19" t="b">
         <v>1</v>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>{'motherland': 16, 'parade': 12, 'black': 10, 'drip': 9, 'come': 9, 'woo': 8, 'high': 7, 'throne': 6, 'sittin': 6, 'follow': 6, 'folk': 6, 'lipo': 6, 'let': 5, 'love': 5, 'ice': 4, 'flood': 4, 'know': 4, 'mama': 4, 'zz': 4, 'get': 4, 'birth': 4, 'holy': 4, 'ancestor': 3, 'mad': 3, 'honey': 3, 'way': 3, 'hive': 3, 'slick': 3, 'nip': 3, 'lip': 3, 'hear': 3, 'right': 3, 'bee': 3, 'bite': 3, 'need': 3, 'melanin': 2, 'forget': 2, 'history': 2, 'story': 2, 'reason': 2, 'big': 2, 'child': 2, 'send': 2, 'picket': 2, 'wall': 2, 'ghost': 2, 'chit': 2, 'chat': 2, 'fuck': 2, 'shrivel': 2, 'dread': 2, 'rhythm': 2, 'pride': 2, 'king': 2, 'tribe': 2, 'river': 2, 'tongue': 2, 'speak': 2, 'glory': 2, 'feel': 2, 'south': 1, 'root': 1, 'tree': 1, 'life': 1, 'fertile': 1, 'ground': 1, 'game': 1, 'ankh': 1, 'charm': 1, 'gold': 1, 'chain': 1, 'energy': 1, 'ankara': 1, 'dashiki': 1, 'print': 1, 'hol': 1, 'smell': 1, 'nag': 1, 'champa': 1, 'incense': 1, 'pure': 1, 'buss': 1, 'wrist': 1, 'skin': 1, 'chrome': 1, 'own': 1, 'tint': 1, 'matte': 1, 'roll': 1, 'window': 1, 'crack': 1, 'smile': 1, 'ding': 1, 'figure': 1, 'jigga': 1, 'leven': 1, 'like': 1, 'chick': 1, 'charge': 1, 'crystal': 1, 'moon': 1, 'missile': 1, 'goon': 1, 'baby': 1, 'sister': 1, 'trust': 1, 'army': 1, 'rubber': 1, 'bullet': 1, 'bouncin': 1, 'sign': 1, 'fence': 1, 'warning': 1, 'waist': 1, 'bead': 1, 'yoruba': 1, 'hunnid': 1, 'billi': 1, 'mansa': 1, 'musa': 1, 'stroll': 1, 'line': 1, 'barbeque': 1, 'look': 1, 'cute': 1, 'pandemic': 1, 'fly': 1, 'runway': 1, 'hazmat': 1, 'runnin': 1, 'house': 1, 'art': 1, 'hold': 1, 'hand': 1, 'pray': 1, 'lie': 1, 'face': 1, 'gravel': 1, 'wearin': 1, 'attire': 1, 'white': 1, 'funeral': 1, 'stay': 1, 'curtis': 1, 'mayfield': 1, 'speaker': 1, 'lil': 1, 'malcolm': 1, 'martin': 1, 'mix': 1, 'tina': 1, 'march': 1, 'lemme': 1, 'tamika': 1, 'peace': 1, 'reparation': 1, 'people': 1, 'lay': 1, 'edge': 1, 'fade': 1, 'wave': 1, 'fist': 1, 'air': 1, 'talkin': 1}</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>motherland</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>parade</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>drip</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>come</t>
-        </is>
-      </c>
-      <c r="X7" t="b">
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>1106</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8961</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1106</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Lil Durk</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Lil Durk</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>The Voice</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>1063</v>
-      </c>
-      <c r="B8" t="n">
-        <v>8961</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1063</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Lil Durk</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Lil Durk</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>The Voice</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="H20" t="n">
         <v>62</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>(Turn me up, Josh)
 I was goin' through that pain alone
@@ -1591,104 +3884,109 @@
 I'm supportive of the streets and them people ain't believe in me</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>https://genius.com/Lil-durk-the-voice-lyrics</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="K20" t="n">
         <v>1780</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L20" t="n">
         <v>351</v>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="N8" t="n">
+      <c r="N20" t="n">
         <v>0.9999963329097672</v>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>{'en': 7}</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2020-09-19</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>5926814</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>{'turn': 7, 'believe': 5, "goin'": 4, 'know': 4, 'right': 4, 'tryna': 4, 'street': 4, 'people': 4, 'change': 2, 'night': 2, 'vibe': 2, 'lookin': 2, 'crazy': 2, 'money': 2, 'vote': 2, 'plate': 2, 'voice': 2, 'supportive': 2, 'actin': 2, 'josh': 1, 'pain': 1, 'phase': 1, 'sleepless': 1, 'clothe': 1, 'wrong': 1, 'tired': 1, 'realize': 1, 'certain': 1, 'feel': 1, 'plenty': 1, 'traumatize': 1, 'lie': 1, 'love': 1, 'guy': 1, 'trench': 1, 'raise': 1, 'durkio': 1, 'chicago': 1, 'jay': 1, 'z': 1, 'scared': 1, 'catch': 1, 'today': 1, 'run': 1, 'felon': 1, 'shit': 1, 'drop': 1, 'tear': 1, 'funeral': 1, 'mourn': 1, 'nut': 1, 'hoe': 1, 'fuck': 1, 'blame': 1, 'porn': 1, 'site': 1, 'quarantine': 1, 'buck': 1, 'talkin': 1, 'dawg': 1, 'stick': 1, 'favorite': 1, 'gun': 1, 'glock': 1, 'slip': 1, 'month': 1, 'throw': 1, 'face': 1, 'time': 1, 'hold': 1, 'granny': 1, 'feelin': 1, 'shootout': 1, 'police': 1, 'jail': 1, 'case': 1, 'tell': 1, 'nigga': 1, 'hood': 1, 'serve': 1, 'scale': 1, 'watchin': 1, 'band': 1, 'play': 1, 'score': 1, 'mail': 1, 'year': 1, 'hear': 1, 'cry': 1, 'cell': 1, 'gettin': 1, 'big': 1, 'buy': 1, 'mac': 1, 'zelle': 1, 'picture': 1, 'block': 1, 'think': 1, 'field': 1}</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>{'durk': 4, 'lil': 3, 'song': 3, 'voice': 2, 'track': 2, 'release': 2, 'twitter': 2, 'chicago': 1, 'rapper': 1, 'serve': 1, 'lead': 1, 'single': 1, 'upcoming': 1, 'untitled': 1, 'sixth': 1, 'studio': 1, 'album': 1, 'official': 1, 'music': 1, 'video': 1, 'september': 1, 'reminisce': 1, 'old': 1, 'life': 1, 'street': 1, 'sad': 1, 'tone': 1, 'drop': 1, 'line': 1, 'sexual': 1, 'activity': 1, 'legal': 1, 'issue': 1, 'weapon': 1, 'rap': 1, 'verse': 1, 'sing': 1, 'robotic': 1, 'auto': 1, 'tune': 1, 'chorus': 1, 'tease': 1, 'existence': 1, 'early': 1, 'change': 1, 'announce': 1, 'date': 1, 'august': 1}</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>turn</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>believe</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>goin'</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="Y20" t="b">
         <v>1</v>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>{'turn': 7, 'believe': 5, 'know': 4, 'tryna': 4, 'street': 4, 'people': 4, 'get': 3, 'right': 3, 'change': 2, 'night': 2, 'vibe': 2, 'lookin': 2, 'crazy': 2, 'money': 2, 'vote': 2, 'plate': 2, 'voice': 2, 'supportive': 2, 'actin': 2, 'josh': 1, 'pain': 1, 'phase': 1, 'sleepless': 1, 'clothe': 1, 'wrong': 1, 'tired': 1, 'realize': 1, 'certain': 1, 'feel': 1, 'plenty': 1, 'traumatize': 1, 'lie': 1, 'love': 1, 'guy': 1, "'": 1, 'trench': 1, 'raise': 1, 'chicago': 1, 'jay': 1, 'z': 1, 'scared': 1, 'catch': 1, 'today': 1, 'run': 1, 'low': 1, 'felon': 1, 'shit': 1, 'drop': 1, 'tear': 1, 'funeral': 1, 'mourn': 1, 'nut': 1, 'hoe': 1, 'fuck': 1, 'blame': 1, 'porn': 1, 'site': 1, 'quarantine': 1, 'buck': 1, 'talkin': 1, 'dawg': 1, 'stick': 1, 'favorite': 1, 'gun': 1, 'glock': 1, 'slip': 1, 'month': 1, 'throw': 1, 'face': 1, 'time': 1, 'hold': 1, 'granny': 1, 'feelin': 1, 'shootout': 1, 'police': 1, 'jail': 1, 'case': 1, 'tell': 1, 'nigga': 1, 'hood': 1, 'serve': 1, 'scale': 1, 'watchin': 1, 'band': 1, 'play': 1, 'see': 1, 'score': 1, 'mail': 1, 'give': 1, 'year': 1, 'hear': 1, 'cry': 1, 'cell': 1, 'gettin': 1, 'big': 1, 'buy': 1, 'mac': 1, 'zelle': 1, 'take': 1, 'picture': 1, 'block': 1, 'think': 1, 'field': 1}</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>turn</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>know</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>tryna</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>street</t>
-        </is>
-      </c>
-      <c r="X8" t="b">
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8996</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1114</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Big Sean</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Why Would I Stop?</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>1070</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8996</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1070</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Big Sean</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Big Sean</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Why Would I Stop?</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="H21" t="n">
         <v>97</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Yeah, woah
 This what they been waiting on?
@@ -1755,104 +4053,648 @@
 (I say, I say, I say, I say, I say, I say, I say, I say)</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>https://genius.com/Big-sean-why-would-i-stop-lyrics</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="K21" t="n">
         <v>2516</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L21" t="n">
         <v>510</v>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="N9" t="n">
+      <c r="N21" t="n">
         <v>0.9999974937271048</v>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>{'en': 1}</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2020-09-19</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>5917242</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>{'hold': 8, 'stop': 7, 'shit': 7, 'chill': 6, 'swerve': 4, 'leave': 3, 'unstoppable': 3, 'alive': 3, 'god': 3, 'd': 3, 'run': 3, 'critical': 2, 'time': 2, 'watch': 2, 'bitch': 2, 'jump': 2, 'dive': 2, 'reason': 2, 'flow': 2, 'sample': 2, 'triller': 2, 'cut': 2, 'black': 2, 'rot': 2, 'way': 2, 'fuck': 2, 'family': 2, 'straight': 2, 'new': 2, 'house': 2, 'hill': 2, 'k': 2, 'threat': 2, 'wait': 1, 'clock': 1, 'pick': 1, 'lock': 1, 'buy': 1, 'block': 1, 'know': 1, 'gift': 1, 'think': 1, 'box': 1, 'want': 1, 'antidote': 1, 'cure': 1, 'cancer': 1, 'pandemic': 1, 'globe': 1, 'product': 1, 'old': 1, 'ye': 1, 'chop': 1, 'dilla': 1, 'pimp': 1, 'c': 1, 'trill': 1, 'hospitable': 1, 'favorite': 1, 'rapper': 1, 'umbilical': 1, 'rd': 1, 'wings': 1, 'jersey': 1, 'b.i.g.': 1, 'look': 1, 'pac': 1, 'th': 1, 'berry': 1, 'wan': 1, 'g': 1, 'o': 1, 'dead': 1, 'lay': 1, 'low': 1, 'espionage': 1, 'walk': 1, 'park': 1, 'slide': 1, 'solution': 1, 'round': 1, 'problem': 1, 'episode': 1, 'fucking': 1, 'world': 1, 'series': 1, 'come': 1, 'rodman': 1, 'option': 1, 'dj': 1, 'drop': 1, 'scratch': 1, 'mindin': 1, 'business': 1, 'dawg': 1, 'mode': 1, 'attack': 1, 'complain': 1, 'life': 1, 'adapt': 1, 'point': 1, 'lil': 1, 'ho': 1, 'fling': 1, 'scandal': 1, 'handin': 1, "havin'": 1, 'baby': 1, 'mama': 1, 'sound': 1, 'job': 1, 'root': 1, 'plant': 1, 'd2': 1, 'standard': 1, 'grr': 1, 'upgrade': 1, 'city': 1, 'feeling': 1, 'build': 1, 'field': 1, 'running': 1, 'andré': 1, 'hero': 1, 'hood': 1, 'dress': 1, 'cosplay': 1, 'nigga': 1, 'driveway': 1, 'listen': 1, 'odd': 1, 'universe': 1, 'respond': 1}</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>{'think': 3, 'big': 2, 'album': 2, 'detroit': 2, 'music': 2, 's': 2, 'track': 1, 'seans': 1, 'fifth': 1, 'studio': 1, 'proud': 1, 'declaration': 1, 'hater': 1, 'sean': 1, 'sign': 1, 'g.o.o.d.': 1, 'release': 1, 'debut': 1, 'famous': 1, 'rap': 1, 'game': 1, 'decade': 1, 'want': 1, 'clear': 1, 'intent': 1, 'stop': 1, 'slow': 1, 'interview': 1, 'vulture': 1, 'criticism': 1, 'day': 1, 'feel': 1, 'prove': 1, 'offer': 1, 'people': 1, 'need': 1, 'mind': 1}</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>shit</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>chill</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>swerve</t>
+        </is>
+      </c>
+      <c r="Y21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9071</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1119</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>YoungBoy Never Broke Again</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>YoungBoy Never Broke Again</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Dead Trollz</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>72</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>That lil'-ass bag, and that pussy-ass boy won't say it, ayy
+Man, you, don't come fishin' around this way, nigga (Free DDawg, free BaBa)
+(PlayBoy on this bitch)
+Tell the motherfuckin' police pick me up
+I got them youngins goin' crazy, tryna blitz something
+Mad man, nigga don't hear no talkin' when Lil Top come
+Haha, bitch, I want you act like you wan' do somethin'
+I see murder in my eyes
+Pussy nigga, you ain't sayin' nothin'
+Inside, got these niggas waitin' up in line
+Catch 'em bad and end up sprayin' somethin'
+In my manager car bootin' up, full of pills, nigga
+Tell that boy I'ma see him, nigga
+Tell him I say don't come fish around this lake, bitch, and that's real, nigga
+Seven murders in my hometown, tell them bitches I did that
+Soon as the other boy touch down, I'ma be pushin' his wig bag
+Dog-ass ho chasin' after dough, fuck around with these opp niggas
+See thеy cookin' up, ain't no standin' down, tell that bitch that I'm tryna bang with 'em
+Real dеad man out in Valley Park, call them range killers
+Mask down on Sunset with them dirty sticks, leave a stain with 'em
+Mask on, slang that heater
+Man down, call the people
+Got 'em tryna troll
+Pussy nigga drove that he can't get no feature
+I got meds in my kidney, sippin' mud out the liter
+Want my own cemetery, get 'em buried, call the preacher
+Don't like me, then fuck 'em, they won't go that way with gang, nigga
+Log offline, get active, fuck your caption, what you sayin', nigga?
+Pussy-ass niggas ain't trappers, they ain't factors, they can't hang with us
+As soon as your ass get captured, I just hope you got your mans with you
+That's two for one
+Pick 'em out, just choose you somethin'
+Dead rapper
+I bet Trump and Obama know just how I come
+Bet the mayor of LA know from his city, bitch, I done put shit under
+Known disses and a nigga know I'm still sellin' bar like I ain't got no money
+Ayy, tell the motherfuckin' police pick me up
+I got them youngins goin' crazy, tryna blitz something
+Mad man, nigga don't hear no talkin' when Lil Top come
+Haha, bitch, I want you act like you wan' do somethin'
+I see murder in my eyes
+Pussy nigga, you ain't sayin' nothin'
+Inside, got these niggas waitin' up in line
+Catch 'em bad and end up sprayin' somethin', yeah
+I say all these hoes ain't nothin', they just wanna hate on somethin'
+I been steppin' on shit, like hit after hit, no church ain't safe on Sunday
+Born in this assassin shit, my mama told me burn that money
+I ain't got no love for shit, the North, you know I'm leavin' somethin'
+Take your shit, I'm keepin' that, niggas know I'm SooWoo
+Invest inside that youngin who movin' R's so I've been sellin' blues
+That nigga dead, tell me did he move?
+All that he said was, "Watch the news"
+Talkin' turnin' out, he done turned to two
+It was two victims ain't make it through
+California with hella pounds
+Travel 'round with hella troops
+I got pictures of you, lil' pussy bitch
+Plan on stainin' somethin' in Atlanta too
+Wan' get up with me, but I don't fuck with you
+All in Pampers, son set trippin' too
+Bounty hunter, bitch, tryna eat the crew
+Got my son screamin' out, "Do me too"
+Devil baby, satan seed, nigga, trendset
+Contagious whack
+Them hollows came from me, hope you ain't catch that
+Correct that
+Come correct, bitch, why you said that?
+I already done addressed that
+He had a show, tell me where the next at
+I got a gift for you, Lil Top Claus (Baow-baow-baow), nigga, ho-ho
+Since I got them Florida bricks, my Florida bitch don't want me no more
+We done did a run, the second option gon' be a stolo
+My godmama want me to visit her, but it's too much smoke
+Tell the motherfuckin' police pick me up
+I got them youngins goin' crazy, tryna blitz something
+Mad man, nigga don't hear no talkin' when Lil Top come
+Haha, bitch, I want you act like you wan' do somethin'
+I see murder in my eyes
+Pussy nigga, you ain't sayin' nothin'
+Inside, got these niggas waitin' up in line
+Catch 'em bad and end up sprayin' somethin'
+I'm like eeny-meeny-miny-mo, put my opps up in a row
+Leave one dead, I leave one dead
+D-Rose, he way from the Bulls home
+Too much money on me, bro, hold my chrome
+Nigga try to go, then you do his ass
+If you know me, you know I'm never home alone
+Got XDs by the TV stand</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://genius.com/Youngboy-never-broke-again-dead-trollz-lyrics</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>4208</v>
+      </c>
+      <c r="L22" t="n">
+        <v>802</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="Q9" t="n">
+      <c r="N22" t="n">
+        <v>0.9999968816476672</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2020-09-26</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>5950410</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>{'nigga': 20, 'bitch': 12, 'tell': 10, "somethin'": 10, 'come': 8, 'pussy': 7, 'man': 7, 'know': 7, 'want': 6, 'ass': 5, 'tryna': 5, 'lil': 5, 'shit': 5, 'pick': 4, 'youngin': 4, 'talkin': 4, 'wan': 4, 'murder': 4, 'sayin': 4, "nothin'": 4, 'niggas': 4, 'catch': 4, 'fuck': 4, 'dead': 4, 'boy': 3, 'motherfuckin': 3, 'police': 3, "goin'": 3, 'crazy': 3, 'blitz': 3, 'mad': 3, 'hear': 3, 'act': 3, 'eye': 3, 'waitin': 3, 'line': 3, 'bad': 3, 'end': 3, 'sprayin': 3, 'ho': 3, 'leave': 3, 'money': 3, 'baow': 3, 'bag': 2, 'ayy': 2, 'way': 2, 'free': 2, 'real': 2, 'mask': 2, 'hope': 2, 'bet': 2, 'sellin': 2, 'hit': 2, 'hella': 2, 'son': 2, 'correct': 2, 'florida': 2, "lil'-ass": 1, 'fishin': 1, 'ddawg': 1, 'baba': 1, 'playboy': 1, 'manager': 1, 'car': 1, 'bootin': 1, 'pill': 1, 'fish': 1, 'lake': 1, 'hometown': 1, 'touch': 1, 'wig': 1, 'dog': 1, 'chasin': 1, 'dough': 1, 'opp': 1, 'thy': 1, 'cookin': 1, 'standin': 1, 'bang': 1, 'dad': 1, 'valley': 1, 'park': 1, 'range': 1, 'killer': 1, 'sunset': 1, 'dirty': 1, 'stick': 1, 'stain': 1, 'slang': 1, 'heater': 1, 'people': 1, 'troll': 1, 'drive': 1, 'feature': 1, 'med': 1, 'kidney': 1, 'sippin': 1, 'mud': 1, 'liter': 1, 'cemetery': 1, 'bury': 1, 'preacher': 1, 'like': 1, 'gang': 1, 'log': 1, 'active': 1, 'caption': 1, 'trapper': 1, 'factor': 1, 'hang': 1, 'capture': 1, 'choose': 1, 'rapper': 1, 'trump': 1, 'obama': 1, 'mayor': 1, 'la': 1, 'city': 1, 'known': 1, 'disse': 1, 'bar': 1, 'hoe': 1, 'wanna': 1, 'hate': 1, 'steppin': 1, 'church': 1, 'safe': 1, 'sunday': 1, 'bear': 1, 'assassin': 1, 'mama': 1, 'burn': 1, 'love': 1, 'north': 1, 'leavin': 1, 'soowoo': 1, 'invest': 1, 'movin': 1, 'r': 1, 'blue': 1, 'watch': 1, 'news': 1, 'turnin': 1, 'turn': 1, 'victim': 1, 'california': 1, 'pound': 1, 'travel': 1, 'round': 1, 'troop': 1, 'picture': 1, 'plan': 1, 'stainin': 1, 'atlanta': 1, 'pampers': 1, 'set': 1, 'bounty': 1, 'hunter': 1, 'eat': 1, 'crew': 1, 'screamin': 1, 'devil': 1, 'baby': 1, 'satan': 1, 'seed': 1, 'trendset': 1, 'contagious': 1, 'whack': 1, 'hollow': 1, 'address': 1, 'gift': 1, 'claus': 1, 'brick': 1, 'run': 1, 'second': 1, 'option': 1, 'stolo': 1, 'godmama': 1, 'visit': 1, 'smoke': 1, 'eeny': 1, 'meeny': 1, 'miny': 1, 'mo': 1, 'opps': 1, 'row': 1, 'd': 1, 'rose': 1, 'bulls': 1, 'home': 1, 'bro': 1, 'hold': 1, 'chrome': 1, 'try': 1, 'xd': 1, 'tv': 1, 'stand': 1}</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>{'youngboy': 1, 'broke': 1, 'claim': 1, 'respect': 1, 'dead': 1, 'trollz': 1, 'rapper': 1, 'draw': 1, 'inventory': 1, 'accomplishment': 1, 'material': 1, 'belonging': 1, 'production': 1, 'handle': 1, 'londnblue': 1, 'karltin': 1, 'bankz': 1, 'playboy': 1, 'beat': 1}</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>nigga</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>bitch</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>tell</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>somethin'</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>come</t>
+        </is>
+      </c>
+      <c r="Y22" t="b">
         <v>1</v>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>{'hold': 8, 'stop': 7, 'shit': 7, 'chill': 6, 'run': 4, 'swerve': 4, 'leave': 3, 'unstoppable': 3, 'alive': 3, 'god': 3, 'critical': 2, 'time': 2, 'watch': 2, 'bitch': 2, 'jump': 2, 'dive': 2, 'reason': 2, 'flow': 2, 'sample': 2, 'triller': 2, 'cut': 2, 'black': 2, 'rot': 2, 'd': 2, 'get': 2, 'way': 2, 'fuck': 2, 'family': 2, 'new': 2, 'house': 2, 'hill': 2, 'k': 2, 'threat': 2, 'wait': 1, 'clock': 1, 'pick': 1, 'lock': 1, 'buy': 1, 'block': 1, 'know': 1, 'gift': 1, 'think': 1, 'box': 1, 'want': 1, 'antidote': 1, 'cure': 1, 'cancer': 1, 'pandemic': 1, 'globe': 1, 'product': 1, 'old': 1, 'ye': 1, 'chop': 1, 'pimp': 1, 'c': 1, 'trill': 1, 'hospitable': 1, 'favorite': 1, 'rapper': 1, 'umbilical': 1, 'rd': 1, 'wings': 1, 'jersey': 1, 'b.i.g': 1, '.': 1, 'look': 1, 'pac': 1, 'berry': 1, 'wan': 1, 'go': 1, 'g': 1, 'o': 1, 'dead': 1, 'lay': 1, 'low': 1, 'espionage': 1, 'walk': 1, 'park': 1, 'slide': 1, 'solution': 1, 'round': 1, 'problem': 1, 'episode': 1, 'fucking': 1, 'world': 1, 'series': 1, 'come': 1, 'rodman': 1, 'option': 1, 'dj': 1, 'drop': 1, 'scratch': 1, 'mindin': 1, 'business': 1, 'dawg': 1, 'mode': 1, 'attack': 1, 'complain': 1, 'life': 1, 'adapt': 1, 'point': 1, 'lil': 1, 'ho': 1, 'fling': 1, 'scandal': 1, 'handin': 1, 'baby': 1, 'mama': 1, 'sound': 1, 'job': 1, 'root': 1, 'plant': 1, 'd2': 1, 'standard': 1, 'grr': 1, 'upgrade': 1, 'city': 1, 'feeling': 1, 'build': 1, 'field': 1, 'andré': 1, 'hero': 1, 'hood': 1, 'dress': 1, 'cosplay': 1, 'nigga': 1, 'driveway': 1, 'listen': 1, 'odd': 1, 'universe': 1, 'respond': 1}</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>hold</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B23" t="n">
+        <v>9087</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1122</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>YoungBoy Never Broke Again</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>YoungBoy Never Broke Again</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Right Foot Creep</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>88</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(Who made this shit?)
+(TayTayMadeTheBeat)
+I said right foot creep, ooh, I'm walking with that heater
+Look around, stay low, make sure they don't see you
+Catch 'em bad, walk down, face 'em with that heater
+The devil under your feet, you're on your way to see him (Let's go)
+Stretch me one, I can't sleep, bang out when I see you
+Play with me, you can't sleep, we gunnin' to decease you
+You won't have no case, rearrange your shape soon as they face you
+You won't have no space, we in your section 'til we spray you
+Put your mask on, yeah, they comin' out
+Soon as they close that door, we just gon' walk down
+They say we dead wrong 'cause we knocked him off
+But he who got caught lackin', tell that bitch that that's his fault
+If we draw down, guns get let off
+At all them clowns, including his spouse
+Kept that blick inside my drawers
+Every time I walked to Dalton
+I worked for Tim and sold CD's
+You throw a diss and you get tossed
+Say you ain't catch that, cross my name up, ain't no talking (Yeah)
+If they had a bang-out at the store, from my papa window, I could see it sparkin'
+But I ain't seen that since Jordan Dixon made some niggas some targets
+Big 40, got that shit on me in a stolo, nigga knowin' that it's retarded
+I spit that shit that cause a massacre at the party, believe that
+I said right foot creep, ooh, I'm walking with that heater
+Look around, stay low, make sure they don't see you
+Catch 'em bad, walk down, face 'em with that heater
+The devil under your feet, you're on your way to see him
+Stretch me one, I can't sleep, bang out when I see you
+Play with me, you can't sleep, we gunnin' to decease you
+You won't have no case, rearrange your shape soon as they face you
+You won't have no space, we in your section 'til we spray you
+When I jump out the back, I'ma hit it
+I'ma aim with the strap at his fitted
+Throwin' out the murder bags in my city
+Play-by-play while I'm standin' on Billy
+Dirty Drac', take the top off the Hemi
+Fully equipped it when we go on a mission
+Take his face, I ain't showin' no pity
+Closed case, tell them all good riddance
+Zombieland where the dogs can scent it
+Sprinter van and we all be in it
+Catch him first, get a raw percentage
+If you want, I put a coffin in it
+I could get you one from inside my home
+I just want to check the bitch out for attendance
+Tell them niggas I say fuck 'em all
+And I'ma kill all you bitches (That's on your mama, bitch)
+I said right foot creep, ooh, I'm walking with that heater
+Look around, stay low, make sure they don't see you
+Catch 'em bad, walk down, face 'em with that heater
+The devil under your feet, you're on your way to see him
+Stretch me one, I can't sleep, bang out when I see you
+Play with me, you can't sleep, we gunnin' to decease you
+You won't have no case, rearrange your shape soon as they face you
+You won't have no space, we in your section 'til we spray you
+(Who made this shit?)
+(TayTayMadeTheBeat)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://genius.com/Youngboy-never-broke-again-right-foot-creep-lyrics</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>2905</v>
+      </c>
+      <c r="L23" t="n">
+        <v>575</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>0.9999967260618297</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>2020-09-26</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>5950405</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>{'walk': 8, 'face': 7, 'foot': 6, 'heater': 6, 'catch': 6, 'sleep': 6, 'play': 5, 'shit': 4, 'bang': 4, 'case': 4, 'bitch': 4, 'right': 3, 'creep': 3, 'look': 3, 'stay': 3, 'low': 3, 'sure': 3, 'bad': 3, 'devil': 3, 'way': 3, 'stretch': 3, 'gunnin': 3, 'decease': 3, 'rearrange': 3, 'shape': 3, 'space': 3, 'section': 3, 'spray': 3, 'tell': 3, 'let': 2, 'nigga': 2, 'want': 2, 'mask': 1, 'comin': 1, 'close': 1, 'door': 1, 'dead': 1, 'wrong': 1, 'knock': 1, 'lackin': 1, 'fault': 1, 'draw': 1, 'gun': 1, 'clown': 1, 'include': 1, 'spouse': 1, 'blick': 1, 'drawer': 1, 'time': 1, 'dalton': 1, 'work': 1, 'tim': 1, 'sell': 1, 'cd': 1, 'throw': 1, 'diss': 1, 'toss': 1, 'cross': 1, 'talking': 1, 'store': 1, 'papa': 1, 'window': 1, 'sparkin': 1, 'jordan': 1, 'dixon': 1, 'target': 1, 'big': 1, 'stolo': 1, 'knowin': 1, 'retarded': 1, 'spit': 1, 'cause': 1, 'massacre': 1, 'party': 1, 'believe': 1, 'jump': 1, 'hit': 1, 'aim': 1, 'strap': 1, 'fit': 1, 'throwin': 1, 'murder': 1, 'bag': 1, 'city': 1, 'standin': 1, 'billy': 1, 'dirty': 1, 'drac': 1, 'hemi': 1, 'equip': 1, 'mission': 1, 'showin': 1, 'pity': 1, 'closed': 1, 'good': 1, 'riddance': 1, 'zombieland': 1, 'dog': 1, 'scent': 1, 'sprinter': 1, 'van': 1, 'raw': 1, 'percentage': 1, 'coffin': 1, 'home': 1, 'check': 1, 'attendance': 1, 'niggas': 1, 'fuck': 1, 'kill': 1, 'mama': 1}</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>{'track': 3, 'youngboy': 2, 'right': 1, 'foot': 1, 'creep': 1, '4th': 1, 'youngboys': 1, 'sophomore': 1, 'lp': 1, 'produce': 1, 'taytaymadelt': 1, 'frequent': 1, 'collaborator': 1, 'nba': 1, 'rap': 1, 'struggle': 1, 'start': 1, 'career': 1, 'try': 1, 'fight': 1, 'temptation': 1, 'drug': 1, 'vice': 1, 'similar': 1, 'thug': 1, 'alibi': 1}</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>walk</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>face</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>foot</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>heater</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="Y23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B24" t="n">
+        <v>9097</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>YoungBoy Never Broke Again</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>YoungBoy Never Broke Again</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Dirty Stick</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>98</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(17)
+Lil' nigga and that bitch
+Lil’ nigga, what? Shit
+You got me fucked up, shit (AB)
+We gon' shoot that bitch up (D-Roc)
+Ayy, I swear to God, bitch
+Ayy, I shoot this bitch on the other night, they gon' let a shot off behind me
+Don’t come back to the North
+What the fuck they talkin' 'bout? They gon' let Lil Top in
+Know I had my Glock out as soon as I walked in
+Want you for to mouth off, I'm gon' let it spark then
+I pull up with the top down with a dirty stick
+And some shit to distribute
+White or blue, cotton too
+Demon baby inside that coupe
+Masked down, tryna step on you
+I want it all, that penny too
+Bitch, move, I'm put this stick on you
+That bitch get extra extensions too
+Lowdown and dirty only way to do
+Homeless shelter, they be servin' food
+Mama can’t walk
+Comе up to this house, shit, they gon’ servе her two
+Catch him in that North, take his ass off
+Fuck him, put him on the news
+Diamonds in my mouth, screamin', pissed off
+Bitch, I’m on them white and blues
+Bootin' up, could barely chew
+Fuck a nigga, shoot him in his ink
+Molly came out pink
+Blood in the streets 'til they gone, fuck the stink
+Extinct, insta-kill
+Brains left in the street when a nigga fuck with me
+Had to leave somethin' up inside the North
+Tryna rub off somethin’ that thug with me
+Bitch, you must think that I'm a whore or somethin'
+Hell the next time that he gon' see me
+What the fuck they talkin' 'bout? They gon' let Lil Top in
+Know I had my Glock out as soon as I walked in
+Want you for to mouth off, I'm gon' let it spark then
+I pull up with the top down with a dirty stick
+And some shit to distribute
+Get you a few, your mammy too
+Cock it back and do that dude
+No shell cases, he too improved
+Made it out of middle school
+By high, ain't have to point a tool
+Niggas I been with 'fore introduced to you
+Step on heroin and step on fools
+Bitch, don't tell me what you gon' do
+On that Eight, I'ma have 'em waitin' on ya
+Get a bitch to build a case on him
+Leave him stretched out on the state corner
+To bury him, mom turned to a state loner (Broke bitch)
+Now you know you did that bad
+Tryna beef, ain't even got no money
+Now your family assed out in the inn (With your stupid ass)
+She see I got that shit up in me
+Now she want me to beat her in
+Beefin' with my bitch, so how I'm comin'
+I want you and your friend
+Draco with a seventy-round drum in
+Come out there and party in
+4KTrey, bitch, you know that we the dumbest
+Think not? We gon' fuck with somethin' then
+What the fuck they talkin' 'bout? They gon' let Lil Top in
+Know I had my Glock out as soon as I walked in
+Want you for to mouth off, I'm gon' let it spark then
+I pull up with the top down with a dirty stick
+And some shit to distribute
+Yeah, I'm passin' out these hollows to you and you
+In the cut, dawg, that K, boy, and that Schedule II
+With a dropout with his mop out
+Tryna murder somethin' all he wan' do, yeah, gang, uh</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://genius.com/Youngboy-never-broke-again-dirty-stick-lyrics</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>2879</v>
+      </c>
+      <c r="L24" t="n">
+        <v>595</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>0.9999976362524547</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2020-09-26</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>5950406</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>{'bitch': 13, 'fuck': 9, 'let': 7, 'shit': 6, 'want': 6, 'lil': 5, 'know': 5, 'nigga': 4, 'walk': 4, 'mouth': 4, 'dirty': 4, 'stick': 4, "somethin'": 4, 'shoot': 3, 'come': 3, 'north': 3, 'talkin': 3, 'glock': 3, 'spark': 3, 'pull': 3, 'distribute': 3, 'step': 3, 'leave': 3, 'tryna': 3, 'ayy': 2, 'white': 2, 'blue': 2, 'ass': 2, 'street': 2, 'think': 2, 'case': 2, 'state': 2, 'ab': 1, 'd': 1, 'roc': 1, 'swear': 1, 'god': 1, 'night': 1, 'shot': 1, 'cotton': 1, 'demon': 1, 'baby': 1, 'coupe': 1, 'mask': 1, 'penny': 1, 'extra': 1, 'extension': 1, 'lowdown': 1, 'way': 1, 'homeless': 1, 'shelter': 1, 'servin': 1, 'food': 1, 'mama': 1, 'com': 1, 'house': 1, 'serv': 1, 'catch': 1, 'news': 1, 'diamonds': 1, 'screamin': 1, 'piss': 1, 'm': 1, 'bootin': 1, 'chew': 1, 'ink': 1, 'molly': 1, 'pink': 1, 'blood': 1, 'stink': 1, 'extinct': 1, 'insta': 1, 'kill': 1, 'brain': 1, 'rub': 1, 'somethin': 1, 'thug': 1, 'whore': 1, 'hell': 1, 'time': 1, 'mammy': 1, 'cock': 1, 'dude': 1, 'shell': 1, 'improve': 1, 'middle': 1, 'school': 1, 'high': 1, 'point': 1, 'tool': 1, 'niggas': 1, 'fore': 1, 'introduce': 1, 'heroin': 1, 'fool': 1, 'tell': 1, 'waitin': 1, 'ya': 1, 'build': 1, 'stretch': 1, 'corner': 1, 'bury': 1, 'mom': 1, 'turn': 1, 'loner': 1, 'broke': 1, 'bad': 1, 'beef': 1, 'money': 1, 'family': 1, 'asse': 1, 'inn': 1, 'stupid': 1, 'beat': 1, 'beefin': 1, 'comin': 1, 'friend': 1, 'draco': 1, 'round': 1, 'drum': 1, 'party': 1, 'dumb': 1, 'passin': 1, 'hollow': 1, 'cut': 1, 'dawg': 1, 'k': 1, 'schedule': 1, 'ii': 1, 'dropout': 1, 'mop': 1, 'murder': 1, 'wan': 1, 'gang': 1}</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>{'song': 2, 'youngboys': 2, 'dirty': 1, 'stick': 1, 'fifth': 1, 'track': 1, 'topic': 1, 'follow': 1, 'lifestyle': 1, 'express': 1, 'love': 1, 'diamond': 1, 'jewelry': 1, 'feature': 1, 'production': 1, 'frequent': 1, 'collaborator': 1, 'd': 1, 'roc': 1, 'produce': 1, 'artist': 1, 'game': 1, 'tory': 1, 'lanez': 1}</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>bitch</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>fuck</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>let</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
         <is>
           <t>shit</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>chill</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>run</t>
-        </is>
-      </c>
-      <c r="X9" t="b">
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="Y24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>1089</v>
-      </c>
-      <c r="B10" t="n">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B25" t="n">
         <v>9194</v>
       </c>
-      <c r="C10" t="n">
-        <v>1089</v>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="C25" t="n">
+        <v>1134</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>DaBaby Featuring Young Thug</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>DaBaby</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Blind</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G25" t="n">
         <v>9</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H25" t="n">
         <v>74</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Yeah, yeah, yeah
 I've been blind for a while now
@@ -1911,104 +4753,109 @@
 I've been blind for a while now (Yeah)</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>https://genius.com/Dababy-blind-lyrics</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="K25" t="n">
         <v>2385</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L25" t="n">
         <v>502</v>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="N10" t="n">
+      <c r="N25" t="n">
         <v>0.9999967097550468</v>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>{'en': 14, 'id': 3, 'tr': 1}</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>{'blind': 14, 'get': 7, 'let': 7, 'key': 5, 'd': 5, 'nigga': 5, 'door': 5, 'catch': 4, 'fuck': 4, 'openin': 4, 'head': 3, 'know': 3, 'goddamn': 2, 'think': 2, 'way': 2, 'easy': 2, 'wonder': 2, 'stop': 2, 'cha': 2, 'find': 2, 'bitch': 2, 'ride': 2, 'letmein': 1, 'nowi': 1, 'ayy': 1, 'single': 1, 'day': 1, 'leak': 1, 'tomato': 1, 'mustard': 1, 'mayonnaise': 1, 'thankful': 1, 'learn': 1, 'lesson': 1, 'hard': 1, 'work': 1, 'god': 1, 'bless': 1, 'believe': 1, 'go': 1, 'hell': 1, 'tv': 1, 'bathing': 1, 'ape': 1, 'run': 1, 'dick': 1, 'cheetah': 1, 'tone': 1, 'ap': 1, 'watch': 1, 'use': 1, 'clock': 1, 'tick': 1, 'tock': 1, 'fuckin': 1, 'chart': 1, 'charge': 1, 'verse': 1, 'pay': 1, 'drop': 1, 'notice': 1, 'music': 1, 'versatile': 1, 'pop': 1, 'quarantine': 1, 'livin': 1, 'kiddy': 1, 'tryna': 1, 'teach': 1, 'leave': 1, 'open': 1, 'place': 1, 'cop': 1, 'car': 1, 'probation': 1, 'gas': 1, 'blow': 1, 'love': 1, 'ask': 1, 'sit': 1, 'pass': 1, 'dough': 1, 'brother': 1, 'loot': 1, 'pistol': 1, 'dead': 1, 'diss': 1, 'tell': 1, 'lose': 1, 'woo': 1, 'rest': 1, 'nominee': 1, 'dog': 1, 'die': 1, 'sun': 1, 'come': 1, 'blood': 1, 'white': 1, '1': 1}</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>2020-10-03</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>5831408</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>{'blind': 14, 'let': 7, 'key': 5, 'id': 5, 'nigga': 5, 'catch': 4, 'doors': 4, 'openin': 4, 'head': 3, 'know': 3, 'fuck': 3, 'goddamn': 2, 'think': 2, 'way': 2, 'easy': 2, 'wonder': 2, 'stop': 2, 'cha': 2, 'find': 2, 'bitch': 2, 'ride': 2, 'letmein': 1, 'doorsopenin': 1, 'ayy': 1, "i've": 1, 'single': 1, 'day': 1, 'leak': 1, 'tomato': 1, 'mustard': 1, 'mayonnaise': 1, 'thankful': 1, 'learn': 1, 'lesson': 1, 'hard': 1, 'work': 1, 'god': 1, 'bless': 1, 'believe': 1, 'hell': 1, 'tv': 1, 'bathing': 1, 'ape': 1, 'run': 1, 'dick': 1, 'cheetah': 1, 'tone': 1, 'ap': 1, 'watch': 1, 'use': 1, 'clock': 1, 'tick': 1, 'tock': 1, 'fuckin': 1, 'chart': 1, 'charge': 1, 'verse': 1, 'pay': 1, 'drop': 1, 'notice': 1, 'music': 1, 'versatile': 1, "goin'": 1, 'pop': 1, 'quarantine': 1, 'livin': 1, 'kiddy': 1, 'tryna': 1, 'teach': 1, 'leave': 1, 'door': 1, 'open': 1, 'place': 1, 'cop': 1, 'car': 1, 'probation': 1, 'gas': 1, 'blow': 1, 'love': 1, 'ask': 1, 'sit': 1, 'pass': 1, 'dough': 1, 'brother': 1, 'loot': 1, 'pistol': 1, 'dead': 1, 'diss': 1, 'ptds': 1, 'tell': 1, 'lose': 1, 'woo': 1, 'rest': 1, 'nominee': 1, 'dog': 1, 'die': 1, 'sun': 1, 'come': 1, 'blood': 1, 'white': 1, '1': 1}</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>{'blind': 1, 'collaboration': 1, 'dababy': 1, 'atlanta': 1, 'rapper': 1, 'young': 1, 'thug': 1, 'reminisce': 1, 'early': 1, 'life': 1, 'street': 1, 'fame': 1, 'describe': 1, 'weaponry': 1, 'fight': 1, 'happen': 1, 'baby': 1, 'tease': 1, 'track': 1, 'january': 1}</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
         <is>
           <t>blind</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>let</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>key</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="X10" t="b">
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>nigga</t>
+        </is>
+      </c>
+      <c r="Y25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>1102</v>
-      </c>
-      <c r="B11" t="n">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B26" t="n">
         <v>9309</v>
       </c>
-      <c r="C11" t="n">
-        <v>1102</v>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C26" t="n">
+        <v>1148</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>21 Savage &amp; Metro Boomin Featuring Drake</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>21 Savage &amp; Metro Boomin</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Mr. Right Now</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G26" t="n">
         <v>12</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H26" t="n">
         <v>10</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>(Metro)
 I'ma slide anytime you want
@@ -2078,104 +4925,613 @@
 Know what I mean? It's easy</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>https://genius.com/21-savage-and-metro-boomin-mr-right-now-lyrics</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="K26" t="n">
         <v>3263</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L26" t="n">
         <v>652</v>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="N11" t="n">
+      <c r="N26" t="n">
         <v>0.9999976656979848</v>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>{'en': 10, 'pt': 1, 'id': 1}</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2020-10-17</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>6017383</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2020-10-02</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>{'straight': 14, 'want': 10, 'fuck': 10, 'god': 9, 'turn': 7, 'slide': 6, 'slow': 6, 'mr.': 6, 'song': 5, 'nigga': 5, 'wanna': 5, 'phone': 4, 'clothe': 4, 'lie': 4, 'anytime': 3, 'chanel': 3, 'teach': 3, 'stunt': 3, 'slip': 3, 'waterfall': 3, 'need': 3, 'tlc': 3, 'creep': 3, 'ayy': 3, 'savage': 3, 'light': 3, 'pipe': 3, 'right': 3, 'pussy': 3, 'motherfuckin': 3, 'girl': 2, 'lame': 2, 'throw': 2, 'heart': 2, 'window': 2, 'feeling': 2, 'sza': 2, 'hit': 2, 'finish': 2, 'good': 2, 'dumb': 2, 'ass': 2, 'money': 2, 'metro': 1, 'beyoncé': 1, 'treat': 1, 'fiancé': 1, 'thing': 1, 'sing': 1, 'sade': 1, 'chardonnay': 1, 'lam': 1, 'truck': 1, 'richard': 1, 'got': 1, 'pretty': 1, 'feelin': 1, 'quarantine': 1, 'm': 1, 'long': 1, 'buddy': 1, 'friend': 1, 'zone': 1, 'couple': 1, 'spot': 1, 'buy': 1, 'penthouse': 1, 'sav': 1, 'nail': 1, 'lady': 1, 'toe': 1, 'wrong': 1, 'man': 1, 'playin': 1, 'drake': 1, 'cellphone': 1, 'roll': 1, 'problem': 1, 'tough': 1, 'concerned': 1, 'blow': 1, 'grow': 1, 'wait': 1, 'date': 1, 'cool': 1, 'play': 1, 'jump': 1, 'box': 1, 'field': 1, 'day': 1, 'stroke': 1, 'king': 1, 'goal': 1, 'line': 1, 'movie': 1, 'end': 1, 'bad': 1, 'plenty': 1, 'time': 1, 'let': 1, 'strong': 1, 'keith': 1, 'sweat': 1, 'stay': 1, 'apartment': 1, 'beef': 1, 'sneak': 1, 'glizzy': 1, 'bitch': 1, 'come': 1, "o'clock": 1, 'night': 1, 'face': 1, 'look': 1, 'stupid': 1, 'talkin': 1, 'stick': 1, 'dick': 1, 'club': 1, 'know': 1, 'mean': 1, 'easy': 1}</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>{'savage': 2, 'r&amp;b': 2, 'mr.': 1, 'right': 1, 'drake': 1, 'trade': 1, 'bar': 1, 'introduce': 1, 'woman': 1, 'luxury': 1, 'lifestyle': 1, 'boast': 1, 'respective': 1, 'sexual': 1, 'prowess': 1, 'drop': 1, 'reference': 1, 'multiple': 1, 'staple': 1, 'include': 1, 'tlc': 1, 'keith': 1, 'sweat': 1, 'sza': 1, 'express': 1, 'love': 1, 'r&amp;b.': 1, 'cover': 1, 'song': 1, 'legendary': 1, 'modern': 1, 'artist': 1, 'instagram': 1, 'story': 1, 'metro': 1, 'boomin': 1, 'provide': 1, 'melodic': 1, 'instrumental': 1, 'build': 1, 'carnivalesque': 1, 'sample': 1}</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>straight</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>fuck</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>god</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>turn</t>
+        </is>
+      </c>
+      <c r="Y26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B27" t="n">
+        <v>9355</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1158</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21 Savage &amp; Metro Boomin</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21 Savage</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>My Dawg</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>56</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Just because I didn't remind you, don't think I forgot
+Just because it ain't happened yet, don't think that it's not
+Nipsey was solid, I know that he up there with Biggie and Pac
+My choppa could tell you a story, I pray that you don't try to plot
+Stayed a hundred, couple niggas changed
+I ain't never went against the grain, I could never snort cocaine
+I could never fuck a bitch behind my brother then try and turn her to my main
+Clout chasin' got him in a wood box, can't believe he died for the fame
+He'll risk it all for a name, I was comin' hard 'fore I came
+I ain't know nothin' 'bout no Visa, I was in the park with the gang
+Moms be feelin' bad, I try to tell her she is not to blame
+No social security, couldn't get a license, but I still didn't complain
+I went and got it, I ain't ask for no handout
+Lil' nigga, we are not the same
+You know what I'm on, first girlfriend did me wrong
+I swear to God that every girl after that, I was gon' do 'em wrong
+Different bitch in my bed every night, but I still be feelin' alone
+Matter fact I finna be with one, probably right after I finish this song
+That's my dawg (That's my dawg)
+He gon' ride (He gon' ride) off the leash (Off the leash)
+He gon' slide (He gon' slide), she know I cheat (She know I cheat)
+She know I lie (She know I lie), I be geeked up, I be fried (21)
+Sweep the room, we pull up with brooms (21, 21)
+Smokin' Girl Scout, you can smell the fumes (Smell the fumes)
+Don't approach me 'bout your wifey if she choose (Pussy)
+Last scrub did that made the news (21)
+Nigga keep talkin' that U.K. shit like I don't got AKs (21)
+Like, 'cause I was born overseas, these motherfuckers ain't gon' spray-spray (The fuck?)
+Pull up in your hood, nigga, 9-1-1, y'all better call mayday (Brr, pow, pow)
+From Glenwood all the way to Martin Luther King, niggas know we don't play-play
+Caught him down bad (21), broad daylight, I ain't need no mask (21)
+Paid in full (21), all the opp hoes get shot in the ass
+Strip a rap nigga if I ever get low on cash (21)
+Middle school, I ain't go to class, I was hangin' in the hallway, I ain't have a pass (On God)
+High school, I ain't even go, I was hangin' in the colony tryna sell gas (Straight up)
+In a hotbox with Chevy, Lil Harold, and Rock, ready to crash (21)
+Tried to break in the pawnshop on Candler Road, but the rod wouldn't smash (21)
+Larry got killed, couldn't believe this shit, man, the tears started falling' down fast (On God)
+Lick on McAfee, found a ho, split, but we really had came for the cash (True story)
+I'm prayin' to Ogun there's so much shit in the street and my past (21)
+I told T-Tay that buddy was a fuck nigga, boom, he got on the stand (Rat)
+200K to the lawyer, lil' brother, gon' make sure you get out the cans (21, 21)
+That's my dawg (That's my dawg)
+He gon' ride (He gon' ride) off the leash (Off the leash)
+He gon' slide (He gon' slide), she know I cheat (She know I cheat)
+She know I lie (She know I lie), I be geeked up, I be fried (21)
+Sweep the room, we pull up with brooms (21, 21)
+Smokin' Girl Scout, you can smell the fumes (Smell the fumes)
+Don't approach me 'bout your wifey if she choose (Pussy)
+Last scrub did that made the news</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://genius.com/21-savage-and-metro-boomin-my-dawg-lyrics</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>3166</v>
+      </c>
+      <c r="L27" t="n">
+        <v>633</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="Q11" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>{'want': 10, 'fuck': 10, 'god': 9, 'turn': 7, 'slide': 6, 'slow': 6, 'mr': 6, '.': 6, 'nigga': 5, 'anytime': 4, 'phone': 4, 'clothe': 4, 'song': 4, 'lie': 4, 'get': 4, 'wanna': 4, 'chanel': 3, 'teach': 3, 'stunt': 3, 'slip': 3, 'waterfall': 3, 'need': 3, 'tlc': 3, 'creep': 3, 'ayy': 3, 'savage': 3, 'light': 3, 'pipe': 3, 'say': 3, 'pussy': 3, 'motherfuckin': 3, 'girl': 2, 'lame': 2, 'throw': 2, 'heart': 2, 'window': 2, 'feeling': 2, 'go': 2, 'sza': 2, 'hit': 2, 'finish': 2, 'good': 2, 'dumb': 2, 'ass': 2, 'money': 2, 'metro': 1, 'beyoncé': 1, 'treat': 1, 'fiancé': 1, 'thing': 1, 'sing': 1, 'sade': 1, 'chardonnay': 1, 'lam': 1, 'truck': 1, 'richard': 1, 'pretty': 1, 'feelin': 1, 'quarantine': 1, 'm': 1, 'long': 1, 'buddy': 1, 'friend': 1, 'zone': 1, 'couple': 1, 'spot': 1, 'own': 1, 'buy': 1, 'penthouse': 1, 'sav': 1, 'nail': 1, 'lady': 1, 'toe': 1, 'wrong': 1, 'man': 1, 'playin': 1, 'drake': 1, 'songs': 1, 'cellphone': 1, 'roll': 1, 'problem': 1, 'show': 1, 'tough': 1, 'concerned': 1, 'blow': 1, 'grow': 1, 'wait': 1, 'date': 1, 'cool': 1, 'play': 1, 'jump': 1, 'box': 1, 'field': 1, 'day': 1, 'stroke': 1, 'king': 1, 'goal': 1, 'line': 1, 'see': 1, 'movie': 1, 'end': 1, 'bad': 1, 'plenty': 1, 'time': 1, 'let': 1, 'strong': 1, 'keith': 1, 'sweat': 1, 'stay': 1, 'apartment': 1, 'beef': 1, 'sneak': 1, 'one': 1, 'bitch': 1, 'come': 1, "o'clock": 1, 'night': 1, 'face': 1, 'look': 1, 'stupid': 1, 'talkin': 1, 'stick': 1, 'dick': 1, 'club': 1, 'give': 1, 'know': 1, 'mean': 1, 'easy': 1}</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="N27" t="n">
+        <v>0.999998192225818</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2020-10-17</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>5505233</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2020-10-02</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>{'know': 12, 'nigga': 7, 'try': 4, 'dawg': 4, 'ride': 4, 'leash': 4, 'slide': 4, 'cheat': 4, 'lie': 4, 'smell': 4, 'fume': 4, 'tell': 3, 'fuck': 3, 'lil': 3, 'god': 3, 'girl': 3, 'pull': 3, 'shit': 3, 'story': 2, 'bitch': 2, 'brother': 2, 'believe': 2, 'come': 2, 'feelin': 2, 'bad': 2, 'wrong': 2, 'geeke': 2, 'fry': 2, 'sweep': 2, 'room': 2, 'broom': 2, 'smokin': 2, 'scout': 2, 'approach': 2, 'wifey': 2, 'choose': 2, 'pussy': 2, 'scrub': 2, 'news': 2, 'spray': 2, 'pow': 2, 'play': 2, 'cash': 2, 'school': 2, 'hangin': 2, 'remind': 1, 'think': 1, 'forget': 1, 'happen': 1, "don'tthink": 1, "it'snot": 1, 'nipsey': 1, 'solid': 1, 'thathe': 1, 'biggie': 1, 'pac': 1, 'choppa': 1, 'pray': 1, 'plot': 1, 'stay': 1, 'couple': 1, 'change': 1, 'grain': 1, 'snort': 1, 'cocaine': 1, 'turn': 1, 'main': 1, 'clout': 1, 'chasin': 1, 'wood': 1, 'box': 1, 'die': 1, 'fame': 1, 'risk': 1, 'hard': 1, "nothin'": 1, 'visa': 1, 'park': 1, 'gang': 1, 'moms': 1, 'blame': 1, 'social': 1, 'security': 1, 'license': 1, 'complain': 1, 'ask': 1, 'handout': 1, 'girlfriend': 1, 'swear': 1, 'different': 1, 'bed': 1, 'night': 1, 'matter': 1, 'fact': 1, 'finish': 1, 'song': 1, 'talkin': 1, 'u.k.': 1, 'got': 1, 'ak': 1, 'bear': 1, 'motherfucker': 1, 'hood': 1, 'mayday': 1, 'brr': 1, 'glenwood': 1, 'way': 1, 'martin': 1, 'luther': 1, 'king': 1, 'catch': 1, 'broad': 1, 'daylight': 1, 'need': 1, 'mask': 1, 'pay': 1, 'opp': 1, 'hoe': 1, 'shoot': 1, 'ass': 1, 'strip': 1, 'rap': 1, 'low': 1, 'middle': 1, 'class': 1, 'hallway': 1, 'pass': 1, 'high': 1, 'colony': 1, 'tryna': 1, 'sell': 1, 'gas': 1, 'straight': 1, 'hotbox': 1, 'chevy': 1, 'harold': 1, 'rock': 1, 'ready': 1, 'crash': 1, 'break': 1, 'pawnshop': 1, 'candler': 1, 'road': 1, 'rod': 1, 'smash': 1, 'larry': 1, 'kill': 1, 'man': 1, 'tear': 1, 'start': 1, 'fall': 1, 'lick': 1, 'mcafee': 1, 'find': 1, 'split': 1, 'true': 1, 'prayin': 1, 'ogun': 1, 'street': 1, 'past': 1, 't': 1, 'tay': 1, 'buddy': 1, 'boom': 1, 'stand': 1, 'rat': 1, 'k': 1, 'lawyer': 1, 'sure': 1}</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>{'savage': 2, 'rap': 2, 'preview': 2, 'verse': 2, 'instagram': 2, 'dawg': 1, 'topic': 1, 'include': 1, 'infamous': 1, 'revelation': 1, 'birthplace': 1, 'opinion': 1, 'clout': 1, 'chase': 1, 'environment': 1, 'game': 1, 'diminished': 1, 'outlook': 1, 'love': 1, 'song': 1, 'second': 1, 'story': 1, 'november': 1, 'april': 1}</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>nigga</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>dawg</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>ride</t>
+        </is>
+      </c>
+      <c r="Y27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>1159</v>
+      </c>
+      <c r="B28" t="n">
+        <v>9356</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1159</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21 Savage &amp; Metro Boomin</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21 Savage</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Brand New Draco</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>57</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Yeah
+(Metro)
+We ain't giving out smoke, we giving out embalming fluid
+Spin that shit every day, every night
+Back to back to back to back to back
+Y'all niggas can't even trap, nothing
+Post up, nothing, kick with the hoes, barbeque, nothing
+We spinning back to back
+Two weeks, three weeks straight, nigga, on God, nigga
+Big 4L, pussy
+Rockin' ice like I'm tryna make a knot go down (21, 21)
+When the police hit the lights, I do not slow down (On God, on God, on God, straight up)
+Brand new Draco ready to crash like when the stocks go down (Pyoom)
+I'm rich for real, I could press a button and make the opps go down (Nah, facts, pussy boy)
+Maybach with the shade (Straight up)
+Brand new CTS all red like the Braves (On God)
+Y'all just started slidin', we was slidin' back in the day (21)
+21 Gang, woodgrain on the K (21)
+Big Slaughter, nigga, big dagger in my face (Straight up)
+Ski mask, fuck a camera, gun him down on tape (On God)
+Breaking news, FOX 5, pussy, we don't play (Straight up)
+I call my Hellcat OVO 'cause it keep a Drac' (Facts)
+Red dot, headshot, pussy DOA (21)
+Count me a ten in one minute, count a whole hundred in ten minutes (On God)
+Niggas need to call they hood Beyblades 'cause all we do is spin in it (On God)
+I own me a couple establishments, I ain't worried 'bout your business (21)
+Y'all running 'round here gossipin', I'm tryna make me some more millions (Pussy)
+Ridin' with a stick in the hotbox, I ain't never put my phone in it (Pussy)
+We call your main bitch pussy hood 'cause all we do is joan in it (Pussy)
+Money the only paperwork I put my bros in (Pussy)
+Somebody please unthaw my ears 'cause they frozen
+Rockin' ice like I'm tryna make a knot go down (21, 21)
+When the police hit the lights, I do not slow down (On God, on God, on God, straight up)
+Brand new Draco ready to crash like when the stocks go down (Pyoom)
+I'm rich for real, I could press a button and make the opps go down (Nah, facts, pussy boy)
+Charge him with theft by taking 'cause his drip stolen (Pussy)
+Trap spot in the neighborhood is 60 Rolling (Pussy)
+Had to do CPR, I got your bitch choking (Pussy)
+Selling Percocets, weed, bar, and cocaine
+So many choppers in the spot, we leave the door open (21)
+Put the water in the pot, then you stick the fork in
+Put some holes in your shirt, now it's red, soakin' (21)
+I ain't runnin' from no smoke, period, semi-colon (21)
+You wanna hold somethin', I got plenty shells (21)
+I don't even want no smoke, niggas gon' tattletale (On God)
+I don't even play with people's kids, go play Battlefield (Straight up)
+I'm from the East, home of the murders, you niggas'll die out here (21)
+They like to box, we like to pop, both of us bodybuild (On God)
+You can get hit with one of them guns from my adlib (Straight up)
+You gon' fuck around and get chopped, lil' Karate Kid (Pussy)
+I ain't seen him in a minute, but ask if God did (Pussy)
+Saint Laurent sweater
+Rock Balenciaga when I rock the Barett-er (21)
+Shout out Robert Kraft, fell in love with the cheddar (On God)
+Beat a rapper ass, Def Jam Vendett-er (Bitch)
+When it come to shh, we got plenty
+Eating Ruth Chris, I done burnt out on the Beni' (21)
+And I eat, sleep, shit, fuck with the semi (On God)
+Screamin' fuck friends, family first, rocking Fendi (21)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://genius.com/21-savage-and-metro-boomin-brand-new-draco-lyrics</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>3254</v>
+      </c>
+      <c r="L28" t="n">
+        <v>626</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0.9999979422249868</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>2020-10-17</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>6017384</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>2020-10-02</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>{'god': 16, 'pussy': 15, 'straight': 5, 'fuck': 4, 'smoke': 3, 'spin': 3, "y'all": 3, 'nigga': 3, 'big': 3, 'hit': 3, 'brand': 3, 'new': 3, 'fact': 3, 'red': 3, 'play': 3, 'minute': 3, 'bitch': 3, 'rock': 3, 'day': 2, 'trap': 2, 'week': 2, 'rockin': 2, 'ice': 2, 'knot': 2, 'police': 2, 'light': 2, 'slow': 2, 'draco': 2, 'ready': 2, 'crash': 2, 'stock': 2, 'pyoom': 2, 'rich': 2, 'real': 2, 'press': 2, 'button': 2, 'opps': 2, 'nah': 2, 'boy': 2, 'slidin': 2, 'gun': 2, 'count': 2, 'niggas': 2, 'hood': 2, 'stick': 2, 'spot': 2, 'semi': 2, 'plenty': 2, 'kid': 2, 'like': 2, 'eat': 2, 'metro': 1, 'embalm': 1, 'fluid': 1, 'shit': 1, 'night': 1, 'post': 1, 'kick': 1, 'hoe': 1, 'barbeque': 1, '4l': 1, 'maybach': 1, 'shade': 1, 'cts': 1, 'braves': 1, 'start': 1, 'gang': 1, 'woodgrain': 1, 'k': 1, 'slaughter': 1, 'dagger': 1, 'face': 1, 'ski': 1, 'mask': 1, 'camera': 1, 'tape': 1, 'breaking': 1, 'news': 1, 'fox': 1, 'hellcat': 1, 'ovo': 1, 'drac': 1, 'dot': 1, 'headshot': 1, 'doa': 1, 'need': 1, 'beyblades': 1, 'couple': 1, 'establishment': 1, 'worried': 1, 'business': 1, 'run': 1, 'round': 1, 'gossipin': 1, 'million': 1, 'ridin': 1, 'hotbox': 1, 'phone': 1, 'main': 1, 'joan': 1, 'money': 1, 'paperwork': 1, 'bro': 1, 'unthaw': 1, 'ear': 1, 'freeze': 1, 'charge': 1, 'theft': 1, 'drip': 1, 'steal': 1, 'neighborhood': 1, 'rolling': 1, 'cpr': 1, 'choke': 1, 'sell': 1, 'percocets': 1, 'weed': 1, 'bar': 1, 'cocaine': 1, 'chopper': 1, 'leave': 1, 'door': 1, 'open': 1, 'water': 1, 'pot': 1, 'fork': 1, 'hole': 1, 'shirt': 1, 'soakin': 1, 'runnin': 1, 'period': 1, 'colon': 1, 'wanna': 1, 'hold': 1, "somethin'": 1, 'shell': 1, 'want': 1, 'tattletale': 1, 'people': 1, 'battlefield': 1, 'east': 1, 'home': 1, 'murder': 1, "niggas'll": 1, 'die': 1, 'box': 1, 'pop': 1, 'bodybuild': 1, 'adlib': 1, 'chop': 1, 'lil': 1, 'karate': 1, 'ask': 1, 'saint': 1, 'laurent': 1, 'sweater': 1, 'balenciaga': 1, 'barett': 1, 'shout': 1, 'robert': 1, 'kraft': 1, 'fall': 1, 'love': 1, 'cheddar': 1, 'beat': 1, 'rapper': 1, 'ass': 1, 'def': 1, 'jam': 1, 'vendett': 1, 'come': 1, 'shh': 1, 'ruth': 1, 'chris': 1, 'burn': 1, 'beni': 1, 'sleep': 1, 'screamin': 1, 'friend': 1, 'family': 1, 'fendi': 1}</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>god</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>pussy</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>straight</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>fuck</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+      <c r="Y28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B29" t="n">
+        <v>9797</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1209</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>DJ Chose Featuring BeatKing</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>DJ Chose</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Thick</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>98</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(Ain't that DJ Chose over there?)
+(Look like DJ Chose)
+What's up, Bri? (What's up, Bri?)
+What's up, Ki? (Ayy, Ki)
+What's up, Lisa?
+Damn, I want all three (Come here), ooh
+Ashley (Ayy), ooh, Ashley (Ayy)
+I get hard when she walk past me (Look at that ass)
+'Cause she thick (Thick)
+Thi-thi-thi-thi-thi-thick (Thick)
+Thi-thi-thi-thi-thi-thick (Thick)
+Thi-thi-thi-thi-thick
+She make me stutter
+And her friends
+They thi-thi-thi-thi-thi-thick (Thick)
+Thi-thi-thi-thi-thi-thick (Thick)
+Thi-thi-thi-thi-, fuck, I want all of 'em
+Yeah, runnin' 'round the trap right now with a hundred bands on me, I be lookin' like a brick, yeah
+Ring around the rosie, I been ridin' with the 40, if you play, you gon' feel that stick, yeah
+Pull up to the red light, shawty walk by, lookin' good, shawty lookin like a lick, uh
+Ass in the back like a cake with thе ice cream shake, banana split
+Pull up to thе light and I told her whoop-whoop, pull over, that ass too fat
+Tell your boyfriend you don't want him no more, you found you a **** with some racks (A gentleman, hmm)
+Open your door (Hmm)
+Take you to the store (Hmm)
+Let you buy what you want (Hmm), yeah
+I like NeNe 'cause she bad
+I like Tay, she got that ass
+I like Neisha, she got cash
+We go out, sometimes she spazz
+What's up, Bri? (What's up, Bri?)
+What's up, Ki? (Ayy, Ki)
+What's up, Lisa?
+Damn, I want all three (Come here), ooh
+Ashley (Ayy), ooh, Ashley (Ayy)
+I get hard when she walk past me (Look at that ass)
+'Cause she thick (Thick)
+Thi-thi-thi-thi-thi-thick (Thick)
+Thi-thi-thi-thi-thi-thick (Thick)
+Thi-thi-thi-thi-thick
+She make me stutter
+And her friends
+They thi-thi-thi-thi-thi-thick (Ooh)
+Thi-thi-thi-thi-thi-thick (Ooh)
+Thi-thi-thi-thi-, fuck, I want all of 'em (Man, BeatKing)
+What's up, Shay? What's up, Linn?
+I hit it raw, she see me in public like, "What's up, friend?"
+She talk too much, but I still hit
+'Cause she a fool on that d-d-d-d-d-d-d-d-d-d-d-d-d-dick
+Pop that ass, throw it
+Kill the pussy, COVID
+Spread them legs, don't close it
+I'm not lame, I'll never expose ya, huh
+Just had a baby, tryna cut the lights off
+Bitch, fuck them stretch marks, bend it over right now
+What's up, T?
+You smash my partner, you can't start a relationship with me
+Club Godzilla, I can't smash no duck for free
+Get that bread, get that head
+Then leave, where my keys?
+What's up, Bri? (Hold up, bitch)
+What's up, Ki? (Club God)
+What's up, Lisa?
+Damn, I want all three (Come here), ooh
+Ashley (Ayy), ooh, Ashley (Ayy)
+I get hard when she walk past me (Look at that ass)
+'Cause she thick (Thick)
+Thi-thi-thi-thi-thi-thick (Thick)
+Thi-thi-thi-thi-thi-thick (Thick)
+Thi-thi-thi-thi-thick
+She make me stutter
+And her friends
+They thi-thi-thi-thi-thi-thick (Thick)
+Thi-thi-thi-thi-thi-thick (Thick)
+Thi-thi-thi-thi-, fuck, I want all of 'em
+(Ain't that DJ Chose over there?)
+(Look like DJ Chose)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://genius.com/Dj-chose-and-beatking-thick-lyrics</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>2834</v>
+      </c>
+      <c r="L29" t="n">
+        <v>482</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0.999996433780012</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>2020-11-14</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>5908007</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>{'thi': 81, 'thick': 31, 'ayy': 8, 'want': 8, 'ass': 7, 'ashley': 6, 'look': 5, 'bri': 5, 'ki': 5, 'dj': 4, 'walk': 4, 'friend': 4, 'like': 4, 'lisa': 3, 'come': 3, 'hard': 3, 'stutter': 3, 'thi-': 3, 'lookin': 3, 'pull': 3, 'light': 3, 'choose': 2, 'chose': 2, 'shawty': 2, 'tell': 2, 'whoop': 2, 'hit': 2, 'bitch': 2, 'smash': 2, 'club': 2, 'runnin': 1, 'round': 1, 'trap': 1, 'band': 1, 'brick': 1, 'ring': 1, 'rosie': 1, 'play': 1, 'feel': 1, 'stick': 1, 'red': 1, 'good': 1, 'lick': 1, 'cake': 1, 'th': 1, 'ice': 1, 'cream': 1, 'shake': 1, 'banana': 1, 'split': 1, 'fat': 1, 'boyfriend': 1, 'find': 1, 'rack': 1, 'gentleman': 1, 'open': 1, 'door': 1, 'store': 1, 'let': 1, 'buy': 1, 'nene': 1, 'bad': 1, 'tay': 1, 'neisha': 1, 'cash': 1, 'spazz': 1, 'man': 1, 'beatking': 1, 'shay': 1, 'linn': 1, 'raw': 1, 'public': 1, 'talk': 1, 'fool': 1, 'dick': 1, 'pop': 1, 'throw': 1, 'kill': 1, 'pussy': 1, 'covid': 1, 'spread': 1, 'leg': 1, 'close': 1, 'lame': 1, 'expose': 1, 'baby': 1, 'tryna': 1, 'cut': 1, 'fuck': 1, 'stretch': 1, 'mark': 1, 'bend': 1, 't': 1, 'partner': 1, 'start': 1, 'relationship': 1, 'godzilla': 1, 'duck': 1, 'free': 1, 'bread': 1, 'head': 1, 'leave': 1, 'key': 1, 'hold': 1, 'god': 1}</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>thi</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>thick</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>ayy</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
         <is>
           <t>want</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>fuck</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>god</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>turn</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>slide</t>
-        </is>
-      </c>
-      <c r="X11" t="b">
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>ass</t>
+        </is>
+      </c>
+      <c r="Y29" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>1162</v>
-      </c>
-      <c r="B12" t="n">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B30" t="n">
         <v>9834</v>
       </c>
-      <c r="C12" t="n">
-        <v>1162</v>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="C30" t="n">
+        <v>1211</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>Mike WiLL Made-It, Nicki Minaj &amp; YoungBoy Never Broke Again</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Mike WiLL Made-It, Nicki Minaj</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>What That Speed Bout!?</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G30" t="n">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H30" t="n">
         <v>35</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>(EarDrummers)
 It's the motherfuckin' queen (30, you a fool for this one)
@@ -2250,100 +5606,310 @@
 (EarDrummers)</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>https://genius.com/Mike-will-made-it-nicki-minaj-and-youngboy-never-broke-again-what-that-speed-bout-lyrics</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="K30" t="n">
         <v>3497</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L30" t="n">
         <v>692</v>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="N12" t="n">
+      <c r="N30" t="n">
         <v>0.9999945884775816</v>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>{'nigga': 11, 'leave': 9, 'mouth': 6, 'get': 6, 'big': 6, 'let': 5, 'chain': 5, 'look': 5, 'mike': 4, 'buy': 4, 'bottle': 4, 'pose': 4, 'shine': 4, 'notice': 4, 'late': 4, 'night': 4, 'sex': 4, 'bounce': 4, 'ass': 4, 'mama': 4, 'teach': 4, 'trench': 4, 'pimpin': 4, 'figure': 4, 'bouncin': 4, 'car': 4, 'switch': 4, 'drink': 4, 'club': 4, 'drivin': 4, 'fast': 4, 'baby': 4, 'speed': 4, 'real': 3, 'wanna': 3, 'word': 3, 'face': 3, 'fool': 2, 'girl': 2, 'bitch': 2, 'body': 2, 'want': 2, 'motherfuckin': 1, 'queen': 1, 'nba': 1, 'pull': 1, 'live': 1, 'rrr': 1, 'need': 1, 'pay': 1, 'cost': 1, 'tn': 1, 'shop': 1, 'worry': 1, 'problem': 1, 'poppin': 1, 'blow': 1, 'curb': 1, 'spend': 1, 'day': 1, 'wit': 1, 'layin': 1, 'loft': 1, 'hear': 1, 'tryna': 1, 'world': 1, 'ayo': 1, 'throw': 1, 'bag': 1, 'bad': 1, 'lil': 1, 'ex': 1, 'mad': 1, 'bitter': 1, 'diamond': 1, 'blingin': 1, 'tit': 1, 'hit': 1, 'phone': 1, 'curve': 1, 'pitch': 1, 'pussy': 1, 'good': 1, 'hook': 1, 'see': 1, 'pop': 1, 'smokin': 1, 'blunt': 1, 'dick': 1, 'thing': 1, 'lot': 1, 'thick': 1, 'thot': 1, 'spot': 1, 'vaccine': 1, 'shoot': 1, 'stuntin': 1, 'shot': 1, 'brr': 1, 'little': 1, 'joint': 1, 'southside': 1, 'fuck': 1, 'quarantine': 1, 'niggas': 1, 'sittin': 1, 'wide': 1, 'gentle': 1, 'chocha': 1, 'vroom': 1, 'tell': 1, 'metal': 1, 'ridin': 1, 'cherish': 1, 'break': 1, 'placement': 1, 'boy': 1, 'mean': 1, 'come': 1, 'swervin': 1, 'brand': 1, 'new': 1, 'coupe': 1, 'shoe': 1, 'blue': 1, 'clue': 1, 'sleep': 1, 'money': 1, 'lose': 1, 'snooze': 1, 'truth': 1}</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>2020-11-21</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>6126650</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>2020-11-06</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>{'nigga': 11, 'leave': 8, 'mouth': 6, 'big': 6, 'let': 5, 'chain': 5, 'look': 5, 'mike': 4, 'buy': 4, 'bottle': 4, 'pose': 4, 'shine': 4, 'notice': 4, 'late': 4, 'night': 4, 'sex': 4, 'bounce': 4, 'ass': 4, 'mama': 4, 'teach': 4, 'trench': 4, 'pimpin': 4, 'figure': 4, 'bouncin': 4, 'car': 4, 'switch': 4, 'drink': 4, 'club': 4, 'drivin': 4, 'fast': 4, 'baby': 4, 'speed': 4, 'real': 3, 'wanna': 3, 'word': 3, 'face': 3, 'eardrummers': 2, 'fool': 2, 'girl': 2, 'bitch': 2, 'body': 2, 'motherfuckin': 1, 'queen': 1, 'nba': 1, 'youngboy': 1, 'pull': 1, 'live': 1, 'need': 1, 'pay': 1, 'cost': 1, 'tn': 1, 'shop': 1, "nothin'": 1, 'worry': 1, 'problem': 1, 'poppin': 1, 'blow': 1, 'curb': 1, 'spend': 1, 'day': 1, 'wit': 1, 'layin': 1, 'loft': 1, 'hear': 1, 'tryna': 1, 'world': 1, 'ayo': 1, 'throw': 1, 'bag': 1, 'bad': 1, 'lil': 1, 'ex': 1, 'mad': 1, 'bitter': 1, 'diamonds': 1, 'blingin': 1, 'tit': 1, 'hit': 1, 'phone': 1, 'curve': 1, 'pitch': 1, 'pussy': 1, 'good': 1, 'hook': 1, 'mmm': 1, 'pop': 1, 'smokin': 1, 'blunt': 1, 'dick': 1, 'thing': 1, 'want': 1, 'left': 1, 'lot': 1, 'thick': 1, 'thot': 1, 'spot': 1, 'vaccine': 1, 'shoot': 1, 'stuntin': 1, 'shot': 1, 'brr': 1, 'little': 1, 'joint': 1, 'southside': 1, 'fuck': 1, 'quarantine': 1, 'niggas': 1, 'sittin': 1, 'wide': 1, 'gentle': 1, 'chocha': 1, 'skrrt': 1, 'vroom': 1, 'tell': 1, 'metal': 1, 'ridin': 1, 'cherish': 1, 'break': 1, 'placement': 1, 'boy': 1, 'mean': 1, 'come': 1, 'swervin': 1, 'brand': 1, 'new': 1, 'coupe': 1, 'forgiato': 1, 'shoe': 1, 'blues': 1, 'clues': 1, 'sleep': 1, 'money': 1, 'lose': 1, 'snooze': 1, 'truth': 1}</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>{'speed': 3, 'bout': 3, 'nicki': 3, 'minaj': 3, 'release': 3, 'single': 2, 'mike': 2, 'song': 2, 'youngboy': 2, 'instagram': 2, 'producer': 1, 'upcoming': 1, 'studio': 1, 'album': 1, 'mark': 1, 'anticipate': 1, 'collaboration': 1, 'break': 1, 'feature': 1, 'co': 1, 'production': 1, 'roc': 1, 'year': 1, 'eponymous': 1, 'tease': 1, 'july': 1, 'twitter': 1, 'post': 1, 'august': 1, 'preview': 1, 'livestream': 1, 'month': 1, 'announce': 1, 'track': 1, 'november': 1, 'futuristic': 1, 'music': 1, 'video': 1, 'star': 1, 'collaborator': 1}</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
         <is>
           <t>nigga</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>leave</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="V30" t="inlineStr">
         <is>
           <t>mouth</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
+      <c r="W30" t="inlineStr">
         <is>
           <t>big</t>
         </is>
       </c>
-      <c r="X12" t="b">
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>let</t>
+        </is>
+      </c>
+      <c r="Y30" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>1188</v>
-      </c>
-      <c r="B13" t="n">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>1214</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9865</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1214</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>King Von Featuring Polo G</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>King Von</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>The Code</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>66</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(Yo, Ayo)
+(JTK)
+Huh (These niggas know me for real)
+What? (For real)
+Von (Huh, Von)
+Rob who? Take what? You tweakin' (You tweakin')
+I said it was war, lil' nigga, I mean it
+I done got out the floor, who got shot? I don't know
+Headshots up close, lil' nigga, I seened it
+Gun got dirty, lil' nigga, I cleaned it (I cleaned it)
+.45 Glock on the bottom where the beam is (Where the beam is)
+If a nigga move foul then we aiming where his team is
+Sitting lil' niggas down, motherfucker, you ain't mean it
+Get caught, just stick to the code (Uh)
+Got some niggas locked up and they know what they know (Yeah)
+My homie lost trial, he'll be gone for a while (What?)
+If he give up me then they letting him go (Damn)
+He won't be back on the streets 'til he old (Shit)
+Everyone that he love, they gon' be gone
+I know some niggas that's quick to give police a tip (Huh, what?)
+But my nigga, he never folded
+I don't really give a fuck what the block said, too official to clear up a rumor
+My homie laugh hard, heard a opp was dead, guess he got a killer's sense of humor
+I heard that pussy been thinking 'bout death, well, that bullet gon' stick to his mind like a tumor (Uh-huh)
+Catch him and change him, look how they played him (Uh-huh), he only gangster up on his computer (Boom)
+He played it foul and we gave him a pass, that don't mean we won't get on yo' ass in the future
+And I won't trip when my lil' brother clutching, know how he puttin' in work with that Ruger (Grra-grra)
+My sneakers Louboutin, these ain't Puma's
+I got a low-end ho, she a booster
+Nut on her face and I call her an Uber
+He saving these hoes like his first name was Super
+Now it's time to ride, is you ready or what?
+Caught a few homicides, now they ain't letting up (Yeah)
+Thirteen hundred shots when we ride in them trucks
+Get on any side and we fucking you up
+I used to trap with the gangsters and clucks
+Straight in the slums where they prayin' for luck
+Like I'm Giannis, I play for them bucks
+Hood on my back and I came in it clutch, bitch
+Rob who? Take what? You tweakin' (Von)
+I said it was war, lil' nigga, I mean it (Uh-huh)
+I done got out the floor, who got shot? I don't know (Who)
+Headshots up close, lil' nigga, I seened it (Damn, boom)
+Gun got dirty, lil' nigga, I cleaned it (Yeah)
+.45 Glock on the bottom where the beam is (Uh-huh)
+If a nigga move foul then we aiming where his team is
+Sitting lil' niggas down, motherfucker, you ain't mean it
+Get caught, just stick to the code (Uh)
+Got some niggas locked up and they know what they know
+My homie lost trial, he'll be gone for a while (He gone?)
+If he give up me then they letting him go (Damn)
+He won't be back on the streets 'til he old (Nah)
+Everyone that he love, they gon' be gone (Nah, nah)
+I know some niggas that's quick to give police a tip
+But my nigga, he never folded
+I got my first hundred thou' and I broke it down
+With my team, boy, I am so goated
+I always stuck out in the crowd when I was a child (Yeah)
+I was special and my mama noticed (They knew it)
+That nigga cool, but Von, he the coldest (Brrr)
+I live my life like a book and I wrote it (Uh-huh)
+I drop a song, then these niggas quote it (Uh-huh)
+If he lookin' for me, I'm probably where his ho is (Yeah)
+Only fuck bitches that's bad, ain't got no kids (Yeah)
+I'm going crazy like I ain't got no sense (Yeah, yeah)
+You in that car and that bitch ain't got no tint (Huh?)
+We pulling up and we letting off four knicks (Rrrah, rrrah)
+Don't need cap credit we giving out facelifts
+He breathing hard, don't think he gon' make it (Boom, boom)
+I chopped the block up and ain't have my face mask (Boom, boom)
+So I'ma stay in, that's how my day end (Boom, boom)
+Say he a heavy, we see at the weigh-in (We see)
+He want a song or a verse, gotta pay then (Yeah, huh?)
+Don't see me stopping, don't know where my brakes is (Nah)
+Only want blues, man I’m starting to get racist
+Shit be getting real in that field and them chases
+Can't go back now, I got too many cases (Skrrt, skrrt, nah)
+You don't look for me and see too many faces (Bitch, bitch)
+Nigga, you in the way, and bitch, I'm your replacement (Bah, bah, bah, boom)
+Rob who? Take what? You tweakin'
+I said it was war, lil' nigga, I mean it
+I done got out the floor, who got shot? I don't know
+Headshots up close, lil' nigga, I seened it
+Gun got dirty, lil' nigga, I cleaned it (I cleaned it)
+.45 Glock on the bottom where the beam is (Where the beam is)
+If a nigga move foul then we aiming where his team is
+Sitting lil' niggas down, motherfucker, you ain't mean it
+Get caught, just stick to the code (Uh)
+Got some niggas locked up and they know what they know (Yeah)
+My homie lost trial, he'll be gone for a while (What?)
+If he give up me then they letting him go (Damn)
+He won't be back on the streets 'til he old (Shit)
+Everyone that he love, they gon' be gone
+I know some niggas that's quick to give police a tip (Huh, what?)
+But my nigga, he never folded (Nah)</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://genius.com/King-von-the-code-lyrics</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>4917</v>
+      </c>
+      <c r="L31" t="n">
+        <v>988</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0.9999964796369388</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>2020-11-21</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>6111552</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>2020-10-30</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>{'nigga': 28, 'know': 16, 'lil': 10, 'boom': 9, 'mean': 7, 'bitch': 6, 'clean': 5, 'beam': 5, 'catch': 5, 'stick': 5, 'let': 5, 'von': 4, 'team': 4, 'homie': 4, 'nah': 4, 'real': 3, 'rob': 3, 'war': 3, 'floor': 3, 'shoot': 3, 'headshot': 3, 'seene': 3, 'gun': 3, 'dirty': 3, 'glock': 3, 'aim': 3, 'sit': 3, 'code': 3, 'lock': 3, 'lose': 3, 'trial': 3, 'street': 3, 'old': 3, 'love': 3, 'quick': 3, 'police': 3, 'tip': 3, 'fold': 3, 'play': 3, 'face': 3, 'yo': 2, 'close': 2, 'shit': 2, 'fuck': 2, 'block': 2, 'hear': 2, 'sense': 2, 'think': 2, 'look': 2, 'gangster': 2, 'clutch': 2, 'grra': 2, 'end': 2, 'ho': 2, 'ride': 2, 'song': 2, 'rrrah': 2, 'want': 2, 'ayo': 1, 'jtk': 1, 'official': 1, 'clear': 1, 'rumor': 1, 'laugh': 1, 'opp': 1, 'dead': 1, 'guess': 1, 'killer': 1, 'humor': 1, 'pussy': 1, 'death': 1, 'bullet': 1, 'mind': 1, 'tumor': 1, 'change': 1, 'computer': 1, 'pass': 1, 'ass': 1, 'future': 1, 'trip': 1, 'brother': 1, 'puttin': 1, 'work': 1, 'ruger': 1, 'sneaker': 1, 'louboutin': 1, 'puma': 1, 'low': 1, 'booster': 1, 'nut': 1, 'uber': 1, 'save': 1, 'hoe': 1, 'super': 1, 'time': 1, 'ready': 1, 'homicide': 1, 'shot': 1, 'truck': 1, 'fucking': 1, 'trap': 1, 'cluck': 1, 'straight': 1, 'slum': 1, 'prayin': 1, 'luck': 1, 'giannis': 1, 'buck': 1, 'hood': 1, 'come': 1, 'thou': 1, 'break': 1, 'goated': 1, 'crowd': 1, 'child': 1, 'special': 1, 'mama': 1, 'notice': 1, 'cool': 1, 'cold': 1, 'live': 1, 'life': 1, 'book': 1, 'write': 1, 'drop': 1, 'lookin': 1, 'bad': 1, 'kid': 1, 'crazy': 1, 'car': 1, 'tint': 1, 'pull': 1, 'knick': 1, 'need': 1, 'cap': 1, 'credit': 1, 'facelift': 1, 'breathe': 1, 'chop': 1, 'mask': 1, 'stay': 1, 'day': 1, 'heavy': 1, 'weigh': 1, 'verse': 1, 'pay': 1, 'stop': 1, 'brake': 1, 'blue': 1, 'man': 1, 'start': 1, 'racist': 1, 'field': 1, 'chase': 1, 'case': 1, 'skrrt': 1, 'way': 1, 'replacement': 1}</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>{'code': 4, 'king': 2, 'von': 2, 'catch': 2, 'speak': 2, 'form': 1, 'slang': 1, 'tell': 1, 'multiple': 1, 'way': 1, 'rap': 1, 'mean': 1, 'swear': 1, 'oath': 1, 'snitch': 1, 'jam': 1, 'police': 1, 'remember': 1, 'know': 1, 'hear': 1, 'work': 1, 'plead': 1, 'fifth': 1, 'happen': 1, 'talk': 1}</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>nigga</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>lil</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>boom</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="Y31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>1239</v>
+      </c>
+      <c r="B32" t="n">
         <v>10011</v>
       </c>
-      <c r="C13" t="n">
-        <v>1188</v>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="C32" t="n">
+        <v>1239</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>Megan Thee Stallion</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Megan Thee Stallion</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Body</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G32" t="n">
         <v>5</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H32" t="n">
         <v>12</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>Real hot girl shit
 Ah
@@ -2408,104 +5974,277 @@
 Mwah</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>https://genius.com/Megan-thee-stallion-body-lyrics</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="K32" t="n">
         <v>2930</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L32" t="n">
         <v>443</v>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="N13" t="n">
+      <c r="N32" t="n">
         <v>0.9999971734029264</v>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>{'en': 1}</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>6180652</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>2020-11-20</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>{'ody': 172, 'body': 22, 'waist': 10, 'lil': 9, 'big': 9, 'titty': 9, 'crazy': 8, 'curvy': 8, 'wavy': 8, 'hot': 5, 'shit': 4, 'know': 4, 'num': 4, 'bitch': 4, 'mwah': 3, 'look': 3, 'eat': 3, 'real': 2, 'megan': 2, 'beef': 2, 'rule': 2, 'number': 2, 'repeat': 2, 'come': 2, 'ass': 2, 'tryna': 2, 'girl': 1, 'beat': 1, 'ju': 1, 'good': 1, 'wanna': 1, 'barbecue': 1, 'baby': 1, 'dress': 1, 'feel': 1, 'taste': 1, 'foreplay': 1, 'heat': 1, 'present': 1, 'absent': 1, 'speakin': 1, 'scary': 1, 'cat': 1, 'carole': 1, 'baskins': 1, 'baow': 1, 'ebony': 1, 'click': 1, 'picture': 1, 'gettin': 1, 'nigga': 1, 'quarantine': 1, 'tell': 1, 'ho': 1, 'year': 1, 'trip': 1, 'creep': 1, 'tip': 1, 'fuck': 1, 'category': 1, 'way': 1, 'sittin': 1, 'ratio': 1, 'control': 1, 'titties': 1, 'buy': 1, 'drink': 1, 'pantie': 1, 'build': 1, 'house': 1, 'brick': 1, 'spend': 1, 'lifetime': 1, 'head': 1, 'pop': 1, 'play': 1, 'touch': 1}</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>{'woman': 2, 'drop': 2, 'video': 2, 'feature': 2, 'body': 1, 'megan': 1, 'thee': 1, 'stallion': 1, 'brag': 1, 'desirability': 1, 'envy': 1, 'fantasy': 1, 'man': 1, 'serve': 1, 'fourth': 1, 'single': 1, 'good': 1, 'news': 1, 'night': 1, 'album': 1, 'release': 1, 'track': 1, 'pace': 1, 'instrumental': 1, 'build': 1, 'sample': 1, 'moan': 1, 'music': 1, 'cameo': 1, 'include': 1, 'blac': 1, 'chyna': 1, 'taraji': 1, 'p.': 1, 'henson': 1, 'jordyn': 1, 'woods': 1, 'asian': 1, 'da': 1, 'brat': 1}</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>ody</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>body</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>waist</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>lil</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>big</t>
+        </is>
+      </c>
+      <c r="Y32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>1249</v>
+      </c>
+      <c r="B33" t="n">
+        <v>10081</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Megan Thee Stallion</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Megan Thee Stallion</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Shots Fired</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>82</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Brrt, brrt, baow (Buddah Bless this beat)
+Imagine niggas lyin' 'bout shootin' a real bitch (Huh?)
+Just to save face for rapper niggas you chill with
+Imagine me givin' a fuck it was your fuckin' birthday (Fuck you)
+You in your feelings, I just thought it was another Thursday
+Now imagine me cockblockin' niggas on some dry shit (What?)
+I don't want you on the bench, believe you wouldn't've been invited (You wouldn't've been invited)
+And if it weren't for me, same week, you would have been indicted (Should've let them lock your ass up)
+You offered M's not to talk, I guess that made my friend excited, hmm
+Now y'all in cahoots, huh (Okay), you a puss in boots
+You shot a 5'10" bitch with a .22
+Talkin' 'bout bones and tendons like them bullets wasn't pellets
+A pussy nigga with a pussy gun in his feelings
+Okay, he in the backseat and he keep callin' me a bitch (He a bitch)
+We all know the shit I could've came back with (Lil'-ass nigga)
+He talkin' 'bout his followers, dollars, and goofy shit
+I told him, "You're not poppin', you just on the remix" (What's poppin'?)
+Now here we are, 2020, eight months later
+And we still ain't got no fuckin' justice for Breonna Taylor (Breonna Taylor)
+Any nigga on that nigga's side is a clout chaser (Fuck y'all)
+A bitch who he fuckin' or a ho that he payin', uh
+Imagine me, hahaha
+Imagine me entertaining you fuckin' goofy-ass niggas and you fuckin' goofy-ass bitches
+Brrt, brrt, blaow (Buddah Bless this beat)
+Who you takin' shots at, goofy-ass nigga?
+Keep your broke ass out a rich bitch business
+And that go for you bitches too that's tryna get picked
+Talkin' shit, I'll slide on you, thinkin' that you slick
+Ooh shit, it's a lotta weak niggas in this bitch
+They confused
+They hate me, but watch my videos beatin' they dick
+Who a snitch? I ain't never went to the police with no names
+I thought a bitch that got her chain snatched, caught a loss had something to say, ayy
+I be speakin' facts, uh, they can't handle that, uh
+They want me to be the bad guy, let me put my mask on
+I was chose, I ain't ask to be this motherfuckin' cold
+Still the brightest star and not just the ones that's up in this Rolls
+Keep it pimpin' always, actions do the talkin'
+I know you want the clout, so I ain't sayin' y'all names
+Oh, you out here ballin', huh? Who you get that money from?
+Ten toes down for whoever get the Patek, huh?
+I be so content 'cause I know I'm a real bitch
+And anything I say, I'm never scared to repeat it
+You'd think I was a killer how these niggas scared as shit
+I pull up one deep, but niggas bring they whole clique, ayy
+Who you takin' shots at, goofy-ass bitch?
+Watchin' me succeed from your knees, suckin' dick
+I know you want attention from the niggas that I get
+I'm a steak, you a side plate, shrimp, stay in your place
+Real bitch, yeah, yeah, I ain't sellin' fairytales
+FaceTime my nigga while my other nigga layin' there
+Bitch think she sabotagin' somethin', tryna run and tell
+Bitch, I got a bond with my niggas and they all aware, yeah
+Who you takin' shots at? Shut up with your scary ass
+No profile pic, bitch, your mama shouldn't've had
+Kick me while I'm down bad, I remember all that
+Next nigga send a shot, I'ma sent it right back (Ah)
+Brrt, brrt
+Brrt, haha
+Ah
+Should've let them lock your ass up
+Pussy</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>https://genius.com/Megan-thee-stallion-shots-fired-lyrics</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>3269</v>
+      </c>
+      <c r="L33" t="n">
+        <v>618</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="Q13" t="n">
+      <c r="N33" t="n">
+        <v>0.9999960159615564</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>6180678</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>2020-11-20</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>{'bitch': 16, 'nigga': 14, 'ass': 8, 'shit': 6, 'imagine': 5, 'fuckin': 5, 'goofy': 5, 'think': 4, 'want': 4, 'know': 4, 'shot': 4, 'brrt': 3, 'niggas': 3, 'real': 3, 'fuck': 3, 'let': 3, 'talkin': 3, 'pussy': 3, 'takin': 3, 'buddah': 2, 'bless': 2, 'beat': 2, 'feeling': 2, 'invite': 2, 'lock': 2, 'tell': 2, 'breonna': 2, 'taylor': 2, 'clout': 2, 'tryna': 2, 'dick': 2, 'ayy': 2, 'bad': 2, 'scared': 2, 'send': 2, 'baow': 1, 'lyin': 1, 'shootin': 1, 'save': 1, 'face': 1, 'rapper': 1, 'chill': 1, 'givin': 1, 'birthday': 1, 'thursday': 1, 'cockblockin': 1, 'dry': 1, 'bench': 1, 'believe': 1, 'week': 1, 'indict': 1, 'offer': 1, 'm': 1, 'talk': 1, 'guess': 1, 'friend': 1, 'excited': 1, 'cahoot': 1, 'puss': 1, 'boot': 1, 'shoot': 1, 'bone': 1, 'tendon': 1, 'bullet': 1, 'pellet': 1, 'gun': 1, 'backseat': 1, 'callin': 1, 'come': 1, "lil'-ass": 1, 'follower': 1, 'dollar': 1, 'remix': 1, 'poppin': 1, 'month': 1, 'justice': 1, 'chaser': 1, 'ho': 1, 'entertain': 1, 'blaow': 1, 'broke': 1, 'rich': 1, 'business': 1, 'pick': 1, 'slide': 1, 'thinkin': 1, 'slick': 1, 'lotta': 1, 'weak': 1, 'confuse': 1, 'hate': 1, 'watch': 1, 'video': 1, 'beatin': 1, 'snitch': 1, 'police': 1, 'chain': 1, 'snatch': 1, 'catch': 1, 'loss': 1, 'speakin': 1, 'fact': 1, 'handle': 1, 'guy': 1, 'mask': 1, 'choose': 1, 'ask': 1, 'motherfuckin': 1, 'cold': 1, 'bright': 1, 'star': 1, 'rolls': 1, 'action': 1, 'sayin': 1, 'ballin': 1, 'money': 1, 'toe': 1, 'patek': 1, 'content': 1, 'repeat': 1, 'killer': 1, 'pull': 1, 'deep': 1, 'bring': 1, 'clique': 1, 'watchin': 1, 'succeed': 1, 'knee': 1, 'attention': 1, 'steak': 1, 'plate': 1, 'shrimp': 1, 'stay': 1, 'place': 1, 'sellin': 1, 'fairytale': 1, 'facetime': 1, 'layin': 1, 'sabotagin': 1, "somethin'": 1, 'run': 1, 'bond': 1, 'aware': 1, 'shut': 1, 'scary': 1, 'profile': 1, 'pic': 1, 'mama': 1, 'kick': 1, 'remember': 1}</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>{'shot': 2, 'album': 2, 'shooting': 2, 'song': 2, 'fired': 1, 'introduction': 1, 'megans': 1, 'debut': 1, 'address': 1, 'july': 1, 'incident': 1, 'involve': 1, 'tory': 1, 'lanezwhom': 1, 'refrain': 1, 'serve': 1, 'end': 1, 'conversation': 1, 'rest': 1, 'focus': 1, 'megan': 1, 'question': 1, 'lack': 1, 'justice': 1, 'breonna': 1, 'taylor': 1, 'black': 1, 'woman': 1, 'track': 1, 'sample': 1, 'm': 1, 'afraid': 1, 'masquerade': 1, 'david': 1, 'porter': 1, 'source': 1, 'notorious': 1, 'b.i.g.s': 1, 'hit': 1, 'ya': 1}</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>bitch</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>nigga</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>ass</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>shit</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>imagine</t>
+        </is>
+      </c>
+      <c r="Y33" t="b">
         <v>1</v>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>{'ody': 172, 'body': 22, 'waist': 10, 'lil': 9, 'big': 9, 'titty': 9, 'crazy': 8, 'curvy': 8, 'wavy': 8, 'hot': 5, 'shit': 4, 'know': 4, 'bitch': 4, 'mwah': 3, 'look': 3, 'eat': 3, 'num': 3, 'get': 3, 'real': 2, 'megan': 2, 'beef': 2, 'take': 2, 'rule': 2, 'number': 2, 'repeat': 2, 'come': 2, 'ass': 2, 'tryna': 2, 'girl': 1, 'beat': 1, 'ju': 1, 'give': 1, 'good': 1, 'wanna': 1, 'saucy': 1, 'barbecue': 1, 'baby': 1, 'dress': 1, 'feel': 1, 'taste': 1, 'foreplay': 1, 'heat': 1, 'present': 1, 'absent': 1, 'speakin': 1, 'thre': 1, 'scary': 1, 'cat': 1, 'carole': 1, 'ebony': 1, 'click': 1, 'picture': 1, 'gettin': 1, 'nigga': 1, 'quarantine': 1, 'tell': 1, 'ho': 1, 'year': 1, 'trip': 1, 'creep': 1, 'tip': 1, 'fuck': 1, 'category': 1, 'way': 1, 'sittin': 1, 'ratio': 1, 'control': 1, 'titties': 1, 'see': 1, 'buy': 1, 'drink': 1, 'pantie': 1, 'build': 1, 'house': 1, 'brick': 1, 'spend': 1, 'lifetime': 1, 'head': 1, 'pop': 1, 'play': 1, 'touch': 1}</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>ody</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>waist</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>lil</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>big</t>
-        </is>
-      </c>
-      <c r="X13" t="b">
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>1317</v>
+      </c>
+      <c r="B34" t="n">
+        <v>10459</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1317</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Eminem</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Eminem</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Gnat</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>1250</v>
-      </c>
-      <c r="B14" t="n">
-        <v>10459</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1250</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Eminem</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Eminem</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Gnat</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="H34" t="n">
         <v>60</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>Yeah, yeah, sick
 (d.a. got that dope)
@@ -2619,69 +6358,70 @@
 It's like trying to fight off a gnat (Fight off a gnat)</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>https://genius.com/Eminem-gnat-lyrics</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="K34" t="n">
         <v>5762</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L34" t="n">
         <v>1113</v>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="N14" t="n">
+      <c r="N34" t="n">
         <v>0.9999988998900446</v>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>{'en': 6}</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>{'get': 15, 'fight': 8, 'take': 7, 'bite': 7, 'gun': 7, 'dope': 6, 'bar': 6, 'bat': 6, 'infect': 6, 'sars': 6, 'corona': 6, 'martian': 6, 'human': 6, 'virus': 6, 'attack': 6, 'machine': 6, 'come': 5, 'gnat': 5, 'little': 5, 'go': 4, 'try': 4, 'brr': 3, 'shit': 3, 'kill': 3, 'fuck': 3, 'chill': 3, 'mic': 3, 'know': 3, 'dog': 3, 'bitch': 3, 'flow': 3, 'sick': 2, 'd.a': 2, '.': 2, 'high': 2, 'wait': 2, 'pencil': 2, 'mean': 2, 'time': 2, 'end': 2, 'hold': 2, 'straw': 2, 'cough': 2, 'close': 2, 'stay': 2, 'face': 2, 'mask': 2, 'norma': 2, 'jean': 2, 'drip': 2, 'air': 2, 'drop': 2, 'ring': 2, 'shoot': 2, 'money': 2, 'load': 2, 'bit': 2, 'stackin': 1, 'chip': 1, 'hoe': 1, 'shaq': 1, 'tiptoe': 1, 'empire': 1, 'state': 1, 'buildin': 1, 'child': 1, 'play': 1, 'anni': 1, 'pile': 1, 'ight': 1, 'dead': 1, 'juvenile': 1, 'await': 1, 'trial': 1, 'date': 1, 'trump': 1, 'hypersensitive': 1, 'vice': 1, 'president': 1, 'penmanship': 1, 'tend': 1, 'ill': 1, 'violence': 1, 'skill': 1, 'write': 1, 'gettin': 1, 'ride': 1, 'die': 1, 'squad': 1, 'battle': 1, 'line': 1, 'draw': 1, 'involve': 1, 'k9': 1, 'brawl': 1, 'similar': 1, 'mike': 1, 'vick': 1, 'rid': 1, 'stripe': 1, 'tiger': 1, 'maul': 1, 'palm': 1, 'claw': 1, 'swing': 1, 'jaw': 1, 'rip': 1, 'swipe': 1, 'paw': 1, 'dick': 1, 'suck': 1, 'wife': 1, 'cover': 1, 'mouth': 1, 'send': 1, 'pneumonia': 1, 'symptom': 1, 'contracting': 1, 'separate': 1, 'pose': 1, 'risk': 1, 'social': 1, 'distancing': 1, 'viral': 1, 'strapped': 1, 'lysol': 1, 'way': 1, 'pine': 1, 'sol': 1, 'ajax': 1, 'dry': 1, 'football': 1, 'umpire': 1, 'callin': 1, 'playback': 1, 'yard': 1, 'rhyme': 1, 'nother': 1, 'day': 1, 'quarantine': 1, 'cordone': 1, 'lookin': 1, 'horror': 1, 'scene': 1, 'home': 1, 'order': 1, 'extreme': 1, 'nightmare': 1, 'marilyn': 1, 'monroe': 1, 'heroin': 1, 'lyrical': 1, 'morphine': 1, 'thorazine': 1, 'fuckin': 1, 'fiend': 1, 'thing': 1, 'change': 1, 'semblance': 1, 'normalcy': 1, 'need': 1, 'dark': 1, 'horse': 1, 'knight': 1, 'mare': 1, 'mom': 1, 'feed': 1, 'valium': 1, 'think': 1, 'call': 1, 'chair': 1, 'contact': 1, 'eyewear': 1, 'minute': 1, 'let': 1, 'lie': 1, 'hindsight': 1, 'mirror': 1, 'year': 1, 'ball': 1, 'times': 1, 'square': 1, 'hair': 1, 'trigger': 1, 'idea': 1, 'sponge': 1, 'mop': 1, 'bucket': 1, 'hear': 1, 'spot': 1, 'mil': 1, 'big': 1, 'buck': 1, 'clip': 1, 'inappropriate': 1, 'opiate': 1, 'grope': 1, 'trophy': 1, 'hope': 1, 'slow': 1, 'begin': 1, 'float': 1, 'pen': 1, 'explode': 1, 'hiroshima': 1, 'utopia': 1, 'og': 1, 'goat': 1, 'sodium': 1, 'assault': 1, 'salt': 1, 'podium': 1, 'throat': 1, 'holy': 1, 'zone': 1, 'imodium': 1, 'commode': 1, 'petroleum': 1, 'plutonium': 1, 'phony': 1, 'crib': 1, 'ho': 1, 'pole': 1, 'vote': 1, 'clothing': 1, 'strip': 1, 'toe': 1, 'gloating': 1, 'nose': 1, 'boeing': 1, 'argument': 1, 'lick': 1, 'klonopin': 1, 'dinner': 1, 'hit': 1, 'motherfucking': 1, 'ottoman': 1, 'liver': 1, 'deliver': 1, 'river': 1, 'jump': 1, 'water': 1, 'wad': 1, 'lot': 1, 'drippin': 1, 'mile': 1, 'hour': 1, 'runnin': 1}</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2021-01-02</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>6285862</v>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>{'fight': 8, 'covid': 7, 'bite': 7, 'gun': 7, 'dope': 6, 'bar': 6, 'bat': 6, 'infect': 6, 'sars': 6, 'corona': 6, 'martian': 6, 'human': 6, 'virus': 6, 'attack': 6, 'machine': 6, 'come': 5, 'gnat': 5, 'little': 5, 'try': 4, 'brr': 3, 'shit': 3, 'kill': 3, 'fuck': 3, 'chill': 3, 'mic': 3, 'know': 3, 'dog': 3, 'bitch': 3, 'flow': 3, 'sick': 2, 'd.a': 2, 'high': 2, 'wait': 2, 'nah': 2, 'pencil': 2, 'mean': 2, 'time': 2, 'end': 2, 'hold': 2, 'straw': 2, 'cough': 2, 'close': 2, 'stay': 2, 'face': 2, 'mask': 2, 'norma': 2, 'jean': 2, 'drip': 2, 'air': 2, 'drop': 2, 'ring': 2, 'shoot': 2, 'money': 2, 'load': 2, 'bit': 2, 'chip': 1, 'hoe': 1, 'shaq': 1, 'tiptoe': 1, 'empire': 1, 'state': 1, 'buildin': 1, 'child': 1, 'play': 1, 'childrn': 1, 'anni': 1, 'nihilate': 1, 'pile': 1, 'ight': 1, 'dead': 1, 'juvenile': 1, 'await': 1, 'trial': 1, 'date': 1, "nothin'": 1, 'trump': 1, 'hypersensitive': 1, 'referencin': 1, 'vice': 1, 'president': 1, 'penmanship': 1, 'tend': 1, 'ill': 1, 'violence': 1, 'skill': 1, 'write': 1, 'gettin': 1, 'ride': 1, 'die': 1, 'squad': 1, 'battle': 1, 'line': 1, 'draw': 1, 'involve': 1, 'k9': 1, 'brawl': 1, 'similar': 1, 'mike': 1, 'vick': 1, 'rid': 1, 'got': 1, 'stripe': 1, 'tiger': 1, 'maul': 1, 'palm': 1, 'claw': 1, 'swing': 1, 'jaw': 1, 'rip': 1, 'swipe': 1, 'paw': 1, 'dick': 1, 'suck': 1, 'wife': 1, 'cover': 1, 'mouth': 1, 'send': 1, 'pneumonia': 1, 'symptom': 1, 'contracting': 1, 'separate': 1, 'pose': 1, 'risk': 1, 'social': 1, 'distancing': 1, 'viral': 1, 'strapped': 1, 'lysol': 1, 'way': 1, 'shh': 1, 'pine': 1, 'sol': 1, 'ajax': 1, 'dry': 1, 'football': 1, 'umpire': 1, 'callin': 1, 'playback': 1, 'yard': 1, 'rhyme': 1, 'nother': 1, 'day': 1, 'quarantine': 1, 'cordone': 1, 'lookin': 1, 'horror': 1, 'scene': 1, 'home': 1, 'order': 1, 'extreme': 1, 'nightmare': 1, 'marilyn': 1, 'monroe': 1, 'heroin': 1, 'lyrical': 1, 'morphine': 1, 'thorazine': 1, 'fuckin': 1, 'fiend': 1, 'thing': 1, 'change': 1, 'semblance': 1, 'normalcy': 1, 'need': 1, 'hydrochloroquine': 1, 'dark': 1, 'horse': 1, 'knight': 1, 'mare': 1, 'mom': 1, 'feed': 1, 'valium': 1, 'mmm': 1, 'thought': 1, 'chair': 1, 'contact': 1, 'eyewear': 1, 'minute': 1, 'let': 1, 'lie': 1, 'hindsight': 1, 'mirror': 1, 'year': 1, 'ball': 1, 'times': 1, 'square': 1, 'hair': 1, 'trigger': 1, 'idea': 1, 'sponge': 1, 'mop': 1, 'bucket': 1, 'hear': 1, 'spot': 1, 'mil': 1, 'big': 1, 'buck': 1, 'clip': 1, 'inappropriate': 1, 'opiate': 1, 'grope': 1, 'trophy': 1, 'hope': 1, "codeine'll": 1, "od'in": 1, 'slow': 1, 'begin': 1, 'float': 1, 'pen': 1, 'explode': 1, 'hiroshima': 1, 'utopia': 1, 'og': 1, 'g.o.a.t.': 1, 'goat': 1, 'sodium': 1, 'assault': 1, 'salt': 1, 'podium': 1, 'throat': 1, 'holy': 1, 'camoly': 1, 'zone': 1, 'imodium': 1, 'commode': 1, 'petroleum': 1, 'plutonium': 1, 'phony': 1, 'crib': 1, 'ho': 1, 'pole': 1, 'vote': 1, 'clothing': 1, 'strip': 1, 'toe': 1, 'gloating': 1, 'nose': 1, 'boeing': 1, 'argument': 1, 'lick': 1, 'klonopin': 1, 'dinner': 1, 'hit': 1, 'motherfucking': 1, 'ottoman': 1, 'liver': 1, 'deliver': 1, 'river': 1, 'jump': 1, 'water': 1, 'wad': 1, 'lot': 1, 'drippin': 1, 'soppin': 1, 'mile': 1, 'hour': 1}</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>{'video': 4, 'music': 3, 'gnat': 2, 'cole': 2, 'promotional': 1, 'single': 1, 'eminems': 1, 'murder': 1, 'project': 1, 'veteran': 1, 'rapper': 1, 'cover': 1, 'topic': 1, 'covid-19': 1, 'pandemic': 1, 'addiction': 1, 'valium': 1, 'donald': 1, 'trumps': 1, 'administration': 1, 'song': 1, 'direct': 1, 'bennetts': 1, 'lyrical': 1, 'lemonade': 1, 'shoot': 1, 'standard': 1, 'album': 1, 'godzilla': 1, 'january': 1, 'december': 1, 'release': 1, 'b': 1, 'tweet': 1, 'new': 1, '@eminem': 1, 'beautiful': 1, 'thing': 1, 'recreate': 1, 'nostalgic': 1, 'moment': 1, 'childhood': 1, 'hero': 1}</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
         <is>
           <t>fight</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>take</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>covid</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
         <is>
           <t>bite</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="W34" t="inlineStr">
         <is>
           <t>gun</t>
         </is>
       </c>
-      <c r="X14" t="b">
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>dope</t>
+        </is>
+      </c>
+      <c r="Y34" t="b">
         <v>1</v>
       </c>
     </row>
